--- a/on_trucks/Processed_Stand_Alone/34_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/34_11R22.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>106</v>
       </c>
       <c r="E2">
-        <v>0.03149134985066777</v>
+        <v>0.002304090588778202</v>
       </c>
       <c r="F2">
         <v>0.5470048539676504</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>34</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>106</v>
       </c>
       <c r="E3">
-        <v>0.004777596153428252</v>
+        <v>0.00477131187798357</v>
       </c>
       <c r="F3">
         <v>0.5029013543361214</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>34</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>106</v>
       </c>
       <c r="E4">
-        <v>0.007074915418106599</v>
+        <v>0.007013136003042588</v>
       </c>
       <c r="F4">
         <v>0.578527826526093</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>34</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>106</v>
       </c>
       <c r="E6">
-        <v>0.004196736838098512</v>
+        <v>0.004000218324993229</v>
       </c>
       <c r="F6">
         <v>0.5785148011885438</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>34</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>117</v>
       </c>
       <c r="E2">
-        <v>0.03149134985066777</v>
+        <v>0.002304090588778202</v>
       </c>
       <c r="F2">
         <v>0.7020806170895488</v>
       </c>
       <c r="G2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H2">
         <v>34</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>115</v>
       </c>
       <c r="E3">
-        <v>0.004777596153428252</v>
+        <v>0.00477131187798357</v>
       </c>
       <c r="F3">
         <v>0.7097997802582924</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3">
         <v>34</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>112</v>
       </c>
       <c r="E4">
-        <v>0.007074915418106599</v>
+        <v>0.007013136003042588</v>
       </c>
       <c r="F4">
         <v>0.7045070538158008</v>
       </c>
       <c r="G4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <v>34</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>110</v>
       </c>
       <c r="E6">
-        <v>0.004196736838098512</v>
+        <v>0.004000218324993229</v>
       </c>
       <c r="F6">
         <v>0.7178998422983154</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H6">
         <v>34</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>154</v>
       </c>
       <c r="E2">
-        <v>0.03149134985066777</v>
+        <v>0.002304090588778202</v>
       </c>
       <c r="F2">
         <v>0.8011567770329838</v>
       </c>
       <c r="G2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H2">
         <v>34</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>150</v>
       </c>
       <c r="E3">
-        <v>0.004777596153428252</v>
+        <v>0.00477131187798357</v>
       </c>
       <c r="F3">
         <v>0.8116631978113081</v>
       </c>
       <c r="G3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H3">
         <v>34</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>135</v>
       </c>
       <c r="E4">
-        <v>0.007074915418106599</v>
+        <v>0.007013136003042588</v>
       </c>
       <c r="F4">
         <v>0.8009109087180396</v>
       </c>
       <c r="G4">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4">
         <v>34</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>117</v>
       </c>
       <c r="E6">
-        <v>0.004196736838098512</v>
+        <v>0.004000218324993229</v>
       </c>
       <c r="F6">
         <v>0.8022051955405201</v>
       </c>
       <c r="G6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6">
         <v>34</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>168</v>
       </c>
       <c r="E2">
-        <v>0.03149134985066777</v>
+        <v>0.002304090588778202</v>
       </c>
       <c r="F2">
         <v>0.9084691230932962</v>
       </c>
       <c r="G2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H2">
         <v>34</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>167</v>
       </c>
       <c r="E3">
-        <v>0.004777596153428252</v>
+        <v>0.00477131187798357</v>
       </c>
       <c r="F3">
         <v>0.9073152185163019</v>
       </c>
       <c r="G3">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H3">
         <v>34</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>156</v>
       </c>
       <c r="E4">
-        <v>0.007074915418106599</v>
+        <v>0.007013136003042588</v>
       </c>
       <c r="F4">
         <v>0.9025922877798719</v>
       </c>
       <c r="G4">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H4">
         <v>34</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>155</v>
       </c>
       <c r="E6">
-        <v>0.004196736838098512</v>
+        <v>0.004000218324993229</v>
       </c>
       <c r="F6">
         <v>0.9121962684920591</v>
       </c>
       <c r="G6">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H6">
         <v>34</v>

--- a/on_trucks/Processed_Stand_Alone/34_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/34_11R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>1.083050867473287E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>4.789023377263203E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>5.320874385843765E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>5.766513393033435E-05</v>
+        <v>1.70633428895211E-06</v>
       </c>
       <c r="F2">
-        <v>5.458211388059477E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>7.274629117364461E-05</v>
+        <v>1.691397058574865E-05</v>
       </c>
       <c r="H2">
-        <v>5.597299090303434E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>7.960219128425355E-05</v>
+        <v>2.382736812462496E-05</v>
       </c>
       <c r="J2">
-        <v>3.786260361085232E-05</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>3.085371049777508E-05</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>6.112502098615407E-05</v>
+        <v>5.195237900526102E-06</v>
       </c>
       <c r="M2">
-        <v>3.878911262580005E-05</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>6.289276101467373E-05</v>
+        <v>6.977803189601691E-06</v>
       </c>
       <c r="O2">
-        <v>5.85206549441368E-05</v>
+        <v>2.569030182395271E-06</v>
       </c>
       <c r="P2">
-        <v>2.54974734113608E-05</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.898619830631183E-05</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>3.564780457512009E-07</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>4.088593465962891E-06</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>1.023756616516669E-06</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>1.185986819133993E-05</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>2.64835894272702E-05</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>3.430580055346901E-05</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>9.770526157631753E-06</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>2.904586746860843E-05</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>2.422340539080575E-05</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>5.79980309357051E-05</v>
+        <v>2.04202315554866E-06</v>
       </c>
       <c r="AB2">
-        <v>4.819365577752726E-05</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>3.430580055346901E-05</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>2.924786547186735E-05</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>3.859593662268347E-05</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>3.813244361520575E-05</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>3.23618265221061E-05</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>2.904586746860843E-05</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>1.263499820384541E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1.567075925282254E-06</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>7.785556125607447E-08</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>2.016964632540486E-06</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>3.318217253534108E-05</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>2.328071437559695E-05</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>5.024891381068555E-05</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>6.054137397673786E-05</v>
+        <v>4.606696099541183E-06</v>
       </c>
       <c r="AQ2">
-        <v>4.115438066395985E-05</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>1.833967529588122E-05</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>3.361462654231803E-05</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>3.515027056709318E-05</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>1.817979129330174E-05</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>1.022359116494123E-05</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>8.94996914439338E-06</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>5.906929095298817E-06</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>8.94996914439338E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>1.274756920566156E-07</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>9.862492159115475E-07</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>3.830939861806064E-07</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>3.38177565455952E-07</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>4.813263077654271E-07</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>3.56413835750165E-06</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>2.892771646670226E-06</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>8.719774140679555E-07</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>2.535314840903234E-07</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>1.86070203001944E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>1.249038920151238E-05</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>1.046425916882402E-05</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>1.662151526816146E-06</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>2.030188332753829E-07</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>7.165248115599774E-06</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>9.887829159524247E-06</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>5.388670686937549E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>3.906222663020631E-05</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>3.386891054642049E-05</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>2.349241037901232E-05</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>2.422340539080575E-05</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>2.784858044929214E-05</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>2.552960041187911E-05</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>3.164223051049659E-06</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>3.330835453737682E-09</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>1.274756920566156E-07</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>6.74945750889166E-07</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>4.228214568215453E-06</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>2.328071437559695E-05</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>3.043945049109166E-05</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>6.650384107293269E-05</v>
+        <v>1.061916779303601E-05</v>
       </c>
       <c r="CE2">
-        <v>5.320874385843765E-05</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>5.266428784965373E-05</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>6.52889510533324E-05</v>
+        <v>9.394089023508255E-06</v>
       </c>
       <c r="CH2">
-        <v>6.650384107293269E-05</v>
+        <v>1.061916779303601E-05</v>
       </c>
       <c r="CI2">
-        <v>5.266428784965373E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>5.37559908672666E-05</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>2.982331748115134E-05</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>2.625879142364344E-05</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.02916100047046592</v>
+        <v>0.02934911858397333</v>
       </c>
       <c r="CN2">
-        <v>0.01530100424685714</v>
+        <v>0.01537288464893408</v>
       </c>
       <c r="CO2">
-        <v>0.03835715761883116</v>
+        <v>0.03862239987029901</v>
       </c>
       <c r="CP2">
-        <v>0.07988259128877735</v>
+        <v>0.08049608914566379</v>
       </c>
       <c r="CQ2">
-        <v>7.147540115314085E-05</v>
+        <v>1.563242216786296E-05</v>
       </c>
       <c r="CR2">
-        <v>0.0001590275825656547</v>
+        <v>0.0001039188653387459</v>
       </c>
       <c r="CS2">
-        <v>0.001384444422335788</v>
+        <v>0.001339612738861645</v>
       </c>
       <c r="CT2">
-        <v>0.01737063028024723</v>
+        <v>0.01745986772844143</v>
       </c>
       <c r="CU2">
-        <v>0.006887201811113942</v>
+        <v>0.006888519341182811</v>
       </c>
       <c r="CV2">
-        <v>0.03553138057324177</v>
+        <v>0.03577292427158647</v>
       </c>
       <c r="CW2">
-        <v>0.008188616132110173</v>
+        <v>0.008200848053485857</v>
       </c>
       <c r="CX2">
-        <v>0.09603520654937386</v>
+        <v>0.09678416930835822</v>
       </c>
       <c r="CY2">
-        <v>0.0006762788109106728</v>
+        <v>0.0006255080529477794</v>
       </c>
       <c r="CZ2">
-        <v>0.0001584759925567557</v>
+        <v>0.0001033626493862861</v>
       </c>
       <c r="DA2">
-        <v>0.06172268099579636</v>
+        <v>0.06218387964724412</v>
       </c>
       <c r="DB2">
-        <v>0.0001375499322191473</v>
+        <v>8.226109135562959E-05</v>
       </c>
       <c r="DC2">
-        <v>0.1536497824788925</v>
+        <v>0.1548819334251635</v>
       </c>
       <c r="DD2">
-        <v>0.003139150050645145</v>
+        <v>0.003109034313927281</v>
       </c>
       <c r="DE2">
-        <v>0.05804243793642155</v>
+        <v>0.05847277200292802</v>
       </c>
       <c r="DF2">
-        <v>0.0009841588158778223</v>
+        <v>0.0009359701125270089</v>
       </c>
       <c r="DG2">
-        <v>0.04419135071295649</v>
+        <v>0.04450552178391056</v>
       </c>
       <c r="DH2">
-        <v>0.0002728229244015598</v>
+        <v>0.0002186685588132122</v>
       </c>
       <c r="DI2">
-        <v>0.008753294141220346</v>
+        <v>0.008770261769476113</v>
       </c>
       <c r="DJ2">
-        <v>0.003797238261262343</v>
+        <v>0.003772641621829022</v>
       </c>
       <c r="DK2">
-        <v>0.01689962527264832</v>
+        <v>0.01698491260835531</v>
       </c>
       <c r="DL2">
-        <v>0.01373203222154429</v>
+        <v>0.01379075434315863</v>
       </c>
       <c r="DM2">
-        <v>0.0009712897156702</v>
+        <v>0.0009229930848183853</v>
       </c>
       <c r="DN2">
-        <v>0.004292363069250387</v>
+        <v>0.004271918824494847</v>
       </c>
       <c r="DO2">
-        <v>0.002295572537035377</v>
+        <v>0.002258382085576308</v>
       </c>
       <c r="DP2">
-        <v>0.0009925928160138915</v>
+        <v>0.0009444748449243432</v>
       </c>
       <c r="DQ2">
-        <v>0.003466251055922395</v>
+        <v>0.003438878571918789</v>
       </c>
       <c r="DR2">
-        <v>0.000347244905602239</v>
+        <v>0.0002937146845400027</v>
       </c>
       <c r="DS2">
-        <v>0.0006569586805989735</v>
+        <v>0.0006060258931740413</v>
       </c>
       <c r="DT2">
-        <v>0.001827459729483129</v>
+        <v>0.001786343421150557</v>
       </c>
       <c r="DU2">
-        <v>0.001425351522995758</v>
+        <v>0.001380862909439187</v>
       </c>
       <c r="DV2">
-        <v>0.002803122245223877</v>
+        <v>0.002770188390632889</v>
       </c>
       <c r="DW2">
-        <v>0.0002086283333658832</v>
+        <v>0.0001539355958885525</v>
       </c>
       <c r="DX2">
-        <v>7.306576117879875E-05</v>
+        <v>1.723611984576481E-05</v>
       </c>
       <c r="DY2">
-        <v>0.0007938565828076013</v>
+        <v>0.0007440718980657895</v>
       </c>
       <c r="DZ2">
-        <v>0.002433522439260977</v>
+        <v>0.002397488913147923</v>
       </c>
       <c r="EA2">
-        <v>0.00571199139215381</v>
+        <v>0.005703452947708308</v>
       </c>
       <c r="EB2">
-        <v>0.0009712897156702</v>
+        <v>0.0009229930848183853</v>
       </c>
       <c r="EC2">
-        <v>0.0005184237083639341</v>
+        <v>0.0004663290888673413</v>
       </c>
       <c r="ED2">
-        <v>0.0004915210079299023</v>
+        <v>0.0004392007672802225</v>
       </c>
       <c r="EE2">
-        <v>7.657157123535934E-06</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.0004111814866337531</v>
+        <v>0.0003581874736437191</v>
       </c>
       <c r="EG2">
-        <v>0.01039495316770588</v>
+        <v>0.01042568867043356</v>
       </c>
       <c r="EH2">
-        <v>0.0006819633510023837</v>
+        <v>0.0006312402667848604</v>
       </c>
       <c r="EI2">
-        <v>0.003081080549708288</v>
+        <v>0.003050477809546561</v>
       </c>
       <c r="EJ2">
-        <v>0.001987568632066229</v>
+        <v>0.001947795086900086</v>
       </c>
       <c r="EK2">
-        <v>0.001276648020596666</v>
+        <v>0.001230912295964326</v>
       </c>
       <c r="EL2">
-        <v>0.0004319214569683592</v>
+        <v>0.000379101381016109</v>
       </c>
       <c r="EM2">
-        <v>0.002210331635660152</v>
+        <v>0.002172426306135009</v>
       </c>
       <c r="EN2">
-        <v>0.002431990639236264</v>
+        <v>0.002395944266588017</v>
       </c>
       <c r="EO2">
-        <v>0.0001584759925567557</v>
+        <v>0.0001033626493862861</v>
       </c>
       <c r="EP2">
-        <v>0.0008181064131988334</v>
+        <v>0.0007685251011522069</v>
       </c>
       <c r="EQ2">
-        <v>7.766791125304705E-05</v>
+        <v>2.187686613487924E-05</v>
       </c>
       <c r="ER2">
-        <v>0.00112649451817418</v>
+        <v>0.001079499521951627</v>
       </c>
       <c r="ES2">
-        <v>0.0005806736393682368</v>
+        <v>0.0005291010827495775</v>
       </c>
       <c r="ET2">
-        <v>0.004634762074774444</v>
+        <v>0.004617189380353845</v>
       </c>
       <c r="EU2">
-        <v>0.01199391969350264</v>
+        <v>0.01203806502741742</v>
       </c>
       <c r="EV2">
-        <v>0.00591789479547573</v>
+        <v>0.005911083172595815</v>
       </c>
       <c r="EW2">
-        <v>1.196705819306927E-05</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.002998218948371449</v>
+        <v>0.002966921284289869</v>
       </c>
       <c r="EY2">
-        <v>0.02282583036825812</v>
+        <v>0.02296081818776523</v>
       </c>
       <c r="EZ2">
-        <v>0.03860670762285724</v>
+        <v>0.03887404274079399</v>
       </c>
       <c r="FA2">
-        <v>0.01619694826131175</v>
+        <v>0.01627634255301246</v>
       </c>
       <c r="FB2">
-        <v>9.243269749125316E-05</v>
+        <v>3.676547816166427E-05</v>
       </c>
       <c r="FC2">
-        <v>2.116475034145927E-05</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.0006491471104729464</v>
+        <v>0.0005981488108343398</v>
       </c>
       <c r="FE2">
-        <v>0.000514028778293029</v>
+        <v>0.0004618973004448828</v>
       </c>
       <c r="FF2">
-        <v>0.0004773815077017841</v>
+        <v>0.0004249426852631363</v>
       </c>
       <c r="FG2">
-        <v>5.024891381068555E-05</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.008534148137684779</v>
+        <v>0.008549277884493167</v>
       </c>
       <c r="FI2">
-        <v>0.01055644317031126</v>
+        <v>0.01058853301888572</v>
       </c>
       <c r="FJ2">
-        <v>0.004007980064662324</v>
+        <v>0.003985150824334654</v>
       </c>
       <c r="FK2">
-        <v>0.002456036639624208</v>
+        <v>0.002420191930238278</v>
       </c>
       <c r="FL2">
-        <v>0.008784828141729097</v>
+        <v>0.008802060231821091</v>
       </c>
       <c r="FM2">
-        <v>0.01636485026402058</v>
+        <v>0.0164456526762016</v>
       </c>
       <c r="FN2">
-        <v>0.01575792825422887</v>
+        <v>0.01583364067761792</v>
       </c>
       <c r="FO2">
-        <v>0.006162140599416244</v>
+        <v>0.00615737735900473</v>
       </c>
       <c r="FP2">
-        <v>0.004047945065307094</v>
+        <v>0.00402545099391723</v>
       </c>
       <c r="FQ2">
-        <v>0.01141843518421812</v>
+        <v>0.01145775418187396</v>
       </c>
       <c r="FR2">
-        <v>0.008805285142059138</v>
+        <v>0.008822688796043554</v>
       </c>
       <c r="FS2">
-        <v>0.002325842437523733</v>
+        <v>0.002288905846448262</v>
       </c>
       <c r="FT2">
-        <v>0.001763773828455659</v>
+        <v>0.001722123414394169</v>
       </c>
       <c r="FU2">
-        <v>0.00153594582478002</v>
+        <v>0.001492384717142588</v>
       </c>
       <c r="FV2">
-        <v>0.0009240690149083699</v>
+        <v>0.0008753763647431193</v>
       </c>
       <c r="FW2">
-        <v>0.001076614417369445</v>
+        <v>0.001029201098611306</v>
       </c>
       <c r="FX2">
-        <v>0.004670057475343879</v>
+        <v>0.004652780787972634</v>
       </c>
       <c r="FY2">
-        <v>0.003813394861523003</v>
+        <v>0.003788933720412229</v>
       </c>
       <c r="FZ2">
-        <v>0.0004700524275835412</v>
+        <v>0.0004175521393633671</v>
       </c>
       <c r="GA2">
-        <v>0.0001700648627437235</v>
+        <v>0.0001150487103463873</v>
       </c>
       <c r="GB2">
-        <v>0.00127687512060033</v>
+        <v>0.001231141300556149</v>
       </c>
       <c r="GC2">
-        <v>0.001476657823823503</v>
+        <v>0.001432599493716794</v>
       </c>
       <c r="GD2">
-        <v>0.0001213803219582766</v>
+        <v>6.595587366304514E-05</v>
       </c>
       <c r="GE2">
-        <v>0.001596654825759462</v>
+        <v>0.001553602857895464</v>
       </c>
       <c r="GF2">
-        <v>0.000852710513757115</v>
+        <v>0.0008034194111297488</v>
       </c>
       <c r="GG2">
-        <v>0.0005038996581296119</v>
+        <v>0.0004516832317917544</v>
       </c>
       <c r="GH2">
-        <v>9.249387149224011E-05</v>
+        <v>3.682716520217583E-05</v>
       </c>
       <c r="GI2">
-        <v>0.006738964108722366</v>
+        <v>0.0067390384341759</v>
       </c>
       <c r="GJ2">
-        <v>0.0093404151506926</v>
+        <v>0.009362306705432383</v>
       </c>
       <c r="GK2">
-        <v>0.001870900430183974</v>
+        <v>0.001830148439961663</v>
       </c>
       <c r="GL2">
-        <v>0.0004485399472364719</v>
+        <v>0.0003958592432757454</v>
       </c>
       <c r="GM2">
-        <v>0.001552368625044975</v>
+        <v>0.00150894524823281</v>
       </c>
       <c r="GN2">
-        <v>0.0002667817843040957</v>
+        <v>0.0002125767543224806</v>
       </c>
       <c r="GO2">
-        <v>0.0007006543613039332</v>
+        <v>0.0006500880303947603</v>
       </c>
       <c r="GP2">
-        <v>0.0001916049530912383</v>
+        <v>0.0001367694479874227</v>
       </c>
       <c r="GQ2">
-        <v>0.0005583521690081158</v>
+        <v>0.0005065924120043651</v>
       </c>
       <c r="GR2">
-        <v>0.0008452644136369841</v>
+        <v>0.0007959108638326432</v>
       </c>
       <c r="GS2">
-        <v>0.0001548094324976016</v>
+        <v>9.966533949551432E-05</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0001370611478884263</v>
+        <v>9.785416693213069E-05</v>
       </c>
       <c r="C3">
-        <v>4.892351567681451E-05</v>
+        <v>9.120867630297976E-06</v>
       </c>
       <c r="D3">
-        <v>1.908283431372232E-06</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3.656007176932515E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>3.986387647738045E-05</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>4.257307223797911E-05</v>
+        <v>2.727505519041904E-06</v>
       </c>
       <c r="H3">
-        <v>3.100463726023782E-05</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>5.471589816496363E-05</v>
+        <v>1.495239720619594E-05</v>
       </c>
       <c r="J3">
-        <v>5.576146107257121E-05</v>
+        <v>1.600502641907165E-05</v>
       </c>
       <c r="K3">
-        <v>1.814638939647241E-05</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>2.721167759540728E-05</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>5.103382049033488E-05</v>
+        <v>1.12454346731999E-05</v>
       </c>
       <c r="N3">
-        <v>0.0001392471076952613</v>
+        <v>0.0001000549002730942</v>
       </c>
       <c r="O3">
-        <v>7.925085299690274E-05</v>
+        <v>3.965316844126186E-05</v>
       </c>
       <c r="P3">
-        <v>3.588274682917778E-05</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>5.534204910963305E-05</v>
+        <v>1.558277991318857E-05</v>
       </c>
       <c r="R3">
-        <v>7.001858381272335E-05</v>
+        <v>3.035850412820184E-05</v>
       </c>
       <c r="S3">
-        <v>9.561791655060744E-06</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>2.271766799252586E-05</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0001819385539227802</v>
+        <v>0.0001430348712648206</v>
       </c>
       <c r="V3">
-        <v>4.257307223797911E-05</v>
+        <v>2.727505519041904E-06</v>
       </c>
       <c r="W3">
-        <v>3.617307680352242E-06</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>1.574509160866598E-06</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>6.047443465610362E-06</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>4.028957843976279E-05</v>
+        <v>4.285790154965469E-07</v>
       </c>
       <c r="AA3">
-        <v>5.396716223112659E-05</v>
+        <v>1.419860103482061E-05</v>
       </c>
       <c r="AB3">
-        <v>4.346416115923695E-06</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0001403749075956019</v>
+        <v>0.0001011903222670641</v>
       </c>
       <c r="AD3">
-        <v>0.0001495197667875054</v>
+        <v>0.0001103969858384209</v>
       </c>
       <c r="AE3">
-        <v>5.647598500943144E-05</v>
+        <v>1.672437937599609E-05</v>
       </c>
       <c r="AF3">
-        <v>6.277428445287462E-05</v>
+        <v>2.306524508323234E-05</v>
       </c>
       <c r="AG3">
-        <v>0.0001457592471198083</v>
+        <v>0.0001066110511720227</v>
       </c>
       <c r="AH3">
-        <v>4.853071271152502E-05</v>
+        <v>8.725409955623932E-06</v>
       </c>
       <c r="AI3">
-        <v>8.332930263650562E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>1.689700550687572E-05</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>1.219130592270054E-05</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>6.551915421032088E-08</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>4.582541395058201E-05</v>
+        <v>6.001827773619188E-06</v>
       </c>
       <c r="AN3">
-        <v>1.655181853737859E-05</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>5.108307848598214E-07</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>3.898060155543211E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>5.766840890406147E-05</v>
+        <v>1.792486211738432E-05</v>
       </c>
       <c r="AR3">
-        <v>8.408132257005249E-05</v>
+        <v>4.451628413483529E-05</v>
       </c>
       <c r="AS3">
-        <v>0.0001942855728317209</v>
+        <v>0.0001554653359464902</v>
       </c>
       <c r="AT3">
-        <v>0.0002082542315973635</v>
+        <v>0.0001695284001336586</v>
       </c>
       <c r="AU3">
-        <v>8.330911263828975E-05</v>
+        <v>4.373885531947481E-05</v>
       </c>
       <c r="AV3">
-        <v>3.656007176932515E-05</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>3.179292019058025E-05</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>3.100463726023782E-05</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>3.356196703425629E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>1.35650058013119E-05</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>2.991767435628861E-05</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>6.004265169425864E-05</v>
+        <v>2.031515092854697E-05</v>
       </c>
       <c r="BC3">
-        <v>2.648277165981793E-05</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>3.358560403216757E-07</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>1.180151395714498E-05</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>1.076223904898176E-05</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>9.250292182586769E-06</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>5.273412534008539E-05</v>
+        <v>1.295723081919839E-05</v>
       </c>
       <c r="BI3">
-        <v>9.264542181327552E-05</v>
+        <v>5.313826276451978E-05</v>
       </c>
       <c r="BJ3">
-        <v>4.755562579768975E-05</v>
+        <v>7.743733039651071E-06</v>
       </c>
       <c r="BK3">
-        <v>2.741607357734558E-05</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.0001189285434907358</v>
+        <v>7.959901561062712E-05</v>
       </c>
       <c r="BM3">
-        <v>0.000119850839409236</v>
+        <v>8.052754474996966E-05</v>
       </c>
       <c r="BN3">
-        <v>6.122352458990939E-05</v>
+        <v>2.150400460498366E-05</v>
       </c>
       <c r="BO3">
-        <v>2.610621369309293E-05</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>1.228974391400195E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>1.412930675144676E-05</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>1.412930675144676E-05</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>2.906923043126238E-06</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>3.48279599223853E-09</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>3.201874017062539E-06</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>1.167463096835715E-06</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.0001036829408379318</v>
+        <v>6.42503774718113E-05</v>
       </c>
       <c r="BX3">
-        <v>6.403109934181465E-05</v>
+        <v>2.433055399735839E-05</v>
       </c>
       <c r="BY3">
-        <v>3.863006358640782E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>3.179292019058025E-05</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.0001091977703506073</v>
+        <v>6.980247826539649E-05</v>
       </c>
       <c r="CB3">
-        <v>0.0001652613153964845</v>
+        <v>0.0001262449217217139</v>
       </c>
       <c r="CC3">
-        <v>0.000185753453585672</v>
+        <v>0.0001468755534467642</v>
       </c>
       <c r="CD3">
-        <v>0.0002082542315973635</v>
+        <v>0.0001695284001336586</v>
       </c>
       <c r="CE3">
-        <v>0.0001181963345554383</v>
+        <v>7.886185813343012E-05</v>
       </c>
       <c r="CF3">
-        <v>7.578299930334384E-05</v>
+        <v>3.616187769513958E-05</v>
       </c>
       <c r="CG3">
-        <v>6.403109934181465E-05</v>
+        <v>2.433055399735839E-05</v>
       </c>
       <c r="CH3">
-        <v>2.036790620016539E-05</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>1.795393641347875E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>1.66664855272459E-05</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>8.155799779302912E-07</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>6.284275444682418E-06</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.04202562228635518</v>
+        <v>0.04226951387182039</v>
       </c>
       <c r="CN3">
-        <v>0.01788453441961154</v>
+        <v>0.01796527150224388</v>
       </c>
       <c r="CO3">
-        <v>0.08005090292620538</v>
+        <v>0.08055178358325346</v>
       </c>
       <c r="CP3">
-        <v>0.06539537422125885</v>
+        <v>0.06579720733277762</v>
       </c>
       <c r="CQ3">
-        <v>0.002293469797334774</v>
+        <v>0.002268836632730375</v>
       </c>
       <c r="CR3">
-        <v>0.003956501950378931</v>
+        <v>0.003943108179194692</v>
       </c>
       <c r="CS3">
-        <v>0.00234987919235009</v>
+        <v>0.002325627263539604</v>
       </c>
       <c r="CT3">
-        <v>0.01087907903865705</v>
+        <v>0.01091247063312803</v>
       </c>
       <c r="CU3">
-        <v>0.005658693499962721</v>
+        <v>0.00565680377604974</v>
       </c>
       <c r="CV3">
-        <v>0.02050893218770346</v>
+        <v>0.02060740593222329</v>
       </c>
       <c r="CW3">
-        <v>0.005035561055026571</v>
+        <v>0.005029459968940777</v>
       </c>
       <c r="CX3">
-        <v>0.08717119229701242</v>
+        <v>0.08772019453328396</v>
       </c>
       <c r="CY3">
-        <v>0.0008375584259881392</v>
+        <v>0.0008030856676888753</v>
       </c>
       <c r="CZ3">
-        <v>0.001869893134764637</v>
+        <v>0.001842397280617218</v>
       </c>
       <c r="DA3">
-        <v>0.02885230745043104</v>
+        <v>0.02900716884618069</v>
       </c>
       <c r="DB3">
-        <v>0.001850477036480364</v>
+        <v>0.001822849961077299</v>
       </c>
       <c r="DC3">
-        <v>0.1215037792631719</v>
+        <v>0.122284813965766</v>
       </c>
       <c r="DD3">
-        <v>0.005806983486858898</v>
+        <v>0.005806095962151715</v>
       </c>
       <c r="DE3">
-        <v>0.05902124778451623</v>
+        <v>0.0593800021650548</v>
       </c>
       <c r="DF3">
-        <v>0.0001056980956598602</v>
+        <v>6.627915146388307E-05</v>
       </c>
       <c r="DG3">
-        <v>0.06360187437974363</v>
+        <v>0.0639915863483964</v>
       </c>
       <c r="DH3">
-        <v>0.001623121456570914</v>
+        <v>0.001593957827106527</v>
       </c>
       <c r="DI3">
-        <v>0.01911275631107823</v>
+        <v>0.0192017941767232</v>
       </c>
       <c r="DJ3">
-        <v>0.0002428794785376618</v>
+        <v>0.0002043876574458669</v>
       </c>
       <c r="DK3">
-        <v>0.03684671674399542</v>
+        <v>0.03705560734840931</v>
       </c>
       <c r="DL3">
-        <v>0.02053714818521012</v>
+        <v>0.02063581262399653</v>
       </c>
       <c r="DM3">
-        <v>0.00639668343474935</v>
+        <v>0.006399781322893059</v>
       </c>
       <c r="DN3">
-        <v>0.0118966734487361</v>
+        <v>0.01193694232690606</v>
       </c>
       <c r="DO3">
-        <v>2.639452366761607E-05</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>5.882580480178678E-05</v>
+        <v>1.909008012956101E-05</v>
       </c>
       <c r="DQ3">
-        <v>0.006147132456801223</v>
+        <v>0.006148543786080505</v>
       </c>
       <c r="DR3">
-        <v>0.003928235652876717</v>
+        <v>0.003914650847479713</v>
       </c>
       <c r="DS3">
-        <v>0.0001582444960165342</v>
+        <v>0.0001191806800514459</v>
       </c>
       <c r="DT3">
-        <v>0.001287096086264201</v>
+        <v>0.0012556614716423</v>
       </c>
       <c r="DU3">
-        <v>0.002452435483287579</v>
+        <v>0.002428876668256914</v>
       </c>
       <c r="DV3">
-        <v>0.004281473621662418</v>
+        <v>0.004270276130602574</v>
       </c>
       <c r="DW3">
-        <v>7.011044380460604E-05</v>
+        <v>3.045098494427392E-05</v>
       </c>
       <c r="DX3">
-        <v>3.834523961157664E-06</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.001899685432132005</v>
+        <v>0.001872390925475306</v>
       </c>
       <c r="DZ3">
-        <v>0.001552493862812007</v>
+        <v>0.001522852905647657</v>
       </c>
       <c r="EA3">
-        <v>0.007317897653345145</v>
+        <v>0.00732722145179858</v>
       </c>
       <c r="EB3">
-        <v>0.0007765110313826658</v>
+        <v>0.0007416256919532111</v>
       </c>
       <c r="EC3">
-        <v>0.0004283557221478298</v>
+        <v>0.0003911174188958506</v>
       </c>
       <c r="ED3">
-        <v>0.0001155772957868728</v>
+        <v>7.622511892110073E-05</v>
       </c>
       <c r="EE3">
-        <v>0.001256602688958787</v>
+        <v>0.001224961988550507</v>
       </c>
       <c r="EF3">
-        <v>0.003261928811755725</v>
+        <v>0.003243840855465219</v>
       </c>
       <c r="EG3">
-        <v>0.008279002268415976</v>
+        <v>0.008294821571401264</v>
       </c>
       <c r="EH3">
-        <v>0.0003457792894447959</v>
+        <v>0.0003079829037692846</v>
       </c>
       <c r="EI3">
-        <v>0.001203702093633412</v>
+        <v>0.001171703871212142</v>
       </c>
       <c r="EJ3">
-        <v>1.887264633229584E-05</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.005238440537098881</v>
+        <v>0.005233710586448872</v>
       </c>
       <c r="EL3">
-        <v>0.0007898968301998135</v>
+        <v>0.0007551019570063084</v>
       </c>
       <c r="EM3">
-        <v>0.004902678566768893</v>
+        <v>0.004895679411116949</v>
       </c>
       <c r="EN3">
-        <v>0.003849281859853564</v>
+        <v>0.003835163455187191</v>
       </c>
       <c r="EO3">
-        <v>0.0005772191489933334</v>
+        <v>0.0005409869204688496</v>
       </c>
       <c r="EP3">
-        <v>0.001054052706857361</v>
+        <v>0.001021043097897362</v>
       </c>
       <c r="EQ3">
-        <v>0.001001194411528248</v>
+        <v>0.0009678275664344587</v>
       </c>
       <c r="ER3">
-        <v>0.002712581060299502</v>
+        <v>0.00269078040639711</v>
       </c>
       <c r="ES3">
-        <v>0.001257989588836232</v>
+        <v>0.001226358261616154</v>
       </c>
       <c r="ET3">
-        <v>0.00555755710889976</v>
+        <v>0.005554983867421487</v>
       </c>
       <c r="EU3">
-        <v>0.01175897696090381</v>
+        <v>0.01179831523469762</v>
       </c>
       <c r="EV3">
-        <v>0.005928515876119541</v>
+        <v>0.005928449712763486</v>
       </c>
       <c r="EW3">
-        <v>5.326874329284322E-05</v>
+        <v>1.349546192007818E-05</v>
       </c>
       <c r="EX3">
-        <v>0.005285382232950822</v>
+        <v>0.005280969531841974</v>
       </c>
       <c r="EY3">
-        <v>0.01740098846234066</v>
+        <v>0.01747845756050226</v>
       </c>
       <c r="EZ3">
-        <v>0.02669856664074894</v>
+        <v>0.02683887225040585</v>
       </c>
       <c r="FA3">
-        <v>0.00507479055156001</v>
+        <v>0.005068954593087298</v>
       </c>
       <c r="FB3">
-        <v>0.0004150669633221069</v>
+        <v>0.0003777388496667423</v>
       </c>
       <c r="FC3">
-        <v>4.890368967856645E-06</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.001922575430109302</v>
+        <v>0.001895435622621939</v>
       </c>
       <c r="FE3">
-        <v>0.001089050303764756</v>
+        <v>0.001056277221657039</v>
       </c>
       <c r="FF3">
-        <v>0.0003484001692131987</v>
+        <v>0.000310621496423617</v>
       </c>
       <c r="FG3">
-        <v>4.620713591685068E-05</v>
+        <v>6.386129559735701E-06</v>
       </c>
       <c r="FH3">
-        <v>0.009480392162253708</v>
+        <v>0.009504330907573967</v>
       </c>
       <c r="FI3">
-        <v>0.007965576296112239</v>
+        <v>0.007979277349126009</v>
       </c>
       <c r="FJ3">
-        <v>0.001488198468493547</v>
+        <v>0.00145812297900189</v>
       </c>
       <c r="FK3">
-        <v>0.001731879846960348</v>
+        <v>0.001703451247384043</v>
       </c>
       <c r="FL3">
-        <v>0.01071827105286705</v>
+        <v>0.01075057584681279</v>
       </c>
       <c r="FM3">
-        <v>0.01302389484912782</v>
+        <v>0.01307178191120808</v>
       </c>
       <c r="FN3">
-        <v>0.008328715264023026</v>
+        <v>0.008344870546029946</v>
       </c>
       <c r="FO3">
-        <v>0.0002492302479764684</v>
+        <v>0.0002107813477603239</v>
       </c>
       <c r="FP3">
-        <v>0.008322581264565065</v>
+        <v>0.008338695090708956</v>
       </c>
       <c r="FQ3">
-        <v>0.01387745477370196</v>
+        <v>0.01393111051306391</v>
       </c>
       <c r="FR3">
-        <v>0.007651355323878755</v>
+        <v>0.007662932754014078</v>
       </c>
       <c r="FS3">
-        <v>0.001519413765735169</v>
+        <v>0.001489549240899718</v>
       </c>
       <c r="FT3">
-        <v>0.001977240825278729</v>
+        <v>0.001950470466981901</v>
       </c>
       <c r="FU3">
-        <v>0.00213152151164553</v>
+        <v>0.002105793839942605</v>
       </c>
       <c r="FV3">
-        <v>0.000811391728300391</v>
+        <v>0.000776742125669356</v>
       </c>
       <c r="FW3">
-        <v>0.0008372407560162104</v>
+        <v>0.0008027658507844379</v>
       </c>
       <c r="FX3">
-        <v>0.004023343644472384</v>
+        <v>0.004010401614461886</v>
       </c>
       <c r="FY3">
-        <v>0.002415802786524672</v>
+        <v>0.00239199639402522</v>
       </c>
       <c r="FZ3">
-        <v>4.046836642396397E-05</v>
+        <v>6.085753157784226E-07</v>
       </c>
       <c r="GA3">
-        <v>0.001634920555528272</v>
+        <v>0.001605836668788608</v>
       </c>
       <c r="GB3">
-        <v>0.001648600854319396</v>
+        <v>0.001619609424156676</v>
       </c>
       <c r="GC3">
-        <v>0.002062451117749018</v>
+        <v>0.00203625664248534</v>
       </c>
       <c r="GD3">
-        <v>1.060295606305699E-06</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.0008025996990773093</v>
+        <v>0.0007678906766237418</v>
       </c>
       <c r="GF3">
-        <v>0.0001796686141233661</v>
+        <v>0.0001407495903630719</v>
       </c>
       <c r="GG3">
-        <v>2.840625948984661E-06</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.0006250781447642155</v>
+        <v>0.0005891693652369012</v>
       </c>
       <c r="GI3">
-        <v>0.00782308380870376</v>
+        <v>0.007835821844182078</v>
       </c>
       <c r="GJ3">
-        <v>0.005937184475353531</v>
+        <v>0.005937176897633967</v>
       </c>
       <c r="GK3">
-        <v>0.001352508880483921</v>
+        <v>0.001321516349995872</v>
       </c>
       <c r="GL3">
-        <v>0.0003819359662497675</v>
+        <v>0.00034438394092209</v>
       </c>
       <c r="GM3">
-        <v>0.001294171585638966</v>
+        <v>0.001262784789888739</v>
       </c>
       <c r="GN3">
-        <v>3.411680898522701E-05</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.001807161640307981</v>
+        <v>0.001779241823253566</v>
       </c>
       <c r="GP3">
-        <v>0.0008274999268769706</v>
+        <v>0.0007929591894778921</v>
       </c>
       <c r="GQ3">
-        <v>0.0005904007178285282</v>
+        <v>0.0005542575752773748</v>
       </c>
       <c r="GR3">
-        <v>0.0004219741327117466</v>
+        <v>0.0003846927002910459</v>
       </c>
       <c r="GS3">
-        <v>4.786852577003996E-05</v>
+        <v>8.058747707068347E-06</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>2.680750046169868E-05</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>4.596814079169746E-05</v>
+        <v>1.988700496689222E-07</v>
       </c>
       <c r="D4">
-        <v>6.617373713969326E-05</v>
+        <v>2.056350097407112E-05</v>
       </c>
       <c r="E4">
-        <v>1.166204020085232E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>7.397500127405241E-05</v>
+        <v>2.842616744052056E-05</v>
       </c>
       <c r="G4">
-        <v>0.0001253016521580381</v>
+        <v>8.01568010647882E-05</v>
       </c>
       <c r="H4">
-        <v>9.283590159888884E-05</v>
+        <v>4.743551848376903E-05</v>
       </c>
       <c r="I4">
-        <v>4.577082378829912E-05</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1.472579125361851E-05</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>3.180708554780525E-06</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>5.083108087545063E-05</v>
+        <v>5.100085450962325E-06</v>
       </c>
       <c r="M4">
-        <v>5.000361586119941E-05</v>
+        <v>4.266107609979043E-06</v>
       </c>
       <c r="N4">
-        <v>1.17555842024634E-06</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.407793024246057E-05</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>7.401009627465684E-05</v>
+        <v>2.84615386674961E-05</v>
       </c>
       <c r="Q4">
-        <v>0.0002551648643946388</v>
+        <v>0.0002110421430417402</v>
       </c>
       <c r="R4">
-        <v>0.0002262492638966329</v>
+        <v>0.0001818989531077416</v>
       </c>
       <c r="S4">
-        <v>0.000202788783492579</v>
+        <v>0.0001582538195264644</v>
       </c>
       <c r="T4">
-        <v>0.0001495760425761097</v>
+        <v>0.000104622250797872</v>
       </c>
       <c r="U4">
-        <v>0.0001185910620424633</v>
+        <v>7.339339311409055E-05</v>
       </c>
       <c r="V4">
-        <v>9.092020756589533E-05</v>
+        <v>4.550474637122695E-05</v>
       </c>
       <c r="W4">
-        <v>3.009120951825316E-05</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>5.201940089591676E-06</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>1.147771919767781E-05</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>7.951047136938838E-06</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>1.777605030615234E-05</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>2.680750046169868E-05</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>1.612952927779473E-07</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>3.827368365917781E-08</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>7.726841133077396E-05</v>
+        <v>3.1745499329208E-05</v>
       </c>
       <c r="AF4">
-        <v>1.206340720776496E-05</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>8.093205639387198E-05</v>
+        <v>3.54379802767154E-05</v>
       </c>
       <c r="AH4">
-        <v>7.375301127022913E-06</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0002467926242504458</v>
+        <v>0.0002026040065170608</v>
       </c>
       <c r="AJ4">
-        <v>6.083501104774574E-05</v>
+        <v>1.518275473938889E-05</v>
       </c>
       <c r="AK4">
-        <v>8.271313142454698E-06</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.000128253962208885</v>
+        <v>8.313234821145101E-05</v>
       </c>
       <c r="AM4">
-        <v>8.839882652247025E-05</v>
+        <v>4.296351999588025E-05</v>
       </c>
       <c r="AN4">
-        <v>5.529892095239909E-06</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>8.812511151775612E-05</v>
+        <v>4.268765063011282E-05</v>
       </c>
       <c r="AP4">
-        <v>0.000104403931798122</v>
+        <v>5.909459854616422E-05</v>
       </c>
       <c r="AQ4">
-        <v>1.059329718244563E-05</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>1.056789418200812E-06</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>5.667763697614436E-06</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>1.732082829831217E-07</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>6.573366113211393E-05</v>
+        <v>2.011996120822172E-05</v>
       </c>
       <c r="AV4">
-        <v>0.0001038509667885985</v>
+        <v>5.853728124955432E-05</v>
       </c>
       <c r="AW4">
-        <v>0.0001845487431784355</v>
+        <v>0.0001398702151702092</v>
       </c>
       <c r="AX4">
-        <v>0.0001790493430837207</v>
+        <v>0.0001343275302968871</v>
       </c>
       <c r="AY4">
-        <v>1.917076633017317E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>7.526859729633168E-05</v>
+        <v>2.97299451219749E-05</v>
       </c>
       <c r="BA4">
-        <v>0.0001929538133231939</v>
+        <v>0.0001483414400944216</v>
       </c>
       <c r="BB4">
-        <v>0.0003723042364121001</v>
+        <v>0.0003291034977657974</v>
       </c>
       <c r="BC4">
-        <v>0.000163422462814583</v>
+        <v>0.0001185776536933996</v>
       </c>
       <c r="BD4">
-        <v>0.0001166950720098092</v>
+        <v>7.148248008849324E-05</v>
       </c>
       <c r="BE4">
-        <v>0.0002019598634783028</v>
+        <v>0.0001574183752334153</v>
       </c>
       <c r="BF4">
-        <v>0.0001667916428726095</v>
+        <v>0.0001219733519553008</v>
       </c>
       <c r="BG4">
-        <v>7.749137733461405E-07</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>6.570059113154437E-05</v>
+        <v>2.008663091968829E-05</v>
       </c>
       <c r="BI4">
-        <v>2.818230048537651E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>2.151672437057701E-05</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>3.968074568341127E-05</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.0001141472719659291</v>
+        <v>6.891462677354069E-05</v>
       </c>
       <c r="BM4">
-        <v>8.568082147565874E-05</v>
+        <v>4.022412202535368E-05</v>
       </c>
       <c r="BN4">
-        <v>3.644605762770107E-05</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.0001074020418497577</v>
+        <v>6.211630617709774E-05</v>
       </c>
       <c r="BP4">
-        <v>0.0001397173324063156</v>
+        <v>9.468594451219184E-05</v>
       </c>
       <c r="BQ4">
-        <v>0.0001924927233152526</v>
+        <v>0.0001478767209308328</v>
       </c>
       <c r="BR4">
-        <v>7.498072129137366E-05</v>
+        <v>2.943980329730449E-05</v>
       </c>
       <c r="BS4">
-        <v>4.857189083654118E-05</v>
+        <v>2.823113737873528E-06</v>
       </c>
       <c r="BT4">
-        <v>0.0001074020418497577</v>
+        <v>6.211630617709774E-05</v>
       </c>
       <c r="BU4">
-        <v>0.0001195001820581209</v>
+        <v>7.430966864815511E-05</v>
       </c>
       <c r="BV4">
-        <v>2.494865442968425E-06</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>6.894415118740738E-11</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>9.032668155567319E-05</v>
+        <v>4.49065488256541E-05</v>
       </c>
       <c r="BY4">
-        <v>4.897883384354986E-05</v>
+        <v>3.233259719326838E-06</v>
       </c>
       <c r="BZ4">
-        <v>3.842773066183091E-06</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>3.370989758057689E-05</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>8.172026140744704E-05</v>
+        <v>3.623238910869286E-05</v>
       </c>
       <c r="CC4">
-        <v>0.0001185910620424633</v>
+        <v>7.339339311409055E-05</v>
       </c>
       <c r="CD4">
-        <v>0.0001460341025151078</v>
+        <v>0.0001010524327704118</v>
       </c>
       <c r="CE4">
-        <v>0.0001619360827889835</v>
+        <v>0.0001170795746407741</v>
       </c>
       <c r="CF4">
-        <v>0.0001312873822611288</v>
+        <v>8.618964376158971E-05</v>
       </c>
       <c r="CG4">
-        <v>5.640576397146196E-05</v>
+        <v>1.071864586440121E-05</v>
       </c>
       <c r="CH4">
-        <v>8.040871138485855E-05</v>
+        <v>3.491051611425609E-05</v>
       </c>
       <c r="CI4">
-        <v>0.0001660399628596635</v>
+        <v>0.0001212157556055937</v>
       </c>
       <c r="CJ4">
-        <v>9.656111166304718E-05</v>
+        <v>5.11900489992704E-05</v>
       </c>
       <c r="CK4">
-        <v>5.817167100187572E-06</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>6.177941506401097E-05</v>
+        <v>1.613459198801691E-05</v>
       </c>
       <c r="CM4">
-        <v>0.04170699471830883</v>
+        <v>0.04198913181569872</v>
       </c>
       <c r="CN4">
-        <v>0.02134522036762324</v>
+        <v>0.02146709363993355</v>
       </c>
       <c r="CO4">
-        <v>0.107499251851432</v>
+        <v>0.1082992278467084</v>
       </c>
       <c r="CP4">
-        <v>0.06526600712405965</v>
+        <v>0.06573357292614963</v>
       </c>
       <c r="CQ4">
-        <v>0.006973097720095868</v>
+        <v>0.006981850627238785</v>
       </c>
       <c r="CR4">
-        <v>0.0002716462046784927</v>
+        <v>0.0002276532049594182</v>
       </c>
       <c r="CS4">
-        <v>0.00552059109507972</v>
+        <v>0.005517911586576076</v>
       </c>
       <c r="CT4">
-        <v>0.02325473040051024</v>
+        <v>0.02339163307922825</v>
       </c>
       <c r="CU4">
-        <v>0.006129330605563884</v>
+        <v>0.006131442375106398</v>
       </c>
       <c r="CV4">
-        <v>0.03435852059174795</v>
+        <v>0.03458281918490251</v>
       </c>
       <c r="CW4">
-        <v>0.006866462618259319</v>
+        <v>0.00687437621989704</v>
       </c>
       <c r="CX4">
-        <v>0.1130410019468761</v>
+        <v>0.1138845960499183</v>
       </c>
       <c r="CY4">
-        <v>9.757066168043441E-06</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.000654755411276684</v>
+        <v>0.0006137777944910995</v>
       </c>
       <c r="DA4">
-        <v>0.02902555749989971</v>
+        <v>0.0292078813098459</v>
       </c>
       <c r="DB4">
-        <v>0.006248834107622061</v>
+        <v>0.006251886467509031</v>
       </c>
       <c r="DC4">
-        <v>0.1032811517787847</v>
+        <v>0.1040479278750461</v>
       </c>
       <c r="DD4">
-        <v>6.880641118503512E-05</v>
+        <v>2.321689631832473E-05</v>
       </c>
       <c r="DE4">
-        <v>0.0580833680003549</v>
+        <v>0.05849440055537584</v>
       </c>
       <c r="DF4">
-        <v>0.002693239646384973</v>
+        <v>0.00266830656851119</v>
       </c>
       <c r="DG4">
-        <v>0.05101144787855704</v>
+        <v>0.05136681863564933</v>
       </c>
       <c r="DH4">
-        <v>8.812511151775612E-05</v>
+        <v>4.268765063011282E-05</v>
       </c>
       <c r="DI4">
-        <v>0.01403424024170811</v>
+        <v>0.01409857011824749</v>
       </c>
       <c r="DJ4">
-        <v>0.002160154337203782</v>
+        <v>0.00213102544175184</v>
       </c>
       <c r="DK4">
-        <v>0.03543610561030693</v>
+        <v>0.03566888567928714</v>
       </c>
       <c r="DL4">
-        <v>0.01224891521095992</v>
+        <v>0.0122991931186723</v>
       </c>
       <c r="DM4">
-        <v>0.00426358807343068</v>
+        <v>0.004251014922609008</v>
       </c>
       <c r="DN4">
-        <v>0.007146900123089222</v>
+        <v>0.007157020997356812</v>
       </c>
       <c r="DO4">
-        <v>0.0001810038731173831</v>
+        <v>0.0001362974440812008</v>
       </c>
       <c r="DP4">
-        <v>0.0002682953246207814</v>
+        <v>0.0002242759507338086</v>
       </c>
       <c r="DQ4">
-        <v>0.004446227676576235</v>
+        <v>0.004435092048875437</v>
       </c>
       <c r="DR4">
-        <v>0.002634386345371358</v>
+        <v>0.002608990043862121</v>
       </c>
       <c r="DS4">
-        <v>5.684423497901363E-05</v>
+        <v>1.116056799755945E-05</v>
       </c>
       <c r="DT4">
-        <v>0.000752743812964313</v>
+        <v>0.0007125374450786243</v>
       </c>
       <c r="DU4">
-        <v>0.002210354038068359</v>
+        <v>0.002181620255337923</v>
       </c>
       <c r="DV4">
-        <v>0.00308264895309167</v>
+        <v>0.003060780845094261</v>
       </c>
       <c r="DW4">
-        <v>1.276837921990651E-06</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.0003660682763046997</v>
+        <v>0.0003228184555498025</v>
       </c>
       <c r="DY4">
-        <v>0.002730958247034591</v>
+        <v>0.002706322045411013</v>
       </c>
       <c r="DZ4">
-        <v>0.002210546038071665</v>
+        <v>0.002181813766538359</v>
       </c>
       <c r="EA4">
-        <v>0.01035800717839329</v>
+        <v>0.01039340209266152</v>
       </c>
       <c r="EB4">
-        <v>0.000634047970920045</v>
+        <v>0.0005929073696350742</v>
       </c>
       <c r="EC4">
-        <v>0.0007328930826224289</v>
+        <v>0.0006925304732461696</v>
       </c>
       <c r="ED4">
-        <v>0.0001797751830962217</v>
+        <v>0.0001350590832642021</v>
       </c>
       <c r="EE4">
-        <v>0.001469528725309315</v>
+        <v>0.001434964041190143</v>
       </c>
       <c r="EF4">
-        <v>0.002832585748784896</v>
+        <v>0.002808749438756385</v>
       </c>
       <c r="EG4">
-        <v>0.003990624668729502</v>
+        <v>0.003975903072561628</v>
       </c>
       <c r="EH4">
-        <v>6.466770711375528E-06</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.0009175649158029845</v>
+        <v>0.0008786558248608384</v>
       </c>
       <c r="EJ4">
-        <v>0.0001185910620424633</v>
+        <v>7.339339311409055E-05</v>
       </c>
       <c r="EK4">
-        <v>0.003141385754103278</v>
+        <v>0.003119979952790982</v>
       </c>
       <c r="EL4">
-        <v>0.0001600360427562596</v>
+        <v>0.0001151645797382926</v>
       </c>
       <c r="EM4">
-        <v>0.009019189155335174</v>
+        <v>0.009044046476279485</v>
       </c>
       <c r="EN4">
-        <v>0.004049477669743112</v>
+        <v>0.004035219294849446</v>
       </c>
       <c r="EO4">
-        <v>0.0009988392172027506</v>
+        <v>0.0009605698215149898</v>
       </c>
       <c r="EP4">
-        <v>0.0003882108466860555</v>
+        <v>0.0003451353060781285</v>
       </c>
       <c r="EQ4">
-        <v>0.00221995243823367</v>
+        <v>0.002191294202766387</v>
       </c>
       <c r="ER4">
-        <v>0.002623929245191258</v>
+        <v>0.002598450637747124</v>
       </c>
       <c r="ES4">
-        <v>0.0009913581170739056</v>
+        <v>0.0009530298390067508</v>
       </c>
       <c r="ET4">
-        <v>0.003786905465220898</v>
+        <v>0.003770580432228996</v>
       </c>
       <c r="EU4">
-        <v>0.008663082649202044</v>
+        <v>0.008685137120560375</v>
       </c>
       <c r="EV4">
-        <v>0.002497153843007838</v>
+        <v>0.002470677409415059</v>
       </c>
       <c r="EW4">
-        <v>0.001645373528337845</v>
+        <v>0.001612192886702808</v>
       </c>
       <c r="EX4">
-        <v>0.007000225120563076</v>
+        <v>0.007009191542544556</v>
       </c>
       <c r="EY4">
-        <v>0.0174627703007568</v>
+        <v>0.01755408551424177</v>
       </c>
       <c r="EZ4">
-        <v>0.02600217644782879</v>
+        <v>0.02616070377502584</v>
       </c>
       <c r="FA4">
-        <v>0.005998065803303144</v>
+        <v>0.005999144411444972</v>
       </c>
       <c r="FB4">
-        <v>0.0003812734065665738</v>
+        <v>0.000338143262628374</v>
       </c>
       <c r="FC4">
-        <v>0.0002197236537842439</v>
+        <v>0.000175321981104214</v>
       </c>
       <c r="FD4">
-        <v>0.002988173451464542</v>
+        <v>0.002965561743965131</v>
       </c>
       <c r="FE4">
-        <v>0.001475118225405582</v>
+        <v>0.001440597535225753</v>
       </c>
       <c r="FF4">
-        <v>0.0007472702528700432</v>
+        <v>0.0007070208035876942</v>
       </c>
       <c r="FG4">
-        <v>6.129034105558777E-05</v>
+        <v>1.564166856696459E-05</v>
       </c>
       <c r="FH4">
-        <v>0.008042779138518715</v>
+        <v>0.008059951313687126</v>
       </c>
       <c r="FI4">
-        <v>0.003498583360255201</v>
+        <v>0.00347998899637882</v>
       </c>
       <c r="FJ4">
-        <v>0.0008491706146250469</v>
+        <v>0.0008097232045692697</v>
       </c>
       <c r="FK4">
-        <v>0.006054291104271498</v>
+        <v>0.006055812251538071</v>
       </c>
       <c r="FL4">
-        <v>0.01238426121329094</v>
+        <v>0.012435604404788</v>
       </c>
       <c r="FM4">
-        <v>0.01092557018816829</v>
+        <v>0.01096543228772958</v>
       </c>
       <c r="FN4">
-        <v>0.007876428135653694</v>
+        <v>0.007892290992313519</v>
       </c>
       <c r="FO4">
-        <v>0.0001491701125691185</v>
+        <v>0.0001042131257895752</v>
       </c>
       <c r="FP4">
-        <v>0.006665500414798199</v>
+        <v>0.006671832279458169</v>
       </c>
       <c r="FQ4">
-        <v>0.008357079143931823</v>
+        <v>0.008376725117317544</v>
       </c>
       <c r="FR4">
-        <v>0.004189982572162992</v>
+        <v>0.004176830085818939</v>
       </c>
       <c r="FS4">
-        <v>0.0006028951103835073</v>
+        <v>0.0005615093105954117</v>
       </c>
       <c r="FT4">
-        <v>0.0006577407613280999</v>
+        <v>0.0006167866416901706</v>
       </c>
       <c r="FU4">
-        <v>0.0005388780092809573</v>
+        <v>0.0004969883425254498</v>
       </c>
       <c r="FV4">
-        <v>0.0003962889068251819</v>
+        <v>0.0003532769471603899</v>
       </c>
       <c r="FW4">
-        <v>0.0009185714158203191</v>
+        <v>0.000879670246856874</v>
       </c>
       <c r="FX4">
-        <v>0.003048998852512123</v>
+        <v>0.003026865890689095</v>
       </c>
       <c r="FY4">
-        <v>0.0005788181499688361</v>
+        <v>0.0005372428448014013</v>
       </c>
       <c r="FZ4">
-        <v>0.0002793834048117485</v>
+        <v>0.0002354513031886555</v>
       </c>
       <c r="GA4">
-        <v>0.001437163824751903</v>
+        <v>0.001402344402382895</v>
       </c>
       <c r="GB4">
-        <v>0.001254503021605983</v>
+        <v>0.001218245909254751</v>
       </c>
       <c r="GC4">
-        <v>0.001103523719005705</v>
+        <v>0.001066078276004804</v>
       </c>
       <c r="GD4">
-        <v>8.843718152313083E-05</v>
+        <v>4.300217688177986E-05</v>
       </c>
       <c r="GE4">
-        <v>0.0008164993140623577</v>
+        <v>0.0007767947541379921</v>
       </c>
       <c r="GF4">
-        <v>1.590314527389578E-06</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>4.156350471583755E-05</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>7.050847621434934E-05</v>
+        <v>2.493235799212749E-05</v>
       </c>
       <c r="GI4">
-        <v>0.004202930072385983</v>
+        <v>0.004189879493462926</v>
       </c>
       <c r="GJ4">
-        <v>0.002463780842433063</v>
+        <v>0.002437041736018438</v>
       </c>
       <c r="GK4">
-        <v>0.0003217864055420445</v>
+        <v>0.0002781880502307831</v>
       </c>
       <c r="GL4">
-        <v>6.405793110325326E-05</v>
+        <v>1.843104181287458E-05</v>
       </c>
       <c r="GM4">
-        <v>0.0003387276058338184</v>
+        <v>0.0002952625916309222</v>
       </c>
       <c r="GN4">
-        <v>4.10019307061657E-05</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.00202686763490822</v>
+        <v>0.001996689664047905</v>
       </c>
       <c r="GP4">
-        <v>0.001105595819041392</v>
+        <v>0.00106816668516326</v>
       </c>
       <c r="GQ4">
-        <v>0.0001253016521580381</v>
+        <v>8.01568010647882E-05</v>
       </c>
       <c r="GR4">
-        <v>6.309193108661609E-06</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>1.032383617780477E-05</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>3.141983872055885E-05</v>
+        <v>2.530492682602219E-05</v>
       </c>
       <c r="C5">
-        <v>1.100341155193222E-05</v>
+        <v>4.865307827490203E-06</v>
       </c>
       <c r="D5">
-        <v>7.924837677294223E-05</v>
+        <v>7.318779521299207E-05</v>
       </c>
       <c r="E5">
-        <v>0.0001030556698034901</v>
+        <v>9.702213189255407E-05</v>
       </c>
       <c r="F5">
-        <v>4.197056829092464E-05</v>
+        <v>3.586764138884294E-05</v>
       </c>
       <c r="G5">
-        <v>5.628207970814836E-05</v>
+        <v>5.019540981987888E-05</v>
       </c>
       <c r="H5">
-        <v>0.0001740429229128319</v>
+        <v>0.0001680900222400357</v>
       </c>
       <c r="I5">
-        <v>9.822337200026514E-05</v>
+        <v>9.218434489047083E-05</v>
       </c>
       <c r="J5">
-        <v>1.08991875561763E-06</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1.265937948449987E-05</v>
+        <v>6.523156839754298E-06</v>
       </c>
       <c r="L5">
-        <v>0.0001873973023690308</v>
+        <v>0.0001814595714658658</v>
       </c>
       <c r="M5">
-        <v>3.075765274752359E-08</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0001223100750194352</v>
+        <v>0.0001162984089515503</v>
       </c>
       <c r="O5">
-        <v>6.143624149826674E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>5.973183056767172E-06</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>7.614351689937464E-05</v>
+        <v>7.007940840586882E-05</v>
       </c>
       <c r="R5">
-        <v>1.481128639687248E-05</v>
+        <v>8.677508188593278E-06</v>
       </c>
       <c r="S5">
-        <v>3.617859452677848E-06</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>9.712243604509614E-05</v>
+        <v>9.108215833845656E-05</v>
       </c>
       <c r="U5">
-        <v>6.143176749844892E-05</v>
+        <v>5.535094734492059E-05</v>
       </c>
       <c r="V5">
-        <v>9.398747617275424E-06</v>
+        <v>3.258821091384341E-06</v>
       </c>
       <c r="W5">
-        <v>2.8343176845843E-05</v>
+        <v>2.222477004897669E-05</v>
       </c>
       <c r="X5">
-        <v>0.0001176928352074529</v>
+        <v>0.0001116759242336172</v>
       </c>
       <c r="Y5">
-        <v>2.388537102736845E-05</v>
+        <v>1.776190043195211E-05</v>
       </c>
       <c r="Z5">
-        <v>1.591451635194807E-09</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>1.987544119065602E-06</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>3.33718886410698E-06</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>1.287453447573858E-05</v>
+        <v>6.738556234086603E-06</v>
       </c>
       <c r="AD5">
-        <v>5.500195776027595E-05</v>
+        <v>4.891383373068057E-05</v>
       </c>
       <c r="AE5">
-        <v>1.366419944358279E-06</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>2.533400696837882E-05</v>
+        <v>1.921218193602116E-05</v>
       </c>
       <c r="AG5">
-        <v>4.004269636942914E-05</v>
+        <v>3.393757952111868E-05</v>
       </c>
       <c r="AH5">
-        <v>9.006037133266912E-06</v>
+        <v>2.865664511951202E-06</v>
       </c>
       <c r="AI5">
-        <v>1.01229185877866E-05</v>
+        <v>3.983814676441723E-06</v>
       </c>
       <c r="AJ5">
-        <v>2.81351848543126E-05</v>
+        <v>2.201654179108835E-05</v>
       </c>
       <c r="AK5">
-        <v>2.154711412258415E-05</v>
+        <v>1.542098740834924E-05</v>
       </c>
       <c r="AL5">
-        <v>3.298799265670235E-06</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>3.93125543991611E-07</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>9.371079618402085E-06</v>
+        <v>3.231121663332999E-06</v>
       </c>
       <c r="AO5">
-        <v>1.002735259167812E-05</v>
+        <v>3.888140123125456E-06</v>
       </c>
       <c r="AP5">
-        <v>1.364185244449278E-05</v>
+        <v>7.506745829774722E-06</v>
       </c>
       <c r="AQ5">
-        <v>9.837579599405833E-06</v>
+        <v>3.698151560179559E-06</v>
       </c>
       <c r="AR5">
-        <v>6.939065217435673E-05</v>
+        <v>6.331887283380293E-05</v>
       </c>
       <c r="AS5">
-        <v>0.0001098895355252096</v>
+        <v>0.0001038637604735684</v>
       </c>
       <c r="AT5">
-        <v>2.168710011688381E-05</v>
+        <v>1.556113241829557E-05</v>
       </c>
       <c r="AU5">
-        <v>9.678149605897949E-07</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>3.120810472918083E-06</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>4.823499803583201E-05</v>
+        <v>4.213918714811941E-05</v>
       </c>
       <c r="AX5">
-        <v>5.741711466192883E-05</v>
+        <v>5.133173410491047E-05</v>
       </c>
       <c r="AY5">
-        <v>1.309150146690351E-05</v>
+        <v>6.955769686667756E-06</v>
       </c>
       <c r="AZ5">
-        <v>2.994401178065571E-07</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>2.196842710542795E-05</v>
+        <v>1.584277897733126E-05</v>
       </c>
       <c r="BB5">
-        <v>1.252746348987159E-06</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>7.379736699491174E-05</v>
+        <v>6.773059341661575E-05</v>
       </c>
       <c r="BD5">
-        <v>7.746279684565249E-05</v>
+        <v>7.140018697459705E-05</v>
       </c>
       <c r="BE5">
-        <v>2.144939312656342E-05</v>
+        <v>1.532315540717079E-05</v>
       </c>
       <c r="BF5">
-        <v>1.024783158270004E-05</v>
+        <v>4.108869564983617E-06</v>
       </c>
       <c r="BG5">
-        <v>1.068027156509074E-06</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>4.873773201536027E-06</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>6.991936715282703E-06</v>
+        <v>8.492761973668489E-07</v>
       </c>
       <c r="BJ5">
-        <v>6.677114228102528E-06</v>
+        <v>5.340960908288522E-07</v>
       </c>
       <c r="BK5">
-        <v>4.360511822436445E-05</v>
+        <v>3.750404807242394E-05</v>
       </c>
       <c r="BL5">
-        <v>0.0001049902457247126</v>
+        <v>9.895890537534468E-05</v>
       </c>
       <c r="BM5">
-        <v>1.247792299188892E-05</v>
+        <v>6.341494223511775E-06</v>
       </c>
       <c r="BN5">
-        <v>5.399014580147775E-06</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>6.282460744173136E-08</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>2.629771492913586E-05</v>
+        <v>2.017698461089833E-05</v>
       </c>
       <c r="BQ5">
-        <v>5.455628777842399E-05</v>
+        <v>4.846765749460854E-05</v>
       </c>
       <c r="BR5">
-        <v>8.613256649261248E-07</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>1.409029142623198E-05</v>
+        <v>7.955694211150871E-06</v>
       </c>
       <c r="BT5">
-        <v>1.571693535999373E-05</v>
+        <v>9.584185914315012E-06</v>
       </c>
       <c r="BU5">
-        <v>2.099171214520057E-05</v>
+        <v>1.486495452781682E-05</v>
       </c>
       <c r="BV5">
-        <v>3.158883071367735E-05</v>
+        <v>2.547411078385261E-05</v>
       </c>
       <c r="BW5">
-        <v>3.872015642328403E-05</v>
+        <v>3.261353724935995E-05</v>
       </c>
       <c r="BX5">
-        <v>4.042464835387575E-05</v>
+        <v>3.431996537998328E-05</v>
       </c>
       <c r="BY5">
-        <v>8.648246647836428E-06</v>
+        <v>2.507467598108375E-06</v>
       </c>
       <c r="BZ5">
-        <v>1.296937647187654E-06</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>1.25524824888528E-05</v>
+        <v>6.41613841556736E-06</v>
       </c>
       <c r="CB5">
-        <v>0.0001058248256907278</v>
+        <v>9.979443337386602E-05</v>
       </c>
       <c r="CC5">
-        <v>4.197056829092464E-05</v>
+        <v>3.586764138884294E-05</v>
       </c>
       <c r="CD5">
-        <v>1.431722941699088E-05</v>
+        <v>8.18288998978016E-06</v>
       </c>
       <c r="CE5">
-        <v>1.680954631550173E-05</v>
+        <v>1.067803800997078E-05</v>
       </c>
       <c r="CF5">
-        <v>0.0001585175435450379</v>
+        <v>0.0001525470069776485</v>
       </c>
       <c r="CG5">
-        <v>0.0001272537548181246</v>
+        <v>0.0001212477044723271</v>
       </c>
       <c r="CH5">
-        <v>1.849939424668976E-06</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>3.385323862146885E-07</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>4.275440525900616E-05</v>
+        <v>3.665236874844532E-05</v>
       </c>
       <c r="CK5">
-        <v>1.287453447573858E-05</v>
+        <v>6.738556234086603E-06</v>
       </c>
       <c r="CL5">
-        <v>8.498380653939092E-06</v>
+        <v>2.357431365480709E-06</v>
       </c>
       <c r="CM5">
-        <v>0.001164006052600736</v>
+        <v>0.00115917769033648</v>
       </c>
       <c r="CN5">
-        <v>0.07185643707394797</v>
+        <v>0.07193191104971286</v>
       </c>
       <c r="CO5">
-        <v>0.0005604867771765267</v>
+        <v>0.000554972853414922</v>
       </c>
       <c r="CP5">
-        <v>0.05344828382354281</v>
+        <v>0.05350284724745018</v>
       </c>
       <c r="CQ5">
-        <v>0.03890447541577841</v>
+        <v>0.03894251795050262</v>
       </c>
       <c r="CR5">
-        <v>0.01234832649716619</v>
+        <v>0.01235620284837677</v>
       </c>
       <c r="CS5">
-        <v>0.0004701508808550773</v>
+        <v>0.0004645343409636017</v>
       </c>
       <c r="CT5">
-        <v>0.004694417408839541</v>
+        <v>0.004693599380949343</v>
       </c>
       <c r="CU5">
-        <v>0.03640601851751758</v>
+        <v>0.03644122295589263</v>
       </c>
       <c r="CV5">
-        <v>0.0005330325782944839</v>
+        <v>0.0005274874682187704</v>
       </c>
       <c r="CW5">
-        <v>0.03515145856860429</v>
+        <v>0.03518523790254255</v>
       </c>
       <c r="CX5">
-        <v>0.03594789153617289</v>
+        <v>0.03598257556992775</v>
       </c>
       <c r="CY5">
-        <v>0.09455739614954663</v>
+        <v>0.0946586570456782</v>
       </c>
       <c r="CZ5">
-        <v>0.004169502130214513</v>
+        <v>0.004168087830226556</v>
       </c>
       <c r="DA5">
-        <v>0.0002179361711254635</v>
+        <v>0.0002120331305353415</v>
       </c>
       <c r="DB5">
-        <v>0.02977114378769503</v>
+        <v>0.02979881140854043</v>
       </c>
       <c r="DC5">
-        <v>0.03746313447447098</v>
+        <v>0.03749953973281621</v>
       </c>
       <c r="DD5">
-        <v>0.09805827200698815</v>
+        <v>0.09816350968694849</v>
       </c>
       <c r="DE5">
-        <v>0.01435062741563089</v>
+        <v>0.01436077825992181</v>
       </c>
       <c r="DF5">
-        <v>0.0358566185398896</v>
+        <v>0.03589119889302554</v>
       </c>
       <c r="DG5">
-        <v>0.02692663390352577</v>
+        <v>0.0269510703327012</v>
       </c>
       <c r="DH5">
-        <v>0.03387066862075908</v>
+        <v>0.03390299305456376</v>
       </c>
       <c r="DI5">
-        <v>0.00750740669429235</v>
+        <v>0.00750978405257305</v>
       </c>
       <c r="DJ5">
-        <v>0.004088826333499697</v>
+        <v>0.004087320390672401</v>
       </c>
       <c r="DK5">
-        <v>0.015124332384125</v>
+        <v>0.01513536211059634</v>
       </c>
       <c r="DL5">
-        <v>0.02895958882074221</v>
+        <v>0.02898633456409176</v>
       </c>
       <c r="DM5">
-        <v>0.003042952276088531</v>
+        <v>0.003040258283410909</v>
       </c>
       <c r="DN5">
-        <v>0.00827477166304463</v>
+        <v>0.008278020701648417</v>
       </c>
       <c r="DO5">
-        <v>0.003538817255896509</v>
+        <v>0.003536686535929275</v>
       </c>
       <c r="DP5">
-        <v>0.0001578737935712519</v>
+        <v>0.0001519025257427183</v>
       </c>
       <c r="DQ5">
-        <v>0.0006600702731214066</v>
+        <v>0.0006546694702051025</v>
       </c>
       <c r="DR5">
-        <v>0.004713621308057542</v>
+        <v>0.004712825094638627</v>
       </c>
       <c r="DS5">
-        <v>0.002365271503684238</v>
+        <v>0.002361807706521535</v>
       </c>
       <c r="DT5">
-        <v>0.0001351853044951454</v>
+        <v>0.0001291882639114124</v>
       </c>
       <c r="DU5">
-        <v>0.001200548651112692</v>
+        <v>0.001195761799036383</v>
       </c>
       <c r="DV5">
-        <v>0.002758137887686403</v>
+        <v>0.002755120363041317</v>
       </c>
       <c r="DW5">
-        <v>0.001914638022034397</v>
+        <v>0.001910662332415205</v>
       </c>
       <c r="DX5">
-        <v>0.0001438256541433035</v>
+        <v>0.0001378384284756529</v>
       </c>
       <c r="DY5">
-        <v>0.001595836735016242</v>
+        <v>0.001591498906362582</v>
       </c>
       <c r="DZ5">
-        <v>0.002516984897506346</v>
+        <v>0.002513693437608867</v>
       </c>
       <c r="EA5">
-        <v>0.004111382432581194</v>
+        <v>0.004109902112122048</v>
       </c>
       <c r="EB5">
-        <v>0.008348060660060243</v>
+        <v>0.008351392950544425</v>
       </c>
       <c r="EC5">
-        <v>5.741711466192883E-05</v>
+        <v>5.133173410491047E-05</v>
       </c>
       <c r="ED5">
-        <v>0.001239457449528294</v>
+        <v>0.001234714795500313</v>
       </c>
       <c r="EE5">
-        <v>0.0001265753948457479</v>
+        <v>0.0001205685739239352</v>
       </c>
       <c r="EF5">
-        <v>0.002626453193048709</v>
+        <v>0.0026232860825327</v>
       </c>
       <c r="EG5">
-        <v>0.003717802848608072</v>
+        <v>0.003715875445479156</v>
       </c>
       <c r="EH5">
-        <v>0.003046274875953233</v>
+        <v>0.003043584657548663</v>
       </c>
       <c r="EI5">
-        <v>7.764838683809511E-05</v>
+        <v>7.158598778607776E-05</v>
       </c>
       <c r="EJ5">
-        <v>9.123879628468269E-06</v>
+        <v>2.983640869119776E-06</v>
       </c>
       <c r="EK5">
-        <v>0.003760145846883831</v>
+        <v>0.003758266542847159</v>
       </c>
       <c r="EL5">
-        <v>0.002905040581704407</v>
+        <v>0.002902189929659712</v>
       </c>
       <c r="EM5">
-        <v>0.001488263339396718</v>
+        <v>0.001483803313853614</v>
       </c>
       <c r="EN5">
-        <v>0.008362645659466329</v>
+        <v>0.008365994517630183</v>
       </c>
       <c r="EO5">
-        <v>0.00139679334312145</v>
+        <v>0.001392229413179328</v>
       </c>
       <c r="EP5">
-        <v>0.001832153725393224</v>
+        <v>0.001828084338587851</v>
       </c>
       <c r="EQ5">
-        <v>4.741743806912371E-06</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.003690865249704993</v>
+        <v>0.003688907247088387</v>
       </c>
       <c r="ES5">
-        <v>0.001667587732094484</v>
+        <v>0.001663331408246049</v>
       </c>
       <c r="ET5">
-        <v>0.001232048749829982</v>
+        <v>0.001227297679965979</v>
       </c>
       <c r="EU5">
-        <v>0.006896870419153879</v>
+        <v>0.006898554245048765</v>
       </c>
       <c r="EV5">
-        <v>0.008365398659354227</v>
+        <v>0.008368750644759915</v>
       </c>
       <c r="EW5">
-        <v>0.0005813483763270256</v>
+        <v>0.0005758581500838484</v>
       </c>
       <c r="EX5">
-        <v>0.002859780683547426</v>
+        <v>0.002856878618988145</v>
       </c>
       <c r="EY5">
-        <v>0.006616486430571341</v>
+        <v>0.006617851757165754</v>
       </c>
       <c r="EZ5">
-        <v>0.02106574914218572</v>
+        <v>0.02108352795975471</v>
       </c>
       <c r="FA5">
-        <v>0.02238359008852217</v>
+        <v>0.02240286589392441</v>
       </c>
       <c r="FB5">
-        <v>0.0004053137834952961</v>
+        <v>0.0003996235925716833</v>
       </c>
       <c r="FC5">
-        <v>0.0007511975694106296</v>
+        <v>0.0007459002816068288</v>
       </c>
       <c r="FD5">
-        <v>0.0004437658819294957</v>
+        <v>0.0004381193702705762</v>
       </c>
       <c r="FE5">
-        <v>0.002963753879313554</v>
+        <v>0.002960969922033819</v>
       </c>
       <c r="FF5">
-        <v>0.0006398831739434415</v>
+        <v>0.0006344594396999982</v>
       </c>
       <c r="FG5">
-        <v>0.0001433566141624031</v>
+        <v>0.000137368855693623</v>
       </c>
       <c r="FH5">
-        <v>0.001179775151958605</v>
+        <v>0.001174964702440152</v>
       </c>
       <c r="FI5">
-        <v>0.00925821262299812</v>
+        <v>0.009262578791218995</v>
       </c>
       <c r="FJ5">
-        <v>0.002289742106759856</v>
+        <v>0.002286192512757586</v>
       </c>
       <c r="FK5">
-        <v>0.002073248715575641</v>
+        <v>0.002069453198138163</v>
       </c>
       <c r="FL5">
-        <v>0.009261110622880113</v>
+        <v>0.00926548008305407</v>
       </c>
       <c r="FM5">
-        <v>0.01303683946912939</v>
+        <v>0.01304549792955044</v>
       </c>
       <c r="FN5">
-        <v>0.01098627055263021</v>
+        <v>0.01099259969043629</v>
       </c>
       <c r="FO5">
-        <v>0.004592451812991662</v>
+        <v>0.004591517958334343</v>
       </c>
       <c r="FP5">
-        <v>0.0002718986289280687</v>
+        <v>0.0002660568864354197</v>
       </c>
       <c r="FQ5">
-        <v>0.007913719677746959</v>
+        <v>0.007916558583071262</v>
       </c>
       <c r="FR5">
-        <v>0.01158011352844845</v>
+        <v>0.01158711723605912</v>
       </c>
       <c r="FS5">
-        <v>0.005342472782450204</v>
+        <v>0.005342390906378828</v>
       </c>
       <c r="FT5">
-        <v>0.000789382267855718</v>
+        <v>0.0007841283555663503</v>
       </c>
       <c r="FU5">
-        <v>0.00254379199641474</v>
+        <v>0.002540530987764827</v>
       </c>
       <c r="FV5">
-        <v>0.002754502587834435</v>
+        <v>0.002751480933707971</v>
       </c>
       <c r="FW5">
-        <v>0.001668448832059419</v>
+        <v>0.00166419348636861</v>
       </c>
       <c r="FX5">
-        <v>0.003378932862407131</v>
+        <v>0.003376620523411861</v>
       </c>
       <c r="FY5">
-        <v>0.004444112819032145</v>
+        <v>0.004443010460224329</v>
       </c>
       <c r="FZ5">
-        <v>0.0002859771683547793</v>
+        <v>0.0002801514182338123</v>
       </c>
       <c r="GA5">
-        <v>0.0007217841706083669</v>
+        <v>0.0007164534709575114</v>
       </c>
       <c r="GB5">
-        <v>0.001781348027462073</v>
+        <v>0.00177722092844805</v>
       </c>
       <c r="GC5">
-        <v>0.00196235852009118</v>
+        <v>0.001958437038079655</v>
       </c>
       <c r="GD5">
-        <v>0.001167398052462611</v>
+        <v>0.001162573543305619</v>
       </c>
       <c r="GE5">
-        <v>0.0001265753948457479</v>
+        <v>0.0001205685739239352</v>
       </c>
       <c r="GF5">
-        <v>0.0003808427844917749</v>
+        <v>0.0003751247959891922</v>
       </c>
       <c r="GG5">
-        <v>0.0002496837298326774</v>
+        <v>0.0002438167525544839</v>
       </c>
       <c r="GH5">
-        <v>6.677114228102528E-06</v>
+        <v>5.340960908288522E-07</v>
       </c>
       <c r="GI5">
-        <v>0.0006819066722322109</v>
+        <v>0.0006765306741482969</v>
       </c>
       <c r="GJ5">
-        <v>0.006854429720882098</v>
+        <v>0.006856065336703437</v>
       </c>
       <c r="GK5">
-        <v>0.00477375720560876</v>
+        <v>0.00477302930294254</v>
       </c>
       <c r="GL5">
-        <v>0.0003387704662049936</v>
+        <v>0.0003330046860863082</v>
       </c>
       <c r="GM5">
-        <v>0.0009381680617970405</v>
+        <v>0.000933083161196002</v>
       </c>
       <c r="GN5">
-        <v>0.001349932945029643</v>
+        <v>0.001345315784501539</v>
       </c>
       <c r="GO5">
-        <v>0.0001669667632009789</v>
+        <v>0.0001610058244375282</v>
       </c>
       <c r="GP5">
-        <v>0.001939353121027978</v>
+        <v>0.001935405506270622</v>
       </c>
       <c r="GQ5">
-        <v>4.970983197577559E-05</v>
+        <v>4.361569641046839E-05</v>
       </c>
       <c r="GR5">
-        <v>0.0003728357648178272</v>
+        <v>0.0003671086808238153</v>
       </c>
       <c r="GS5">
-        <v>0.0001121099514347924</v>
+        <v>0.0001060866986417066</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>1.175058358773885E-06</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>4.194816452827746E-05</v>
+        <v>3.413021598663459E-05</v>
       </c>
       <c r="D6">
-        <v>0.0001626678342929108</v>
+        <v>0.0001550238900086537</v>
       </c>
       <c r="E6">
-        <v>0.0001429055049862585</v>
+        <v>0.0001352330754564576</v>
       </c>
       <c r="F6">
-        <v>6.621039767705369E-05</v>
+        <v>5.84274205022958E-05</v>
       </c>
       <c r="G6">
-        <v>0.0001003071704807918</v>
+        <v>9.257334009083324E-05</v>
       </c>
       <c r="H6">
-        <v>0.0001571512344864569</v>
+        <v>0.000149499338624346</v>
       </c>
       <c r="I6">
-        <v>9.339114672343577E-05</v>
+        <v>8.564734763839786E-05</v>
       </c>
       <c r="J6">
-        <v>7.867072723989158E-06</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1.57166424485924E-06</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1.188257958310786E-05</v>
+        <v>4.021294774960509E-06</v>
       </c>
       <c r="M6">
-        <v>7.537493035552235E-06</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>3.664854271421105E-05</v>
+        <v>2.882295534486115E-05</v>
       </c>
       <c r="O6">
-        <v>4.747184533448291E-05</v>
+        <v>3.966185857718383E-05</v>
       </c>
       <c r="P6">
-        <v>6.634695767226257E-06</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>4.172115353624199E-06</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>2.585033609305872E-05</v>
+        <v>1.800918428480772E-05</v>
       </c>
       <c r="S6">
-        <v>3.279399084944536E-05</v>
+        <v>2.496284756334973E-05</v>
       </c>
       <c r="T6">
-        <v>3.405505280520187E-05</v>
+        <v>2.622572720258364E-05</v>
       </c>
       <c r="U6">
-        <v>9.219080676554886E-06</v>
+        <v>1.353956724793357E-06</v>
       </c>
       <c r="V6">
-        <v>2.850290999999498E-05</v>
+        <v>2.066558158816097E-05</v>
       </c>
       <c r="W6">
-        <v>5.331936512932671E-05</v>
+        <v>4.551780693500691E-05</v>
       </c>
       <c r="X6">
-        <v>4.149416254420582E-05</v>
+        <v>3.36755596081445E-05</v>
       </c>
       <c r="Y6">
-        <v>5.056159222608127E-06</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>3.69425817038949E-05</v>
+        <v>2.911741815972727E-05</v>
       </c>
       <c r="AA6">
-        <v>0.0001461396748727899</v>
+        <v>0.0001384719070466737</v>
       </c>
       <c r="AB6">
-        <v>2.597371408873008E-05</v>
+        <v>1.813274011642377E-05</v>
       </c>
       <c r="AC6">
-        <v>2.134190925123377E-06</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>1.925350632450396E-08</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>2.355024617375579E-05</v>
+        <v>1.570577903636987E-05</v>
       </c>
       <c r="AF6">
-        <v>9.508317666407206E-06</v>
+        <v>1.643610618268143E-06</v>
       </c>
       <c r="AG6">
-        <v>3.291903184505838E-05</v>
+        <v>2.508806879194075E-05</v>
       </c>
       <c r="AH6">
-        <v>3.167938388855058E-05</v>
+        <v>2.384663401790344E-05</v>
       </c>
       <c r="AI6">
-        <v>1.712194339928838E-05</v>
+        <v>9.268210563506306E-06</v>
       </c>
       <c r="AJ6">
-        <v>1.461369048728871E-05</v>
+        <v>6.756342278087054E-06</v>
       </c>
       <c r="AK6">
-        <v>0.000111784062078133</v>
+        <v>0.0001040667743775587</v>
       </c>
       <c r="AL6">
-        <v>0.0002134013525129601</v>
+        <v>0.0002058305350702497</v>
       </c>
       <c r="AM6">
-        <v>0.000146403494863534</v>
+        <v>0.000138736107305204</v>
       </c>
       <c r="AN6">
-        <v>3.418246880073156E-05</v>
+        <v>2.635332685439507E-05</v>
       </c>
       <c r="AO6">
-        <v>1.845052735267592E-05</v>
+        <v>1.059870952597758E-05</v>
       </c>
       <c r="AP6">
-        <v>3.85657486469472E-05</v>
+        <v>3.074292472116231E-05</v>
       </c>
       <c r="AQ6">
-        <v>7.329285742857045E-05</v>
+        <v>6.552008884825231E-05</v>
       </c>
       <c r="AR6">
-        <v>5.892824093254315E-05</v>
+        <v>5.113476732187747E-05</v>
       </c>
       <c r="AS6">
-        <v>1.772896737799136E-05</v>
+        <v>9.876109501168636E-06</v>
       </c>
       <c r="AT6">
-        <v>3.503277877089902E-06</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>8.815181090725427E-10</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>9.590705663516679E-06</v>
+        <v>1.726117368703254E-06</v>
       </c>
       <c r="AW6">
-        <v>3.979455860383524E-05</v>
+        <v>3.197350587378369E-05</v>
       </c>
       <c r="AX6">
-        <v>5.402962610440769E-05</v>
+        <v>4.622909167393483E-05</v>
       </c>
       <c r="AY6">
-        <v>1.537381246062035E-05</v>
+        <v>7.517559884464663E-06</v>
       </c>
       <c r="AZ6">
-        <v>5.673419600951971E-06</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>4.291118449449057E-05</v>
+        <v>3.509462404125446E-05</v>
       </c>
       <c r="BB6">
-        <v>0.0001128371620411857</v>
+        <v>0.0001051213922695238</v>
       </c>
       <c r="BC6">
-        <v>3.903375363052757E-05</v>
+        <v>3.121160428295995E-05</v>
       </c>
       <c r="BD6">
-        <v>3.240739586300878E-06</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>3.335152582988463E-05</v>
+        <v>2.552118616974679E-05</v>
       </c>
       <c r="BF6">
-        <v>0.0001092615461666337</v>
+        <v>0.0001015406225340793</v>
       </c>
       <c r="BG6">
-        <v>3.533990376012375E-05</v>
+        <v>2.751243013023457E-05</v>
       </c>
       <c r="BH6">
-        <v>1.951164531544733E-07</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>8.144803314245171E-08</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>2.778561502516078E-06</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>2.319870918608923E-05</v>
+        <v>1.535373534641857E-05</v>
       </c>
       <c r="BL6">
-        <v>1.310094654036229E-06</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>4.762226132920568E-05</v>
+        <v>3.981249138018242E-05</v>
       </c>
       <c r="BN6">
-        <v>0.0001363192352173333</v>
+        <v>0.0001286373122969165</v>
       </c>
       <c r="BO6">
-        <v>3.100097391235213E-05</v>
+        <v>2.316724618760431E-05</v>
       </c>
       <c r="BP6">
-        <v>3.886737063636501E-05</v>
+        <v>3.10449814658307E-05</v>
       </c>
       <c r="BQ6">
-        <v>0.0002351736917490926</v>
+        <v>0.0002276342567623458</v>
       </c>
       <c r="BR6">
-        <v>0.0001244225856347191</v>
+        <v>0.0001167235149894946</v>
       </c>
       <c r="BS6">
-        <v>4.37006904667913E-07</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>2.721098404532132E-05</v>
+        <v>1.93717934629166E-05</v>
       </c>
       <c r="BU6">
-        <v>0.000214464852475648</v>
+        <v>0.0002068955679523168</v>
       </c>
       <c r="BV6">
-        <v>5.874233793906542E-05</v>
+        <v>5.094859636947979E-05</v>
       </c>
       <c r="BW6">
-        <v>4.681861235740115E-06</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>1.453041849021025E-05</v>
+        <v>6.672950253493268E-06</v>
       </c>
       <c r="BY6">
-        <v>4.471875543107318E-08</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>1.636120442597838E-06</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>2.798767001807183E-05</v>
+        <v>2.014959894391439E-05</v>
       </c>
       <c r="CB6">
-        <v>3.087963591660919E-05</v>
+        <v>2.304573329635443E-05</v>
       </c>
       <c r="CC6">
-        <v>5.053433822703746E-08</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>1.86032913473163E-06</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>4.402976445524596E-05</v>
+        <v>3.621481631320799E-05</v>
       </c>
       <c r="CF6">
-        <v>7.498320736926568E-05</v>
+        <v>6.721287524430503E-05</v>
       </c>
       <c r="CG6">
-        <v>5.988093989911836E-05</v>
+        <v>5.208883950026244E-05</v>
       </c>
       <c r="CH6">
-        <v>1.098935361444608E-05</v>
+        <v>3.126781318338746E-06</v>
       </c>
       <c r="CI6">
-        <v>3.948935661454305E-05</v>
+        <v>3.166786396906095E-05</v>
       </c>
       <c r="CJ6">
-        <v>7.023376153589672E-05</v>
+        <v>6.245658360199011E-05</v>
       </c>
       <c r="CK6">
-        <v>6.466154773139401E-05</v>
+        <v>5.687633805811188E-05</v>
       </c>
       <c r="CL6">
-        <v>0.0001318569653738889</v>
+        <v>0.0001241686105774418</v>
       </c>
       <c r="CM6">
-        <v>0.002060297827715866</v>
+        <v>0.002055389110411953</v>
       </c>
       <c r="CN6">
-        <v>0.1083527361985187</v>
+        <v>0.1085010364556967</v>
       </c>
       <c r="CO6">
-        <v>0.01960977131200465</v>
+        <v>0.01963015824956045</v>
       </c>
       <c r="CP6">
-        <v>0.1582317744485469</v>
+        <v>0.1584519699074491</v>
       </c>
       <c r="CQ6">
-        <v>0.002023063029022223</v>
+        <v>0.002018100641810928</v>
       </c>
       <c r="CR6">
-        <v>0.005435167809310871</v>
+        <v>0.005435123599556274</v>
       </c>
       <c r="CS6">
-        <v>0.002441608714337835</v>
+        <v>0.002437249615151576</v>
       </c>
       <c r="CT6">
-        <v>0.0003761689868023695</v>
+        <v>0.0003688327811788116</v>
       </c>
       <c r="CU6">
-        <v>0.02965237295966686</v>
+        <v>0.02968723521384116</v>
       </c>
       <c r="CV6">
-        <v>0.02717671304652369</v>
+        <v>0.02720800690653682</v>
       </c>
       <c r="CW6">
-        <v>0.006522700471155535</v>
+        <v>0.006524223821298808</v>
       </c>
       <c r="CX6">
-        <v>0.08501074201745652</v>
+        <v>0.08512539733200589</v>
       </c>
       <c r="CY6">
-        <v>0.01483764047943158</v>
+        <v>0.01485114891008549</v>
       </c>
       <c r="CZ6">
-        <v>0.01412861450430727</v>
+        <v>0.01414110095123219</v>
       </c>
       <c r="DA6">
-        <v>0.01249381256166317</v>
+        <v>0.01250394261962052</v>
       </c>
       <c r="DB6">
-        <v>0.003535502875959311</v>
+        <v>0.003532720506080071</v>
       </c>
       <c r="DC6">
-        <v>0.08242937710802192</v>
+        <v>0.08254031166616942</v>
       </c>
       <c r="DD6">
-        <v>0.02256802220821644</v>
+        <v>0.02259267314228052</v>
       </c>
       <c r="DE6">
-        <v>0.0546044180842415</v>
+        <v>0.05467524599414218</v>
       </c>
       <c r="DF6">
-        <v>0.007211592746986222</v>
+        <v>0.007214109060323549</v>
       </c>
       <c r="DG6">
-        <v>0.05500100807032742</v>
+        <v>0.05507240762150371</v>
       </c>
       <c r="DH6">
-        <v>0.005172014818543414</v>
+        <v>0.005171591302410439</v>
       </c>
       <c r="DI6">
-        <v>0.02202192922737574</v>
+        <v>0.0220457930278784</v>
       </c>
       <c r="DJ6">
-        <v>0.0002198579922864334</v>
+        <v>0.0002122964813868172</v>
       </c>
       <c r="DK6">
-        <v>0.01694433940551949</v>
+        <v>0.01696088441325222</v>
       </c>
       <c r="DL6">
-        <v>0.02238996021446363</v>
+        <v>0.02241435449155496</v>
       </c>
       <c r="DM6">
-        <v>0.002219477622131152</v>
+        <v>0.002214798345165936</v>
       </c>
       <c r="DN6">
-        <v>0.01533777396188474</v>
+        <v>0.01535200328048821</v>
       </c>
       <c r="DO6">
-        <v>0.0002635218707545162</v>
+        <v>0.0002560232965806403</v>
       </c>
       <c r="DP6">
-        <v>0.0001467262548522102</v>
+        <v>0.0001390593325172547</v>
       </c>
       <c r="DQ6">
-        <v>0.003261449885574271</v>
+        <v>0.003258272498154234</v>
       </c>
       <c r="DR6">
-        <v>0.003303106484112778</v>
+        <v>0.003299989140143059</v>
       </c>
       <c r="DS6">
-        <v>8.42793930431154E-05</v>
+        <v>7.652246035743297E-05</v>
       </c>
       <c r="DT6">
-        <v>7.730961728764519E-05</v>
+        <v>6.954263842923185E-05</v>
       </c>
       <c r="DU6">
-        <v>0.0009396915670315669</v>
+        <v>0.0009331676178388297</v>
       </c>
       <c r="DV6">
-        <v>0.001656541941881364</v>
+        <v>0.001651051254437733</v>
       </c>
       <c r="DW6">
-        <v>0.0008462921703084206</v>
+        <v>0.0008396335960566621</v>
       </c>
       <c r="DX6">
-        <v>1.793365937080988E-05</v>
+        <v>1.008109653520349E-05</v>
       </c>
       <c r="DY6">
-        <v>0.001380116051579577</v>
+        <v>0.001374226926318331</v>
       </c>
       <c r="DZ6">
-        <v>0.0002548983510570665</v>
+        <v>0.0002473873470186628</v>
       </c>
       <c r="EA6">
-        <v>0.01090577061737853</v>
+        <v>0.01091361168581369</v>
       </c>
       <c r="EB6">
-        <v>0.003181526588378325</v>
+        <v>0.003178234000229165</v>
       </c>
       <c r="EC6">
-        <v>0.0002464944713519108</v>
+        <v>0.0002389713540361091</v>
       </c>
       <c r="ED6">
-        <v>1.291500654688587E-05</v>
+        <v>5.055209869773728E-06</v>
       </c>
       <c r="EE6">
-        <v>0.00220454452265507</v>
+        <v>0.002199843721253199</v>
       </c>
       <c r="EF6">
-        <v>0.002754005903377595</v>
+        <v>0.002750097090718745</v>
       </c>
       <c r="EG6">
-        <v>0.00405773685763709</v>
+        <v>0.004055707231170259</v>
       </c>
       <c r="EH6">
-        <v>0.0007319177143211698</v>
+        <v>0.000725094281746681</v>
       </c>
       <c r="EI6">
-        <v>5.564491004773655E-05</v>
+        <v>4.78467038731608E-05</v>
       </c>
       <c r="EJ6">
-        <v>2.475317413155189E-05</v>
+        <v>1.691044088381621E-05</v>
       </c>
       <c r="EK6">
-        <v>0.00482422843074526</v>
+        <v>0.004823303618408811</v>
       </c>
       <c r="EL6">
-        <v>0.0003132363390103182</v>
+        <v>0.0003058094228284418</v>
       </c>
       <c r="EM6">
-        <v>0.007259009745322629</v>
+        <v>0.007261594405099265</v>
       </c>
       <c r="EN6">
-        <v>0.005894777793185771</v>
+        <v>0.005895396061170611</v>
       </c>
       <c r="EO6">
-        <v>8.141345214366496E-06</v>
+        <v>2.746678243034703E-07</v>
       </c>
       <c r="EP6">
-        <v>0.0003612768373248504</v>
+        <v>0.0003539191662896013</v>
       </c>
       <c r="EQ6">
-        <v>0.001530783646293507</v>
+        <v>0.001525111691962081</v>
       </c>
       <c r="ER6">
-        <v>0.005701006799984094</v>
+        <v>0.005701345768184228</v>
       </c>
       <c r="ES6">
-        <v>0.002512900511836612</v>
+        <v>0.002508644172012648</v>
       </c>
       <c r="ET6">
-        <v>0.001791364937151192</v>
+        <v>0.001786068582372785</v>
       </c>
       <c r="EU6">
-        <v>0.006591587768738671</v>
+        <v>0.006593210412419464</v>
       </c>
       <c r="EV6">
-        <v>0.005514072806542544</v>
+        <v>0.005514142329748567</v>
       </c>
       <c r="EW6">
-        <v>8.833207190092995E-05</v>
+        <v>8.058098071047735E-05</v>
       </c>
       <c r="EX6">
-        <v>0.003022254893966263</v>
+        <v>0.003018732733014569</v>
       </c>
       <c r="EY6">
-        <v>0.01161553859247681</v>
+        <v>0.01162440271415312</v>
       </c>
       <c r="EZ6">
-        <v>0.01655538341916575</v>
+        <v>0.01657136778920212</v>
       </c>
       <c r="FA6">
-        <v>0.009510763666321391</v>
+        <v>0.009516593984155266</v>
       </c>
       <c r="FB6">
-        <v>5.950641791225821E-05</v>
+        <v>5.171377768074432E-05</v>
       </c>
       <c r="FC6">
-        <v>9.038256182898991E-07</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.003449421878979403</v>
+        <v>0.003446515432717386</v>
       </c>
       <c r="FE6">
-        <v>0.002145766224717266</v>
+        <v>0.002140980700799976</v>
       </c>
       <c r="FF6">
-        <v>0.0003780516767363167</v>
+        <v>0.0003707181848052703</v>
       </c>
       <c r="FG6">
-        <v>0.0008868867688841869</v>
+        <v>0.0008802867073254538</v>
       </c>
       <c r="FH6">
-        <v>0.002191023623129442</v>
+        <v>0.002186303332823354</v>
       </c>
       <c r="FI6">
-        <v>0.005250924515774921</v>
+        <v>0.005250614739377104</v>
       </c>
       <c r="FJ6">
-        <v>0.0002714495904763776</v>
+        <v>0.0002639624432471383</v>
       </c>
       <c r="FK6">
-        <v>0.001221107157158294</v>
+        <v>0.001214988837892083</v>
       </c>
       <c r="FL6">
-        <v>0.008851552689449354</v>
+        <v>0.008856432826449278</v>
       </c>
       <c r="FM6">
-        <v>0.007013325753942284</v>
+        <v>0.007015556287000756</v>
       </c>
       <c r="FN6">
-        <v>0.00460967383827276</v>
+        <v>0.004608439768856627</v>
       </c>
       <c r="FO6">
-        <v>0.001932527132198613</v>
+        <v>0.001927434247351561</v>
       </c>
       <c r="FP6">
-        <v>0.002575123909653546</v>
+        <v>0.0025709572580813</v>
       </c>
       <c r="FQ6">
-        <v>0.006803621261299622</v>
+        <v>0.006805549528169129</v>
       </c>
       <c r="FR6">
-        <v>0.004469080843205369</v>
+        <v>0.004467644124297666</v>
       </c>
       <c r="FS6">
-        <v>0.0003837278465371722</v>
+        <v>0.0003764025361867491</v>
       </c>
       <c r="FT6">
-        <v>0.0004166918653806522</v>
+        <v>0.0004094140690735536</v>
       </c>
       <c r="FU6">
-        <v>0.001006133364700502</v>
+        <v>0.0009997051841234784</v>
       </c>
       <c r="FV6">
-        <v>0.0002529672511248178</v>
+        <v>0.0002454534636161618</v>
       </c>
       <c r="FW6">
-        <v>0.0003846780065038364</v>
+        <v>0.0003773540657055312</v>
       </c>
       <c r="FX6">
-        <v>0.00242487091492507</v>
+        <v>0.002420487690023732</v>
       </c>
       <c r="FY6">
-        <v>0.002220505322095096</v>
+        <v>0.002215827526447459</v>
       </c>
       <c r="FZ6">
-        <v>8.1482627141238E-06</v>
+        <v>2.81595294883347E-07</v>
       </c>
       <c r="GA6">
-        <v>0.00162219564308638</v>
+        <v>0.001616655449193407</v>
       </c>
       <c r="GB6">
-        <v>0.001374719051768927</v>
+        <v>0.001368822147320196</v>
       </c>
       <c r="GC6">
-        <v>0.001524152946526141</v>
+        <v>0.001518471434763095</v>
       </c>
       <c r="GD6">
-        <v>5.950641791225821E-05</v>
+        <v>5.171377768074432E-05</v>
       </c>
       <c r="GE6">
-        <v>0.0003966539360836691</v>
+        <v>0.0003893472572836539</v>
       </c>
       <c r="GF6">
-        <v>4.33728514782933E-05</v>
+        <v>3.555695646773802E-05</v>
       </c>
       <c r="GG6">
-        <v>1.311482453987539E-08</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>8.447977303608521E-05</v>
+        <v>7.672312917634092E-05</v>
       </c>
       <c r="GI6">
-        <v>0.001991572530127046</v>
+        <v>0.001986564752790962</v>
       </c>
       <c r="GJ6">
-        <v>0.005889196193381597</v>
+        <v>0.005889806416098166</v>
       </c>
       <c r="GK6">
-        <v>0.0013927506511363</v>
+        <v>0.001386879737274386</v>
       </c>
       <c r="GL6">
-        <v>1.941006731901112E-05</v>
+        <v>1.15596325646787E-05</v>
       </c>
       <c r="GM6">
-        <v>0.0005276783814867665</v>
+        <v>0.0005205605601560121</v>
       </c>
       <c r="GN6">
-        <v>0.0002823383400943533</v>
+        <v>0.0002748668878118847</v>
       </c>
       <c r="GO6">
-        <v>0.001323003553583329</v>
+        <v>0.001317032106875871</v>
       </c>
       <c r="GP6">
-        <v>0.00211221692589432</v>
+        <v>0.002107383044316353</v>
       </c>
       <c r="GQ6">
-        <v>1.723243739541177E-05</v>
+        <v>9.378863824692126E-06</v>
       </c>
       <c r="GR6">
-        <v>0.0003119936590539168</v>
+        <v>0.0003045649516842132</v>
       </c>
       <c r="GS6">
-        <v>0.0001128114260420886</v>
+        <v>0.0001050956191747867</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>1.083050867473287E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>5.872074244736489E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0001119294863058025</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0001695946202361369</v>
+        <v>1.70633428895211E-06</v>
       </c>
       <c r="F2">
-        <v>0.0002241767341167317</v>
+        <v>1.70633428895211E-06</v>
       </c>
       <c r="G2">
-        <v>0.0002969230252903763</v>
+        <v>1.862030487470076E-05</v>
       </c>
       <c r="H2">
-        <v>0.0003528960161934106</v>
+        <v>1.862030487470076E-05</v>
       </c>
       <c r="I2">
-        <v>0.0004324982074776641</v>
+        <v>4.244767299932572E-05</v>
       </c>
       <c r="J2">
-        <v>0.0004703608110885165</v>
+        <v>4.244767299932572E-05</v>
       </c>
       <c r="K2">
-        <v>0.0005012145215862916</v>
+        <v>4.244767299932572E-05</v>
       </c>
       <c r="L2">
-        <v>0.0005623395425724457</v>
+        <v>4.764291089985183E-05</v>
       </c>
       <c r="M2">
-        <v>0.0006011286551982457</v>
+        <v>4.764291089985183E-05</v>
       </c>
       <c r="N2">
-        <v>0.0006640214162129195</v>
+        <v>5.462071408945352E-05</v>
       </c>
       <c r="O2">
-        <v>0.0007225420711570563</v>
+        <v>5.718974427184879E-05</v>
       </c>
       <c r="P2">
-        <v>0.0007480395445684171</v>
+        <v>5.718974427184879E-05</v>
       </c>
       <c r="Q2">
-        <v>0.0007670257428747289</v>
+        <v>5.718974427184879E-05</v>
       </c>
       <c r="R2">
-        <v>0.0007673822209204801</v>
+        <v>5.718974427184879E-05</v>
       </c>
       <c r="S2">
-        <v>0.000771470814386443</v>
+        <v>5.718974427184879E-05</v>
       </c>
       <c r="T2">
-        <v>0.0007724945710029596</v>
+        <v>5.718974427184879E-05</v>
       </c>
       <c r="U2">
-        <v>0.0007843544391942995</v>
+        <v>5.718974427184879E-05</v>
       </c>
       <c r="V2">
-        <v>0.0008108380286215698</v>
+        <v>5.718974427184879E-05</v>
       </c>
       <c r="W2">
-        <v>0.0008451438291750388</v>
+        <v>5.718974427184879E-05</v>
       </c>
       <c r="X2">
-        <v>0.0008549143553326705</v>
+        <v>5.718974427184879E-05</v>
       </c>
       <c r="Y2">
-        <v>0.000883960222801279</v>
+        <v>5.718974427184879E-05</v>
       </c>
       <c r="Z2">
-        <v>0.0009081836281920847</v>
+        <v>5.718974427184879E-05</v>
       </c>
       <c r="AA2">
-        <v>0.0009661816591277899</v>
+        <v>5.923176742739745E-05</v>
       </c>
       <c r="AB2">
-        <v>0.001014375314905317</v>
+        <v>5.923176742739745E-05</v>
       </c>
       <c r="AC2">
-        <v>0.001048681115458786</v>
+        <v>5.923176742739745E-05</v>
       </c>
       <c r="AD2">
-        <v>0.001077928980930654</v>
+        <v>5.923176742739745E-05</v>
       </c>
       <c r="AE2">
-        <v>0.001116524917553337</v>
+        <v>5.923176742739745E-05</v>
       </c>
       <c r="AF2">
-        <v>0.001154657361168543</v>
+        <v>5.923176742739745E-05</v>
       </c>
       <c r="AG2">
-        <v>0.001187019187690649</v>
+        <v>5.923176742739745E-05</v>
       </c>
       <c r="AH2">
-        <v>0.001216065055159257</v>
+        <v>5.923176742739745E-05</v>
       </c>
       <c r="AI2">
-        <v>0.001217328554979642</v>
+        <v>5.923176742739745E-05</v>
       </c>
       <c r="AJ2">
-        <v>0.001218895630904924</v>
+        <v>5.923176742739745E-05</v>
       </c>
       <c r="AK2">
-        <v>0.00121897348646618</v>
+        <v>5.923176742739745E-05</v>
       </c>
       <c r="AL2">
-        <v>0.00122099045109872</v>
+        <v>5.923176742739745E-05</v>
       </c>
       <c r="AM2">
-        <v>0.001254172623634062</v>
+        <v>5.923176742739745E-05</v>
       </c>
       <c r="AN2">
-        <v>0.001277453338009658</v>
+        <v>5.923176742739745E-05</v>
       </c>
       <c r="AO2">
-        <v>0.001327702251820344</v>
+        <v>5.923176742739745E-05</v>
       </c>
       <c r="AP2">
-        <v>0.001388243625797082</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="AQ2">
-        <v>0.001429398006461042</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="AR2">
-        <v>0.001447737681756923</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="AS2">
-        <v>0.001481352308299241</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="AT2">
-        <v>0.001516502578866334</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="AU2">
-        <v>0.001534682370159636</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="AV2">
-        <v>0.001544905961324577</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="AW2">
-        <v>0.00155385593046897</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="AX2">
-        <v>0.001559762859564269</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="AY2">
-        <v>0.001568712828708662</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="AZ2">
-        <v>0.001568840304400719</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="BA2">
-        <v>0.00156982655361663</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="BB2">
-        <v>0.001570209647602811</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="BC2">
-        <v>0.001570547825168267</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="BD2">
-        <v>0.001571029151476033</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="BE2">
-        <v>0.001574593289833534</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="BF2">
-        <v>0.001577486061480204</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="BG2">
-        <v>0.001578358038894272</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="BH2">
-        <v>0.001578611570378363</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="BI2">
-        <v>0.001580472272408382</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="BJ2">
-        <v>0.001592962661609894</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="BK2">
-        <v>0.001603426920778718</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="BL2">
-        <v>0.001605089072305534</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="BM2">
-        <v>0.00160529209113881</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="BN2">
-        <v>0.00161245733925441</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="BO2">
-        <v>0.001622345168413934</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="BP2">
-        <v>0.001627733839100872</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="BQ2">
-        <v>0.001666796065731078</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="BR2">
-        <v>0.001700664976277498</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="BS2">
-        <v>0.001724157386656511</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="BT2">
-        <v>0.001748380792047317</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="BU2">
-        <v>0.001776229372496609</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="BV2">
-        <v>0.001801758972908488</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="BW2">
-        <v>0.001804923195959537</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="BX2">
-        <v>0.001804926526794991</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="BY2">
-        <v>0.001805054002487048</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="BZ2">
-        <v>0.001805728948237937</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="CA2">
-        <v>0.001809957162806153</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="CB2">
-        <v>0.001833237877181749</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="CC2">
-        <v>0.001863677327672841</v>
+        <v>6.383846352693863E-05</v>
       </c>
       <c r="CD2">
-        <v>0.001930181168745774</v>
+        <v>7.445763131997465E-05</v>
       </c>
       <c r="CE2">
-        <v>0.001983389912604212</v>
+        <v>7.445763131997465E-05</v>
       </c>
       <c r="CF2">
-        <v>0.002036054200453866</v>
+        <v>7.445763131997465E-05</v>
       </c>
       <c r="CG2">
-        <v>0.002101343151507198</v>
+        <v>8.38517203434829E-05</v>
       </c>
       <c r="CH2">
-        <v>0.002167846992580131</v>
+        <v>9.447088813651891E-05</v>
       </c>
       <c r="CI2">
-        <v>0.002220511280429785</v>
+        <v>9.447088813651891E-05</v>
       </c>
       <c r="CJ2">
-        <v>0.002274267271297051</v>
+        <v>9.447088813651891E-05</v>
       </c>
       <c r="CK2">
-        <v>0.002304090588778202</v>
+        <v>9.447088813651891E-05</v>
       </c>
       <c r="CL2">
-        <v>0.002330349380201846</v>
+        <v>9.447088813651891E-05</v>
       </c>
       <c r="CM2">
-        <v>0.03149134985066777</v>
+        <v>0.02944358947210985</v>
       </c>
       <c r="CN2">
-        <v>0.0467923540975249</v>
+        <v>0.04481647412104392</v>
       </c>
       <c r="CO2">
-        <v>0.08514951171635605</v>
+        <v>0.08343887399134292</v>
       </c>
       <c r="CP2">
-        <v>0.1650321030051334</v>
+        <v>0.1639349631370067</v>
       </c>
       <c r="CQ2">
-        <v>0.1651035784062866</v>
+        <v>0.1639505955591746</v>
       </c>
       <c r="CR2">
-        <v>0.1652626059888522</v>
+        <v>0.1640545144245134</v>
       </c>
       <c r="CS2">
-        <v>0.166647050411188</v>
+        <v>0.165394127163375</v>
       </c>
       <c r="CT2">
-        <v>0.1840176806914353</v>
+        <v>0.1828539948918164</v>
       </c>
       <c r="CU2">
-        <v>0.1909048825025492</v>
+        <v>0.1897425142329993</v>
       </c>
       <c r="CV2">
-        <v>0.226436263075791</v>
+        <v>0.2255154385045857</v>
       </c>
       <c r="CW2">
-        <v>0.2346248792079011</v>
+        <v>0.2337162865580716</v>
       </c>
       <c r="CX2">
-        <v>0.330660085757275</v>
+        <v>0.3305004558664298</v>
       </c>
       <c r="CY2">
-        <v>0.3313363645681857</v>
+        <v>0.3311259639193775</v>
       </c>
       <c r="CZ2">
-        <v>0.3314948405607424</v>
+        <v>0.3312293265687638</v>
       </c>
       <c r="DA2">
-        <v>0.3932175215565388</v>
+        <v>0.3934132062160079</v>
       </c>
       <c r="DB2">
-        <v>0.3933550714887579</v>
+        <v>0.3934954673073636</v>
       </c>
       <c r="DC2">
-        <v>0.5470048539676504</v>
+        <v>0.5483774007325271</v>
       </c>
       <c r="DD2">
-        <v>0.5501440040182956</v>
+        <v>0.5514864350464543</v>
       </c>
       <c r="DE2">
-        <v>0.608186441954717</v>
+        <v>0.6099592070493823</v>
       </c>
       <c r="DF2">
-        <v>0.6091706007705948</v>
+        <v>0.6108951771619093</v>
       </c>
       <c r="DG2">
-        <v>0.6533619514835514</v>
+        <v>0.6554006989458199</v>
       </c>
       <c r="DH2">
-        <v>0.6536347744079529</v>
+        <v>0.6556193675046331</v>
       </c>
       <c r="DI2">
-        <v>0.6623880685491733</v>
+        <v>0.6643896292741093</v>
       </c>
       <c r="DJ2">
-        <v>0.6661853068104356</v>
+        <v>0.6681622708959383</v>
       </c>
       <c r="DK2">
-        <v>0.683084932083084</v>
+        <v>0.6851471835042936</v>
       </c>
       <c r="DL2">
-        <v>0.6968169643046283</v>
+        <v>0.6989379378474523</v>
       </c>
       <c r="DM2">
-        <v>0.6977882540202984</v>
+        <v>0.6998609309322706</v>
       </c>
       <c r="DN2">
-        <v>0.7020806170895488</v>
+        <v>0.7041328497567655</v>
       </c>
       <c r="DO2">
-        <v>0.7043761896265842</v>
+        <v>0.7063912318423418</v>
       </c>
       <c r="DP2">
-        <v>0.7053687824425982</v>
+        <v>0.7073357066872661</v>
       </c>
       <c r="DQ2">
-        <v>0.7088350334985205</v>
+        <v>0.7107745852591849</v>
       </c>
       <c r="DR2">
-        <v>0.7091822784041227</v>
+        <v>0.7110682999437249</v>
       </c>
       <c r="DS2">
-        <v>0.7098392370847217</v>
+        <v>0.7116743258368989</v>
       </c>
       <c r="DT2">
-        <v>0.7116666968142049</v>
+        <v>0.7134606692580495</v>
       </c>
       <c r="DU2">
-        <v>0.7130920483372006</v>
+        <v>0.7148415321674887</v>
       </c>
       <c r="DV2">
-        <v>0.7158951705824245</v>
+        <v>0.7176117205581216</v>
       </c>
       <c r="DW2">
-        <v>0.7161037989157903</v>
+        <v>0.7177656561540101</v>
       </c>
       <c r="DX2">
-        <v>0.7161768646769692</v>
+        <v>0.7177828922738558</v>
       </c>
       <c r="DY2">
-        <v>0.7169707212597768</v>
+        <v>0.7185269641719216</v>
       </c>
       <c r="DZ2">
-        <v>0.7194042436990378</v>
+        <v>0.7209244530850696</v>
       </c>
       <c r="EA2">
-        <v>0.7251162350911916</v>
+        <v>0.7266279060327779</v>
       </c>
       <c r="EB2">
-        <v>0.7260875248068618</v>
+        <v>0.7275508991175963</v>
       </c>
       <c r="EC2">
-        <v>0.7266059485152258</v>
+        <v>0.7280172282064636</v>
       </c>
       <c r="ED2">
-        <v>0.7270974695231557</v>
+        <v>0.7284564289737439</v>
       </c>
       <c r="EE2">
-        <v>0.7271051266802793</v>
+        <v>0.7284564289737439</v>
       </c>
       <c r="EF2">
-        <v>0.727516308166913</v>
+        <v>0.7288146164473875</v>
       </c>
       <c r="EG2">
-        <v>0.7379112613346189</v>
+        <v>0.7392403051178211</v>
       </c>
       <c r="EH2">
-        <v>0.7385932246856213</v>
+        <v>0.739871545384606</v>
       </c>
       <c r="EI2">
-        <v>0.7416743052353295</v>
+        <v>0.7429220231941526</v>
       </c>
       <c r="EJ2">
-        <v>0.7436618738673958</v>
+        <v>0.7448698182810527</v>
       </c>
       <c r="EK2">
-        <v>0.7449385218879925</v>
+        <v>0.746100730577017</v>
       </c>
       <c r="EL2">
-        <v>0.7453704433449608</v>
+        <v>0.7464798319580331</v>
       </c>
       <c r="EM2">
-        <v>0.747580774980621</v>
+        <v>0.7486522582641681</v>
       </c>
       <c r="EN2">
-        <v>0.7500127656198573</v>
+        <v>0.7510482025307562</v>
       </c>
       <c r="EO2">
-        <v>0.7501712416124141</v>
+        <v>0.7511515651801425</v>
       </c>
       <c r="EP2">
-        <v>0.7509893480256129</v>
+        <v>0.7519200902812947</v>
       </c>
       <c r="EQ2">
-        <v>0.751067015936866</v>
+        <v>0.7519419671474296</v>
       </c>
       <c r="ER2">
-        <v>0.7521935104550401</v>
+        <v>0.7530214666693812</v>
       </c>
       <c r="ES2">
-        <v>0.7527741840944083</v>
+        <v>0.7535505677521308</v>
       </c>
       <c r="ET2">
-        <v>0.7574089461691828</v>
+        <v>0.7581677571324846</v>
       </c>
       <c r="EU2">
-        <v>0.7694028658626854</v>
+        <v>0.7702058221599021</v>
       </c>
       <c r="EV2">
-        <v>0.7753207606581611</v>
+        <v>0.7761169053324979</v>
       </c>
       <c r="EW2">
-        <v>0.7753327277163542</v>
+        <v>0.7761169053324979</v>
       </c>
       <c r="EX2">
-        <v>0.7783309466647257</v>
+        <v>0.7790838266167878</v>
       </c>
       <c r="EY2">
-        <v>0.8011567770329838</v>
+        <v>0.802044644804553</v>
       </c>
       <c r="EZ2">
-        <v>0.8397634846558411</v>
+        <v>0.8409186875453469</v>
       </c>
       <c r="FA2">
-        <v>0.8559604329171528</v>
+        <v>0.8571950300983594</v>
       </c>
       <c r="FB2">
-        <v>0.8560528656146441</v>
+        <v>0.8572317955765211</v>
       </c>
       <c r="FC2">
-        <v>0.8560740303649855</v>
+        <v>0.8572317955765211</v>
       </c>
       <c r="FD2">
-        <v>0.8567231774754585</v>
+        <v>0.8578299443873554</v>
       </c>
       <c r="FE2">
-        <v>0.8572372062537514</v>
+        <v>0.8582918416878003</v>
       </c>
       <c r="FF2">
-        <v>0.8577145877614533</v>
+        <v>0.8587167843730634</v>
       </c>
       <c r="FG2">
-        <v>0.8577648366752639</v>
+        <v>0.8587167843730634</v>
       </c>
       <c r="FH2">
-        <v>0.8662989848129488</v>
+        <v>0.8672660622575565</v>
       </c>
       <c r="FI2">
-        <v>0.87685542798326</v>
+        <v>0.8778545952764423</v>
       </c>
       <c r="FJ2">
-        <v>0.8808634080479223</v>
+        <v>0.881839746100777</v>
       </c>
       <c r="FK2">
-        <v>0.8833194446875465</v>
+        <v>0.8842599380310152</v>
       </c>
       <c r="FL2">
-        <v>0.8921042728292756</v>
+        <v>0.8930619982628363</v>
       </c>
       <c r="FM2">
-        <v>0.9084691230932962</v>
+        <v>0.9095076509390378</v>
       </c>
       <c r="FN2">
-        <v>0.924227051347525</v>
+        <v>0.9253412916166558</v>
       </c>
       <c r="FO2">
-        <v>0.9303891919469413</v>
+        <v>0.9314986689756605</v>
       </c>
       <c r="FP2">
-        <v>0.9344371370122484</v>
+        <v>0.9355241199695777</v>
       </c>
       <c r="FQ2">
-        <v>0.9458555721964665</v>
+        <v>0.9469818741514517</v>
       </c>
       <c r="FR2">
-        <v>0.9546608573385257</v>
+        <v>0.9558045629474953</v>
       </c>
       <c r="FS2">
-        <v>0.9569866997760494</v>
+        <v>0.9580934687939435</v>
       </c>
       <c r="FT2">
-        <v>0.958750473604505</v>
+        <v>0.9598155922083377</v>
       </c>
       <c r="FU2">
-        <v>0.9602864194292851</v>
+        <v>0.9613079769254803</v>
       </c>
       <c r="FV2">
-        <v>0.9612104884441934</v>
+        <v>0.9621833532902234</v>
       </c>
       <c r="FW2">
-        <v>0.9622871028615628</v>
+        <v>0.9632125543888347</v>
       </c>
       <c r="FX2">
-        <v>0.9669571603369067</v>
+        <v>0.9678653351768073</v>
       </c>
       <c r="FY2">
-        <v>0.9707705551984297</v>
+        <v>0.9716542688972195</v>
       </c>
       <c r="FZ2">
-        <v>0.9712406076260133</v>
+        <v>0.9720718210365829</v>
       </c>
       <c r="GA2">
-        <v>0.971410672488757</v>
+        <v>0.9721868697469292</v>
       </c>
       <c r="GB2">
-        <v>0.9726875476093574</v>
+        <v>0.9734180110474854</v>
       </c>
       <c r="GC2">
-        <v>0.9741642054331809</v>
+        <v>0.9748506105412021</v>
       </c>
       <c r="GD2">
-        <v>0.9742855857551392</v>
+        <v>0.9749165664148652</v>
       </c>
       <c r="GE2">
-        <v>0.9758822405808987</v>
+        <v>0.9764701692727606</v>
       </c>
       <c r="GF2">
-        <v>0.9767349510946558</v>
+        <v>0.9772735886838904</v>
       </c>
       <c r="GG2">
-        <v>0.9772388507527854</v>
+        <v>0.9777252719156821</v>
       </c>
       <c r="GH2">
-        <v>0.9773313446242776</v>
+        <v>0.9777620990808843</v>
       </c>
       <c r="GI2">
-        <v>0.9840703087329999</v>
+        <v>0.9845011375150602</v>
       </c>
       <c r="GJ2">
-        <v>0.9934107238836926</v>
+        <v>0.9938634442204926</v>
       </c>
       <c r="GK2">
-        <v>0.9952816243138766</v>
+        <v>0.9956935926604542</v>
       </c>
       <c r="GL2">
-        <v>0.995730164261113</v>
+        <v>0.99608945190373</v>
       </c>
       <c r="GM2">
-        <v>0.997282532886158</v>
+        <v>0.9975983971519629</v>
       </c>
       <c r="GN2">
-        <v>0.997549314670462</v>
+        <v>0.9978109739062854</v>
       </c>
       <c r="GO2">
-        <v>0.998249969031766</v>
+        <v>0.9984610619366802</v>
       </c>
       <c r="GP2">
-        <v>0.9984415739848572</v>
+        <v>0.9985978313846676</v>
       </c>
       <c r="GQ2">
-        <v>0.9989999261538653</v>
+        <v>0.999104423796672</v>
       </c>
       <c r="GR2">
-        <v>0.9998451905675023</v>
+        <v>0.9999003346605047</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0001370611478884263</v>
+        <v>9.785416693213069E-05</v>
       </c>
       <c r="C3">
-        <v>0.0001859846635652408</v>
+        <v>0.0001069750345624287</v>
       </c>
       <c r="D3">
-        <v>0.000187892946996613</v>
+        <v>0.0001069750345624287</v>
       </c>
       <c r="E3">
-        <v>0.0002244530187659382</v>
+        <v>0.0001069750345624287</v>
       </c>
       <c r="F3">
-        <v>0.0002643168952433186</v>
+        <v>0.0001069750345624287</v>
       </c>
       <c r="G3">
-        <v>0.0003068899674812977</v>
+        <v>0.0001097025400814706</v>
       </c>
       <c r="H3">
-        <v>0.0003378946047415355</v>
+        <v>0.0001097025400814706</v>
       </c>
       <c r="I3">
-        <v>0.0003926105029064992</v>
+        <v>0.0001246549372876665</v>
       </c>
       <c r="J3">
-        <v>0.0004483719639790704</v>
+        <v>0.0001406599637067381</v>
       </c>
       <c r="K3">
-        <v>0.0004665183533755428</v>
+        <v>0.0001406599637067381</v>
       </c>
       <c r="L3">
-        <v>0.00049373003097095</v>
+        <v>0.0001406599637067381</v>
       </c>
       <c r="M3">
-        <v>0.0005447638514612849</v>
+        <v>0.000151905398379938</v>
       </c>
       <c r="N3">
-        <v>0.0006840109591565463</v>
+        <v>0.0002519602986530322</v>
       </c>
       <c r="O3">
-        <v>0.000763261812153449</v>
+        <v>0.000291613467094294</v>
       </c>
       <c r="P3">
-        <v>0.0007991445589826268</v>
+        <v>0.000291613467094294</v>
       </c>
       <c r="Q3">
-        <v>0.0008544866080922598</v>
+        <v>0.0003071962470074826</v>
       </c>
       <c r="R3">
-        <v>0.0009245051919049832</v>
+        <v>0.0003375547511356845</v>
       </c>
       <c r="S3">
-        <v>0.000934066983560044</v>
+        <v>0.0003375547511356845</v>
       </c>
       <c r="T3">
-        <v>0.0009567846515525698</v>
+        <v>0.0003375547511356845</v>
       </c>
       <c r="U3">
-        <v>0.00113872320547535</v>
+        <v>0.0004805896224005051</v>
       </c>
       <c r="V3">
-        <v>0.001181296277713329</v>
+        <v>0.000483317127919547</v>
       </c>
       <c r="W3">
-        <v>0.001184913585393681</v>
+        <v>0.000483317127919547</v>
       </c>
       <c r="X3">
-        <v>0.001186488094554548</v>
+        <v>0.000483317127919547</v>
       </c>
       <c r="Y3">
-        <v>0.001192535538020158</v>
+        <v>0.000483317127919547</v>
       </c>
       <c r="Z3">
-        <v>0.001232825116459921</v>
+        <v>0.0004837457069350435</v>
       </c>
       <c r="AA3">
-        <v>0.001286792278691047</v>
+        <v>0.0004979443079698641</v>
       </c>
       <c r="AB3">
-        <v>0.001291138694806971</v>
+        <v>0.0004979443079698641</v>
       </c>
       <c r="AC3">
-        <v>0.001431513602402573</v>
+        <v>0.0005991346302369282</v>
       </c>
       <c r="AD3">
-        <v>0.001581033369190078</v>
+        <v>0.0007095316160753491</v>
       </c>
       <c r="AE3">
-        <v>0.00163750935419951</v>
+        <v>0.0007262559954513451</v>
       </c>
       <c r="AF3">
-        <v>0.001700283638652385</v>
+        <v>0.0007493212405345774</v>
       </c>
       <c r="AG3">
-        <v>0.001846042885772193</v>
+        <v>0.0008559322917066001</v>
       </c>
       <c r="AH3">
-        <v>0.001894573598483718</v>
+        <v>0.000864657701662224</v>
       </c>
       <c r="AI3">
-        <v>0.001902906528747368</v>
+        <v>0.000864657701662224</v>
       </c>
       <c r="AJ3">
-        <v>0.001919803534254244</v>
+        <v>0.000864657701662224</v>
       </c>
       <c r="AK3">
-        <v>0.001931994840176945</v>
+        <v>0.000864657701662224</v>
       </c>
       <c r="AL3">
-        <v>0.001932060359331155</v>
+        <v>0.000864657701662224</v>
       </c>
       <c r="AM3">
-        <v>0.001977885773281737</v>
+        <v>0.0008706595294358432</v>
       </c>
       <c r="AN3">
-        <v>0.001994437591819115</v>
+        <v>0.0008706595294358432</v>
       </c>
       <c r="AO3">
-        <v>0.001994948422603975</v>
+        <v>0.0008706595294358432</v>
       </c>
       <c r="AP3">
-        <v>0.002033929024159407</v>
+        <v>0.0008706595294358432</v>
       </c>
       <c r="AQ3">
-        <v>0.002091597433063469</v>
+        <v>0.0008885843915532275</v>
       </c>
       <c r="AR3">
-        <v>0.002175678755633521</v>
+        <v>0.0009331006756880629</v>
       </c>
       <c r="AS3">
-        <v>0.002369964328465242</v>
+        <v>0.001088566011634553</v>
       </c>
       <c r="AT3">
-        <v>0.002578218560062606</v>
+        <v>0.001258094411768212</v>
       </c>
       <c r="AU3">
-        <v>0.002661527672700896</v>
+        <v>0.001301833267087686</v>
       </c>
       <c r="AV3">
-        <v>0.002698087744470221</v>
+        <v>0.001301833267087686</v>
       </c>
       <c r="AW3">
-        <v>0.002729880664660801</v>
+        <v>0.001301833267087686</v>
       </c>
       <c r="AX3">
-        <v>0.002760885301921039</v>
+        <v>0.001301833267087686</v>
       </c>
       <c r="AY3">
-        <v>0.002794447268955295</v>
+        <v>0.001301833267087686</v>
       </c>
       <c r="AZ3">
-        <v>0.002808012274756607</v>
+        <v>0.001301833267087686</v>
       </c>
       <c r="BA3">
-        <v>0.002837929949112895</v>
+        <v>0.001301833267087686</v>
       </c>
       <c r="BB3">
-        <v>0.002897972600807154</v>
+        <v>0.001322148418016233</v>
       </c>
       <c r="BC3">
-        <v>0.002924455372466972</v>
+        <v>0.001322148418016233</v>
       </c>
       <c r="BD3">
-        <v>0.002924791228507294</v>
+        <v>0.001322148418016233</v>
       </c>
       <c r="BE3">
-        <v>0.002936592742464439</v>
+        <v>0.001322148418016233</v>
       </c>
       <c r="BF3">
-        <v>0.002947354981513421</v>
+        <v>0.001322148418016233</v>
       </c>
       <c r="BG3">
-        <v>0.002956605273696007</v>
+        <v>0.001322148418016233</v>
       </c>
       <c r="BH3">
-        <v>0.003009339399036093</v>
+        <v>0.001335105648835432</v>
       </c>
       <c r="BI3">
-        <v>0.003101984820849368</v>
+        <v>0.001388243911599952</v>
       </c>
       <c r="BJ3">
-        <v>0.003149540446647058</v>
+        <v>0.001395987644639603</v>
       </c>
       <c r="BK3">
-        <v>0.003176956520224404</v>
+        <v>0.001395987644639603</v>
       </c>
       <c r="BL3">
-        <v>0.00329588506371514</v>
+        <v>0.00147558666025023</v>
       </c>
       <c r="BM3">
-        <v>0.003415735903124376</v>
+        <v>0.0015561142050002</v>
       </c>
       <c r="BN3">
-        <v>0.003476959427714285</v>
+        <v>0.001577618209605183</v>
       </c>
       <c r="BO3">
-        <v>0.003503065641407378</v>
+        <v>0.001577618209605183</v>
       </c>
       <c r="BP3">
-        <v>0.00351535538532138</v>
+        <v>0.001577618209605183</v>
       </c>
       <c r="BQ3">
-        <v>0.003529484692072826</v>
+        <v>0.001577618209605183</v>
       </c>
       <c r="BR3">
-        <v>0.003543613998824273</v>
+        <v>0.001577618209605183</v>
       </c>
       <c r="BS3">
-        <v>0.003546520921867399</v>
+        <v>0.001577618209605183</v>
       </c>
       <c r="BT3">
-        <v>0.003546524404663391</v>
+        <v>0.001577618209605183</v>
       </c>
       <c r="BU3">
-        <v>0.003549726278680454</v>
+        <v>0.001577618209605183</v>
       </c>
       <c r="BV3">
-        <v>0.00355089374177729</v>
+        <v>0.001577618209605183</v>
       </c>
       <c r="BW3">
-        <v>0.003654576682615222</v>
+        <v>0.001641868587076995</v>
       </c>
       <c r="BX3">
-        <v>0.003718607781957037</v>
+        <v>0.001666199141074353</v>
       </c>
       <c r="BY3">
-        <v>0.003757237845543444</v>
+        <v>0.001666199141074353</v>
       </c>
       <c r="BZ3">
-        <v>0.003789030765734024</v>
+        <v>0.001666199141074353</v>
       </c>
       <c r="CA3">
-        <v>0.003898228536084632</v>
+        <v>0.001736001619339749</v>
       </c>
       <c r="CB3">
-        <v>0.004063489851481117</v>
+        <v>0.001862246541061463</v>
       </c>
       <c r="CC3">
-        <v>0.004249243305066788</v>
+        <v>0.002009122094508228</v>
       </c>
       <c r="CD3">
-        <v>0.004457497536664152</v>
+        <v>0.002178650494641886</v>
       </c>
       <c r="CE3">
-        <v>0.00457569387121959</v>
+        <v>0.002257512352775316</v>
       </c>
       <c r="CF3">
-        <v>0.004651476870522934</v>
+        <v>0.002293674230470456</v>
       </c>
       <c r="CG3">
-        <v>0.004715507969864748</v>
+        <v>0.002318004784467814</v>
       </c>
       <c r="CH3">
-        <v>0.004735875876064914</v>
+        <v>0.002318004784467814</v>
       </c>
       <c r="CI3">
-        <v>0.004753829812478393</v>
+        <v>0.002318004784467814</v>
       </c>
       <c r="CJ3">
-        <v>0.004770496298005639</v>
+        <v>0.002318004784467814</v>
       </c>
       <c r="CK3">
-        <v>0.00477131187798357</v>
+        <v>0.002318004784467814</v>
       </c>
       <c r="CL3">
-        <v>0.004777596153428252</v>
+        <v>0.002318004784467814</v>
       </c>
       <c r="CM3">
-        <v>0.04680321843978343</v>
+        <v>0.0445875186562882</v>
       </c>
       <c r="CN3">
-        <v>0.06468775285939497</v>
+        <v>0.06255279015853207</v>
       </c>
       <c r="CO3">
-        <v>0.1447386557856004</v>
+        <v>0.1431045737417855</v>
       </c>
       <c r="CP3">
-        <v>0.2101340300068592</v>
+        <v>0.2089017810745631</v>
       </c>
       <c r="CQ3">
-        <v>0.212427499804194</v>
+        <v>0.2111706177072935</v>
       </c>
       <c r="CR3">
-        <v>0.2163840017545729</v>
+        <v>0.2151137258864882</v>
       </c>
       <c r="CS3">
-        <v>0.218733880946923</v>
+        <v>0.2174393531500278</v>
       </c>
       <c r="CT3">
-        <v>0.2296129599855801</v>
+        <v>0.2283518237831558</v>
       </c>
       <c r="CU3">
-        <v>0.2352716534855428</v>
+        <v>0.2340086275592056</v>
       </c>
       <c r="CV3">
-        <v>0.2557805856732462</v>
+        <v>0.2546160334914289</v>
       </c>
       <c r="CW3">
-        <v>0.2608161467282728</v>
+        <v>0.2596454934603696</v>
       </c>
       <c r="CX3">
-        <v>0.3479873390252852</v>
+        <v>0.3473656879936536</v>
       </c>
       <c r="CY3">
-        <v>0.3488248974512734</v>
+        <v>0.3481687736613425</v>
       </c>
       <c r="CZ3">
-        <v>0.350694790586038</v>
+        <v>0.3500111709419597</v>
       </c>
       <c r="DA3">
-        <v>0.3795470980364691</v>
+        <v>0.3790183397881404</v>
       </c>
       <c r="DB3">
-        <v>0.3813975750729495</v>
+        <v>0.3808411897492177</v>
       </c>
       <c r="DC3">
-        <v>0.5029013543361214</v>
+        <v>0.5031260037149837</v>
       </c>
       <c r="DD3">
-        <v>0.5087083378229803</v>
+        <v>0.5089320996771355</v>
       </c>
       <c r="DE3">
-        <v>0.5677295856074965</v>
+        <v>0.5683121018421903</v>
       </c>
       <c r="DF3">
-        <v>0.5678352837031564</v>
+        <v>0.5683783809936541</v>
       </c>
       <c r="DG3">
-        <v>0.6314371580829</v>
+        <v>0.6323699673420505</v>
       </c>
       <c r="DH3">
-        <v>0.633060279539471</v>
+        <v>0.633963925169157</v>
       </c>
       <c r="DI3">
-        <v>0.6521730358505492</v>
+        <v>0.6531657193458802</v>
       </c>
       <c r="DJ3">
-        <v>0.6524159153290868</v>
+        <v>0.6533701070033261</v>
       </c>
       <c r="DK3">
-        <v>0.6892626320730822</v>
+        <v>0.6904257143517354</v>
       </c>
       <c r="DL3">
-        <v>0.7097997802582924</v>
+        <v>0.7110615269757319</v>
       </c>
       <c r="DM3">
-        <v>0.7161964636930417</v>
+        <v>0.717461308298625</v>
       </c>
       <c r="DN3">
-        <v>0.7280931371417778</v>
+        <v>0.729398250625531</v>
       </c>
       <c r="DO3">
-        <v>0.7281195316654454</v>
+        <v>0.729398250625531</v>
       </c>
       <c r="DP3">
-        <v>0.7281783574702472</v>
+        <v>0.7294173407056606</v>
       </c>
       <c r="DQ3">
-        <v>0.7343254899270484</v>
+        <v>0.7355658844917411</v>
       </c>
       <c r="DR3">
-        <v>0.7382537255799251</v>
+        <v>0.7394805353392208</v>
       </c>
       <c r="DS3">
-        <v>0.7384119700759416</v>
+        <v>0.7395997160192722</v>
       </c>
       <c r="DT3">
-        <v>0.7396990661622058</v>
+        <v>0.7408553774909145</v>
       </c>
       <c r="DU3">
-        <v>0.7421515016454934</v>
+        <v>0.7432842541591713</v>
       </c>
       <c r="DV3">
-        <v>0.7464329752671558</v>
+        <v>0.7475545302897739</v>
       </c>
       <c r="DW3">
-        <v>0.7465030857109604</v>
+        <v>0.7475849812747182</v>
       </c>
       <c r="DX3">
-        <v>0.7465069202349215</v>
+        <v>0.7475849812747182</v>
       </c>
       <c r="DY3">
-        <v>0.7484066056670535</v>
+        <v>0.7494573722001935</v>
       </c>
       <c r="DZ3">
-        <v>0.7499590995298655</v>
+        <v>0.7509802251058412</v>
       </c>
       <c r="EA3">
-        <v>0.7572769971832106</v>
+        <v>0.7583074465576397</v>
       </c>
       <c r="EB3">
-        <v>0.7580535082145933</v>
+        <v>0.7590490722495929</v>
       </c>
       <c r="EC3">
-        <v>0.7584818639367411</v>
+        <v>0.7594401896684888</v>
       </c>
       <c r="ED3">
-        <v>0.758597441232528</v>
+        <v>0.7595164147874099</v>
       </c>
       <c r="EE3">
-        <v>0.7598540439214868</v>
+        <v>0.7607413767759604</v>
       </c>
       <c r="EF3">
-        <v>0.7631159727332425</v>
+        <v>0.7639852176314257</v>
       </c>
       <c r="EG3">
-        <v>0.7713949750016584</v>
+        <v>0.772280039202827</v>
       </c>
       <c r="EH3">
-        <v>0.7717407542911032</v>
+        <v>0.7725880221065963</v>
       </c>
       <c r="EI3">
-        <v>0.7729444563847366</v>
+        <v>0.7737597259778084</v>
       </c>
       <c r="EJ3">
-        <v>0.7729633290310689</v>
+        <v>0.7737597259778084</v>
       </c>
       <c r="EK3">
-        <v>0.7782017695681678</v>
+        <v>0.7789934365642572</v>
       </c>
       <c r="EL3">
-        <v>0.7789916663983676</v>
+        <v>0.7797485385212636</v>
       </c>
       <c r="EM3">
-        <v>0.7838943449651364</v>
+        <v>0.7846442179323805</v>
       </c>
       <c r="EN3">
-        <v>0.78774362682499</v>
+        <v>0.7884793813875677</v>
       </c>
       <c r="EO3">
-        <v>0.7883208459739833</v>
+        <v>0.7890203683080366</v>
       </c>
       <c r="EP3">
-        <v>0.7893748986808407</v>
+        <v>0.790041411405934</v>
       </c>
       <c r="EQ3">
-        <v>0.7903760930923689</v>
+        <v>0.7910092389723684</v>
       </c>
       <c r="ER3">
-        <v>0.7930886741526684</v>
+        <v>0.7937000193787656</v>
       </c>
       <c r="ES3">
-        <v>0.7943466637415046</v>
+        <v>0.7949263776403817</v>
       </c>
       <c r="ET3">
-        <v>0.7999042208504044</v>
+        <v>0.8004813615078031</v>
       </c>
       <c r="EU3">
-        <v>0.8116631978113081</v>
+        <v>0.8122796767425008</v>
       </c>
       <c r="EV3">
-        <v>0.8175917136874277</v>
+        <v>0.8182081264552643</v>
       </c>
       <c r="EW3">
-        <v>0.8176449824307205</v>
+        <v>0.8182216219171844</v>
       </c>
       <c r="EX3">
-        <v>0.8229303646636713</v>
+        <v>0.8235025914490264</v>
       </c>
       <c r="EY3">
-        <v>0.8403313531260119</v>
+        <v>0.8409810490095286</v>
       </c>
       <c r="EZ3">
-        <v>0.8670299197667609</v>
+        <v>0.8678199212599345</v>
       </c>
       <c r="FA3">
-        <v>0.8721047103183209</v>
+        <v>0.8728888758530218</v>
       </c>
       <c r="FB3">
-        <v>0.872519777281643</v>
+        <v>0.8732666147026885</v>
       </c>
       <c r="FC3">
-        <v>0.8725246676506109</v>
+        <v>0.8732666147026885</v>
       </c>
       <c r="FD3">
-        <v>0.8744472430807202</v>
+        <v>0.8751620503253105</v>
       </c>
       <c r="FE3">
-        <v>0.8755362933844849</v>
+        <v>0.8762183275469675</v>
       </c>
       <c r="FF3">
-        <v>0.8758846935536981</v>
+        <v>0.8765289490433911</v>
       </c>
       <c r="FG3">
-        <v>0.875930900689615</v>
+        <v>0.8765353351729508</v>
       </c>
       <c r="FH3">
-        <v>0.8854112928518687</v>
+        <v>0.8860396660805248</v>
       </c>
       <c r="FI3">
-        <v>0.893376869147981</v>
+        <v>0.8940189434296507</v>
       </c>
       <c r="FJ3">
-        <v>0.8948650676164746</v>
+        <v>0.8954770664086527</v>
       </c>
       <c r="FK3">
-        <v>0.8965969474634349</v>
+        <v>0.8971805176560367</v>
       </c>
       <c r="FL3">
-        <v>0.9073152185163019</v>
+        <v>0.9079310935028495</v>
       </c>
       <c r="FM3">
-        <v>0.9203391133654297</v>
+        <v>0.9210028754140576</v>
       </c>
       <c r="FN3">
-        <v>0.9286678286294527</v>
+        <v>0.9293477459600875</v>
       </c>
       <c r="FO3">
-        <v>0.9289170588774293</v>
+        <v>0.9295585273078478</v>
       </c>
       <c r="FP3">
-        <v>0.9372396401419943</v>
+        <v>0.9378972223985568</v>
       </c>
       <c r="FQ3">
-        <v>0.9511170949156963</v>
+        <v>0.9518283329116207</v>
       </c>
       <c r="FR3">
-        <v>0.958768450239575</v>
+        <v>0.9594912656656348</v>
       </c>
       <c r="FS3">
-        <v>0.9602878640053102</v>
+        <v>0.9609808149065345</v>
       </c>
       <c r="FT3">
-        <v>0.9622651048305889</v>
+        <v>0.9629312853735165</v>
       </c>
       <c r="FU3">
-        <v>0.9643966263422344</v>
+        <v>0.965037079213459</v>
       </c>
       <c r="FV3">
-        <v>0.9652080180705348</v>
+        <v>0.9658138213391284</v>
       </c>
       <c r="FW3">
-        <v>0.966045258826551</v>
+        <v>0.9666165871899128</v>
       </c>
       <c r="FX3">
-        <v>0.9700686024710234</v>
+        <v>0.9706269888043747</v>
       </c>
       <c r="FY3">
-        <v>0.9724844052575481</v>
+        <v>0.9730189851983999</v>
       </c>
       <c r="FZ3">
-        <v>0.9725248736239721</v>
+        <v>0.9730195937737157</v>
       </c>
       <c r="GA3">
-        <v>0.9741597941795004</v>
+        <v>0.9746254304425044</v>
       </c>
       <c r="GB3">
-        <v>0.9758083950338198</v>
+        <v>0.976245039866661</v>
       </c>
       <c r="GC3">
-        <v>0.9778708461515688</v>
+        <v>0.9782812965091463</v>
       </c>
       <c r="GD3">
-        <v>0.9778719064471751</v>
+        <v>0.9782812965091463</v>
       </c>
       <c r="GE3">
-        <v>0.9786745061462524</v>
+        <v>0.9790491871857701</v>
       </c>
       <c r="GF3">
-        <v>0.9788541747603757</v>
+        <v>0.9791899367761331</v>
       </c>
       <c r="GG3">
-        <v>0.9788570153863247</v>
+        <v>0.9791899367761331</v>
       </c>
       <c r="GH3">
-        <v>0.9794820935310889</v>
+        <v>0.97977910614137</v>
       </c>
       <c r="GI3">
-        <v>0.9873051773397927</v>
+        <v>0.9876149279855521</v>
       </c>
       <c r="GJ3">
-        <v>0.9932423618151462</v>
+        <v>0.993552104883186</v>
       </c>
       <c r="GK3">
-        <v>0.9945948706956301</v>
+        <v>0.9948736212331819</v>
       </c>
       <c r="GL3">
-        <v>0.9949768066618799</v>
+        <v>0.995218005174104</v>
       </c>
       <c r="GM3">
-        <v>0.9962709782475189</v>
+        <v>0.9964807899639927</v>
       </c>
       <c r="GN3">
-        <v>0.9963050950565041</v>
+        <v>0.9964807899639927</v>
       </c>
       <c r="GO3">
-        <v>0.9981122566968121</v>
+        <v>0.9982600317872463</v>
       </c>
       <c r="GP3">
-        <v>0.9989397566236891</v>
+        <v>0.9990529909767242</v>
       </c>
       <c r="GQ3">
-        <v>0.9995301573415176</v>
+        <v>0.9996072485520016</v>
       </c>
       <c r="GR3">
-        <v>0.9999521314742293</v>
+        <v>0.9999919412522926</v>
       </c>
       <c r="GS3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GT3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GU3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GV3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GW3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GX3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GY3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GZ3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HA3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HB3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HC3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HD3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HE3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HF3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HG3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HH3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HI3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HJ3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HK3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HL3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HM3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HN3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HO3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HP3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HQ3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HR3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HS3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HT3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HU3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HV3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HW3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HX3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HY3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HZ3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IA3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IB3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IC3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="ID3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IE3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IF3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IG3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IH3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="II3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IJ3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IK3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IL3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IM3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IN3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IO3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IP3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IQ3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IR3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IS3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IT3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IU3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IV3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IW3">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>2.680750046169868E-05</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>7.277564125339613E-05</v>
+        <v>1.988700496689222E-07</v>
       </c>
       <c r="D4">
-        <v>0.0001389493783930894</v>
+        <v>2.076237102374004E-05</v>
       </c>
       <c r="E4">
-        <v>0.0001506114185939417</v>
+        <v>2.076237102374004E-05</v>
       </c>
       <c r="F4">
-        <v>0.0002245864198679941</v>
+        <v>4.91885384642606E-05</v>
       </c>
       <c r="G4">
-        <v>0.0003498880720260323</v>
+        <v>0.0001293453395290488</v>
       </c>
       <c r="H4">
-        <v>0.0004427239736249211</v>
+        <v>0.0001767808580128178</v>
       </c>
       <c r="I4">
-        <v>0.0004884947974132202</v>
+        <v>0.0001767808580128178</v>
       </c>
       <c r="J4">
-        <v>0.0005032205886668388</v>
+        <v>0.0001767808580128178</v>
       </c>
       <c r="K4">
-        <v>0.0005064012972216192</v>
+        <v>0.0001767808580128178</v>
       </c>
       <c r="L4">
-        <v>0.0005572323780970699</v>
+        <v>0.0001818809434637802</v>
       </c>
       <c r="M4">
-        <v>0.0006072359939582693</v>
+        <v>0.0001861470510737592</v>
       </c>
       <c r="N4">
-        <v>0.0006084115523785156</v>
+        <v>0.0001861470510737592</v>
       </c>
       <c r="O4">
-        <v>0.0006224894826209762</v>
+        <v>0.0001861470510737592</v>
       </c>
       <c r="P4">
-        <v>0.0006964995788956331</v>
+        <v>0.0002146085897412553</v>
       </c>
       <c r="Q4">
-        <v>0.0009516644432902719</v>
+        <v>0.0004256507327829955</v>
       </c>
       <c r="R4">
-        <v>0.001177913707186905</v>
+        <v>0.0006075496858907371</v>
       </c>
       <c r="S4">
-        <v>0.001380702490679484</v>
+        <v>0.0007658035054172015</v>
       </c>
       <c r="T4">
-        <v>0.001530278533255593</v>
+        <v>0.0008704257562150735</v>
       </c>
       <c r="U4">
-        <v>0.001648869595298057</v>
+        <v>0.0009438191493291641</v>
       </c>
       <c r="V4">
-        <v>0.001739789802863952</v>
+        <v>0.0009893238957003911</v>
       </c>
       <c r="W4">
-        <v>0.001769881012382205</v>
+        <v>0.0009893238957003911</v>
       </c>
       <c r="X4">
-        <v>0.001775082952471797</v>
+        <v>0.0009893238957003911</v>
       </c>
       <c r="Y4">
-        <v>0.001786560671669475</v>
+        <v>0.0009893238957003911</v>
       </c>
       <c r="Z4">
-        <v>0.001794511718806414</v>
+        <v>0.0009893238957003911</v>
       </c>
       <c r="AA4">
-        <v>0.001812287769112566</v>
+        <v>0.0009893238957003911</v>
       </c>
       <c r="AB4">
-        <v>0.001839095269574265</v>
+        <v>0.0009893238957003911</v>
       </c>
       <c r="AC4">
-        <v>0.001839256564867043</v>
+        <v>0.0009893238957003911</v>
       </c>
       <c r="AD4">
-        <v>0.001839294838550702</v>
+        <v>0.0009893238957003911</v>
       </c>
       <c r="AE4">
-        <v>0.001916563249881476</v>
+        <v>0.001021069395029599</v>
       </c>
       <c r="AF4">
-        <v>0.001928626657089241</v>
+        <v>0.001021069395029599</v>
       </c>
       <c r="AG4">
-        <v>0.002009558713483113</v>
+        <v>0.001056507375306315</v>
       </c>
       <c r="AH4">
-        <v>0.002016934014610136</v>
+        <v>0.001056507375306315</v>
       </c>
       <c r="AI4">
-        <v>0.002263726638860582</v>
+        <v>0.001259111381823375</v>
       </c>
       <c r="AJ4">
-        <v>0.002324561649908328</v>
+        <v>0.001274294136562764</v>
       </c>
       <c r="AK4">
-        <v>0.002332832963050783</v>
+        <v>0.001274294136562764</v>
       </c>
       <c r="AL4">
-        <v>0.002461086925259668</v>
+        <v>0.001357426484774215</v>
       </c>
       <c r="AM4">
-        <v>0.002549485751782138</v>
+        <v>0.001400390004770095</v>
       </c>
       <c r="AN4">
-        <v>0.002555015643877378</v>
+        <v>0.001400390004770095</v>
       </c>
       <c r="AO4">
-        <v>0.002643140755395134</v>
+        <v>0.001443077655400208</v>
       </c>
       <c r="AP4">
-        <v>0.002747544687193256</v>
+        <v>0.001502172253946372</v>
       </c>
       <c r="AQ4">
-        <v>0.002758137984375702</v>
+        <v>0.001502172253946372</v>
       </c>
       <c r="AR4">
-        <v>0.002759194773793902</v>
+        <v>0.001502172253946372</v>
       </c>
       <c r="AS4">
-        <v>0.002764862537491516</v>
+        <v>0.001502172253946372</v>
       </c>
       <c r="AT4">
-        <v>0.0027650357457745</v>
+        <v>0.001502172253946372</v>
       </c>
       <c r="AU4">
-        <v>0.002830769406906614</v>
+        <v>0.001522292215154594</v>
       </c>
       <c r="AV4">
-        <v>0.002934620373695212</v>
+        <v>0.001580829496404148</v>
       </c>
       <c r="AW4">
-        <v>0.003119169116873648</v>
+        <v>0.001720699711574358</v>
       </c>
       <c r="AX4">
-        <v>0.003298218459957369</v>
+        <v>0.001855027241871245</v>
       </c>
       <c r="AY4">
-        <v>0.003317389226287542</v>
+        <v>0.001855027241871245</v>
       </c>
       <c r="AZ4">
-        <v>0.003392657823583873</v>
+        <v>0.00188475718699322</v>
       </c>
       <c r="BA4">
-        <v>0.003585611636907067</v>
+        <v>0.002033098627087641</v>
       </c>
       <c r="BB4">
-        <v>0.003957915873319167</v>
+        <v>0.002362202124853438</v>
       </c>
       <c r="BC4">
-        <v>0.004121338336133751</v>
+        <v>0.002480779778546838</v>
       </c>
       <c r="BD4">
-        <v>0.00423803340814356</v>
+        <v>0.002552262258635331</v>
       </c>
       <c r="BE4">
-        <v>0.004439993271621863</v>
+        <v>0.002709680633868746</v>
       </c>
       <c r="BF4">
-        <v>0.004606784914494472</v>
+        <v>0.002831653985824047</v>
       </c>
       <c r="BG4">
-        <v>0.004607559828267819</v>
+        <v>0.002831653985824047</v>
       </c>
       <c r="BH4">
-        <v>0.004673260419399363</v>
+        <v>0.002851740616743736</v>
       </c>
       <c r="BI4">
-        <v>0.00470144271988474</v>
+        <v>0.002851740616743736</v>
       </c>
       <c r="BJ4">
-        <v>0.004722959444255316</v>
+        <v>0.002851740616743736</v>
       </c>
       <c r="BK4">
-        <v>0.004762640189938727</v>
+        <v>0.002851740616743736</v>
       </c>
       <c r="BL4">
-        <v>0.004876787461904656</v>
+        <v>0.002920655243517277</v>
       </c>
       <c r="BM4">
-        <v>0.004962468283380315</v>
+        <v>0.00296087936554263</v>
       </c>
       <c r="BN4">
-        <v>0.004998914341008016</v>
+        <v>0.00296087936554263</v>
       </c>
       <c r="BO4">
-        <v>0.005106316382857774</v>
+        <v>0.003022995671719728</v>
       </c>
       <c r="BP4">
-        <v>0.005246033715264089</v>
+        <v>0.003117681616231919</v>
       </c>
       <c r="BQ4">
-        <v>0.005438526438579342</v>
+        <v>0.003265558337162752</v>
       </c>
       <c r="BR4">
-        <v>0.005513507159870716</v>
+        <v>0.003294998140460057</v>
       </c>
       <c r="BS4">
-        <v>0.005562079050707257</v>
+        <v>0.00329782125419793</v>
       </c>
       <c r="BT4">
-        <v>0.005669481092557015</v>
+        <v>0.003359937560375028</v>
       </c>
       <c r="BU4">
-        <v>0.005788981274615136</v>
+        <v>0.003434247229023183</v>
       </c>
       <c r="BV4">
-        <v>0.005791476140058104</v>
+        <v>0.003434247229023183</v>
       </c>
       <c r="BW4">
-        <v>0.005791476209002256</v>
+        <v>0.003434247229023183</v>
       </c>
       <c r="BX4">
-        <v>0.005881802890557929</v>
+        <v>0.003479153777848837</v>
       </c>
       <c r="BY4">
-        <v>0.005930781724401478</v>
+        <v>0.003482387037568164</v>
       </c>
       <c r="BZ4">
-        <v>0.005934624497467661</v>
+        <v>0.003482387037568164</v>
       </c>
       <c r="CA4">
-        <v>0.005968334395048238</v>
+        <v>0.003482387037568164</v>
       </c>
       <c r="CB4">
-        <v>0.006050054656455685</v>
+        <v>0.003518619426676857</v>
       </c>
       <c r="CC4">
-        <v>0.006168645718498149</v>
+        <v>0.003592012819790947</v>
       </c>
       <c r="CD4">
-        <v>0.006314679821013257</v>
+        <v>0.003693065252561359</v>
       </c>
       <c r="CE4">
-        <v>0.00647661590380224</v>
+        <v>0.003810144827202133</v>
       </c>
       <c r="CF4">
-        <v>0.006607903286063369</v>
+        <v>0.003896334470963723</v>
       </c>
       <c r="CG4">
-        <v>0.006664309050034832</v>
+        <v>0.003907053116828124</v>
       </c>
       <c r="CH4">
-        <v>0.00674471776141969</v>
+        <v>0.003941963632942381</v>
       </c>
       <c r="CI4">
-        <v>0.006910757724279354</v>
+        <v>0.004063179388547974</v>
       </c>
       <c r="CJ4">
-        <v>0.007007318835942401</v>
+        <v>0.004114369437547245</v>
       </c>
       <c r="CK4">
-        <v>0.007013136003042588</v>
+        <v>0.004114369437547245</v>
       </c>
       <c r="CL4">
-        <v>0.007074915418106599</v>
+        <v>0.004130504029535262</v>
       </c>
       <c r="CM4">
-        <v>0.04878191013641543</v>
+        <v>0.04611963584523399</v>
       </c>
       <c r="CN4">
-        <v>0.07012713050403867</v>
+        <v>0.06758672948516753</v>
       </c>
       <c r="CO4">
-        <v>0.1776263823554706</v>
+        <v>0.175885957331876</v>
       </c>
       <c r="CP4">
-        <v>0.2428923894795303</v>
+        <v>0.2416195302580256</v>
       </c>
       <c r="CQ4">
-        <v>0.2498654871996261</v>
+        <v>0.2486013808852643</v>
       </c>
       <c r="CR4">
-        <v>0.2501371334043047</v>
+        <v>0.2488290340902237</v>
       </c>
       <c r="CS4">
-        <v>0.2556577244993844</v>
+        <v>0.2543469456767998</v>
       </c>
       <c r="CT4">
-        <v>0.2789124548998946</v>
+        <v>0.2777385787560281</v>
       </c>
       <c r="CU4">
-        <v>0.2850417855054585</v>
+        <v>0.2838700211311345</v>
       </c>
       <c r="CV4">
-        <v>0.3194003060972064</v>
+        <v>0.318452840316037</v>
       </c>
       <c r="CW4">
-        <v>0.3262667687154657</v>
+        <v>0.325327216535934</v>
       </c>
       <c r="CX4">
-        <v>0.4393077706623418</v>
+        <v>0.4392118125858524</v>
       </c>
       <c r="CY4">
-        <v>0.4393175277285099</v>
+        <v>0.4392118125858524</v>
       </c>
       <c r="CZ4">
-        <v>0.4399722831397866</v>
+        <v>0.4398255903803435</v>
       </c>
       <c r="DA4">
-        <v>0.4689978406396863</v>
+        <v>0.4690334716901894</v>
       </c>
       <c r="DB4">
-        <v>0.4752466747473084</v>
+        <v>0.4752853581576985</v>
       </c>
       <c r="DC4">
-        <v>0.578527826526093</v>
+        <v>0.5793332860327445</v>
       </c>
       <c r="DD4">
-        <v>0.578596632937278</v>
+        <v>0.5793565029290628</v>
       </c>
       <c r="DE4">
-        <v>0.6366800009376329</v>
+        <v>0.6378509034844386</v>
       </c>
       <c r="DF4">
-        <v>0.6393732405840179</v>
+        <v>0.6405192100529498</v>
       </c>
       <c r="DG4">
-        <v>0.6903846884625749</v>
+        <v>0.6918860286885991</v>
       </c>
       <c r="DH4">
-        <v>0.6904728135740927</v>
+        <v>0.6919287163392291</v>
       </c>
       <c r="DI4">
-        <v>0.7045070538158008</v>
+        <v>0.7060272864574766</v>
       </c>
       <c r="DJ4">
-        <v>0.7066672081530045</v>
+        <v>0.7081583118992284</v>
       </c>
       <c r="DK4">
-        <v>0.7421033137633115</v>
+        <v>0.7438271975785156</v>
       </c>
       <c r="DL4">
-        <v>0.7543522289742715</v>
+        <v>0.7561263906971879</v>
       </c>
       <c r="DM4">
-        <v>0.7586158170477021</v>
+        <v>0.7603774056197969</v>
       </c>
       <c r="DN4">
-        <v>0.7657627171707914</v>
+        <v>0.7675344266171538</v>
       </c>
       <c r="DO4">
-        <v>0.7659437210439087</v>
+        <v>0.7676707240612349</v>
       </c>
       <c r="DP4">
-        <v>0.7662120163685295</v>
+        <v>0.7678950000119688</v>
       </c>
       <c r="DQ4">
-        <v>0.7706582440451057</v>
+        <v>0.7723300920608442</v>
       </c>
       <c r="DR4">
-        <v>0.7732926303904771</v>
+        <v>0.7749390821047064</v>
       </c>
       <c r="DS4">
-        <v>0.7733494746254561</v>
+        <v>0.774950242672704</v>
       </c>
       <c r="DT4">
-        <v>0.7741022184384204</v>
+        <v>0.7756627801177826</v>
       </c>
       <c r="DU4">
-        <v>0.7763125724764888</v>
+        <v>0.7778444003731205</v>
       </c>
       <c r="DV4">
-        <v>0.7793952214295804</v>
+        <v>0.7809051812182148</v>
       </c>
       <c r="DW4">
-        <v>0.7793964982675023</v>
+        <v>0.7809051812182148</v>
       </c>
       <c r="DX4">
-        <v>0.779762566543807</v>
+        <v>0.7812279996737647</v>
       </c>
       <c r="DY4">
-        <v>0.7824935247908417</v>
+        <v>0.7839343217191757</v>
       </c>
       <c r="DZ4">
-        <v>0.7847040708289134</v>
+        <v>0.786116135485714</v>
       </c>
       <c r="EA4">
-        <v>0.7950620780073067</v>
+        <v>0.7965095375783755</v>
       </c>
       <c r="EB4">
-        <v>0.7956961259782267</v>
+        <v>0.7971024449480105</v>
       </c>
       <c r="EC4">
-        <v>0.7964290190608492</v>
+        <v>0.7977949754212567</v>
       </c>
       <c r="ED4">
-        <v>0.7966087942439454</v>
+        <v>0.7979300345045208</v>
       </c>
       <c r="EE4">
-        <v>0.7980783229692547</v>
+        <v>0.799364998545711</v>
       </c>
       <c r="EF4">
-        <v>0.8009109087180396</v>
+        <v>0.8021737479844674</v>
       </c>
       <c r="EG4">
-        <v>0.8049015333867691</v>
+        <v>0.8061496510570291</v>
       </c>
       <c r="EH4">
-        <v>0.8049080001574804</v>
+        <v>0.8061496510570291</v>
       </c>
       <c r="EI4">
-        <v>0.8058255650732834</v>
+        <v>0.8070283068818899</v>
       </c>
       <c r="EJ4">
-        <v>0.8059441561353259</v>
+        <v>0.8071017002750039</v>
       </c>
       <c r="EK4">
-        <v>0.8090855418894292</v>
+        <v>0.8102216802277949</v>
       </c>
       <c r="EL4">
-        <v>0.8092455779321854</v>
+        <v>0.8103368448075332</v>
       </c>
       <c r="EM4">
-        <v>0.8182647670875206</v>
+        <v>0.8193808912838126</v>
       </c>
       <c r="EN4">
-        <v>0.8223142447572637</v>
+        <v>0.823416110578662</v>
       </c>
       <c r="EO4">
-        <v>0.8233130839744665</v>
+        <v>0.8243766804001771</v>
       </c>
       <c r="EP4">
-        <v>0.8237012948211525</v>
+        <v>0.8247218157062552</v>
       </c>
       <c r="EQ4">
-        <v>0.8259212472593862</v>
+        <v>0.8269131099090217</v>
       </c>
       <c r="ER4">
-        <v>0.8285451765045775</v>
+        <v>0.8295115605467688</v>
       </c>
       <c r="ES4">
-        <v>0.8295365346216514</v>
+        <v>0.8304645903857756</v>
       </c>
       <c r="ET4">
-        <v>0.8333234400868723</v>
+        <v>0.8342351708180046</v>
       </c>
       <c r="EU4">
-        <v>0.8419865227360743</v>
+        <v>0.842920307938565</v>
       </c>
       <c r="EV4">
-        <v>0.8444836765790822</v>
+        <v>0.8453909853479801</v>
       </c>
       <c r="EW4">
-        <v>0.84612905010742</v>
+        <v>0.8470031782346829</v>
       </c>
       <c r="EX4">
-        <v>0.8531292752279831</v>
+        <v>0.8540123697772274</v>
       </c>
       <c r="EY4">
-        <v>0.8705920455287399</v>
+        <v>0.8715664552914691</v>
       </c>
       <c r="EZ4">
-        <v>0.8965942219765687</v>
+        <v>0.897727159066495</v>
       </c>
       <c r="FA4">
-        <v>0.9025922877798719</v>
+        <v>0.90372630347794</v>
       </c>
       <c r="FB4">
-        <v>0.9029735611864385</v>
+        <v>0.9040644467405684</v>
       </c>
       <c r="FC4">
-        <v>0.9031932848402227</v>
+        <v>0.9042397687216727</v>
       </c>
       <c r="FD4">
-        <v>0.9061814582916872</v>
+        <v>0.9072053304656378</v>
       </c>
       <c r="FE4">
-        <v>0.9076565765170928</v>
+        <v>0.9086459280008635</v>
       </c>
       <c r="FF4">
-        <v>0.9084038467699628</v>
+        <v>0.9093529488044512</v>
       </c>
       <c r="FG4">
-        <v>0.9084651371110184</v>
+        <v>0.9093685904730181</v>
       </c>
       <c r="FH4">
-        <v>0.9165079162495371</v>
+        <v>0.9174285417867052</v>
       </c>
       <c r="FI4">
-        <v>0.9200064996097923</v>
+        <v>0.920908530783084</v>
       </c>
       <c r="FJ4">
-        <v>0.9208556702244174</v>
+        <v>0.9217182539876533</v>
       </c>
       <c r="FK4">
-        <v>0.9269099613286889</v>
+        <v>0.9277740662391913</v>
       </c>
       <c r="FL4">
-        <v>0.9392942225419798</v>
+        <v>0.9402096706439793</v>
       </c>
       <c r="FM4">
-        <v>0.9502197927301481</v>
+        <v>0.9511751029317089</v>
       </c>
       <c r="FN4">
-        <v>0.9580962208658018</v>
+        <v>0.9590673939240224</v>
       </c>
       <c r="FO4">
-        <v>0.9582453909783709</v>
+        <v>0.959171607049812</v>
       </c>
       <c r="FP4">
-        <v>0.9649108913931691</v>
+        <v>0.9658434393292702</v>
       </c>
       <c r="FQ4">
-        <v>0.9732679705371009</v>
+        <v>0.9742201644465878</v>
       </c>
       <c r="FR4">
-        <v>0.9774579531092639</v>
+        <v>0.9783969945324067</v>
       </c>
       <c r="FS4">
-        <v>0.9780608482196473</v>
+        <v>0.9789585038430021</v>
       </c>
       <c r="FT4">
-        <v>0.9787185889809754</v>
+        <v>0.9795752904846923</v>
       </c>
       <c r="FU4">
-        <v>0.9792574669902564</v>
+        <v>0.9800722788272177</v>
       </c>
       <c r="FV4">
-        <v>0.9796537558970816</v>
+        <v>0.9804255557743781</v>
       </c>
       <c r="FW4">
-        <v>0.9805723273129019</v>
+        <v>0.9813052260212349</v>
       </c>
       <c r="FX4">
-        <v>0.983621326165414</v>
+        <v>0.9843320919119241</v>
       </c>
       <c r="FY4">
-        <v>0.9842001443153828</v>
+        <v>0.9848693347567254</v>
       </c>
       <c r="FZ4">
-        <v>0.9844795277201945</v>
+        <v>0.9851047860599141</v>
       </c>
       <c r="GA4">
-        <v>0.9859166915449464</v>
+        <v>0.986507130462297</v>
       </c>
       <c r="GB4">
-        <v>0.9871711945665524</v>
+        <v>0.9877253763715518</v>
       </c>
       <c r="GC4">
-        <v>0.9882747182855581</v>
+        <v>0.9887914546475566</v>
       </c>
       <c r="GD4">
-        <v>0.9883631554670813</v>
+        <v>0.9888344568244384</v>
       </c>
       <c r="GE4">
-        <v>0.9891796547811437</v>
+        <v>0.9896112515785763</v>
       </c>
       <c r="GF4">
-        <v>0.9891812450956711</v>
+        <v>0.9896112515785763</v>
       </c>
       <c r="GG4">
-        <v>0.9892228086003869</v>
+        <v>0.9896112515785763</v>
       </c>
       <c r="GH4">
-        <v>0.9892933170766013</v>
+        <v>0.9896361839365685</v>
       </c>
       <c r="GI4">
-        <v>0.9934962471489873</v>
+        <v>0.9938260634300314</v>
       </c>
       <c r="GJ4">
-        <v>0.9959600279914204</v>
+        <v>0.9962631051660499</v>
       </c>
       <c r="GK4">
-        <v>0.9962818143969624</v>
+        <v>0.9965412932162807</v>
       </c>
       <c r="GL4">
-        <v>0.9963458723280656</v>
+        <v>0.9965597242580936</v>
       </c>
       <c r="GM4">
-        <v>0.9966845999338995</v>
+        <v>0.9968549868497245</v>
       </c>
       <c r="GN4">
-        <v>0.9967256018646057</v>
+        <v>0.9968549868497245</v>
       </c>
       <c r="GO4">
-        <v>0.9987524694995139</v>
+        <v>0.9988516765137724</v>
       </c>
       <c r="GP4">
-        <v>0.9998580653185553</v>
+        <v>0.9999198431989357</v>
       </c>
       <c r="GQ4">
-        <v>0.9999833669707133</v>
+        <v>1</v>
       </c>
       <c r="GR4">
-        <v>0.999989676163822</v>
+        <v>1</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,601 +8964,601 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>3.141983872055885E-05</v>
+        <v>2.530492682602219E-05</v>
       </c>
       <c r="C5">
-        <v>4.242325027249107E-05</v>
+        <v>3.017023465351239E-05</v>
       </c>
       <c r="D5">
-        <v>0.0001216716270454333</v>
+        <v>0.0001033580298665045</v>
       </c>
       <c r="E5">
-        <v>0.0002247272968489234</v>
+        <v>0.0002003801617590585</v>
       </c>
       <c r="F5">
-        <v>0.000266697865139848</v>
+        <v>0.0002362478031479015</v>
       </c>
       <c r="G5">
-        <v>0.0003229799448479964</v>
+        <v>0.0002864432129677803</v>
       </c>
       <c r="H5">
-        <v>0.0004970228677608283</v>
+        <v>0.000454533235207816</v>
       </c>
       <c r="I5">
-        <v>0.0005952462397610935</v>
+        <v>0.0005467175800982868</v>
       </c>
       <c r="J5">
-        <v>0.0005963361585167111</v>
+        <v>0.0005467175800982868</v>
       </c>
       <c r="K5">
-        <v>0.0006089955380012109</v>
+        <v>0.0005532407369380412</v>
       </c>
       <c r="L5">
-        <v>0.0007963928403702418</v>
+        <v>0.0007347003084039069</v>
       </c>
       <c r="M5">
-        <v>0.0007964235980229893</v>
+        <v>0.0007347003084039069</v>
       </c>
       <c r="N5">
-        <v>0.0009187336730424244</v>
+        <v>0.0008509987173554572</v>
       </c>
       <c r="O5">
-        <v>0.0009248772971922511</v>
+        <v>0.0008509987173554572</v>
       </c>
       <c r="P5">
-        <v>0.0009308504802490183</v>
+        <v>0.0008509987173554572</v>
       </c>
       <c r="Q5">
-        <v>0.001006993997148393</v>
+        <v>0.000921078125761326</v>
       </c>
       <c r="R5">
-        <v>0.001021805283545266</v>
+        <v>0.0009297556339499194</v>
       </c>
       <c r="S5">
-        <v>0.001025423142997943</v>
+        <v>0.0009297556339499194</v>
       </c>
       <c r="T5">
-        <v>0.00112254557904304</v>
+        <v>0.001020837792288376</v>
       </c>
       <c r="U5">
-        <v>0.001183977346541489</v>
+        <v>0.001076188739633297</v>
       </c>
       <c r="V5">
-        <v>0.001193376094158764</v>
+        <v>0.001079447560724681</v>
       </c>
       <c r="W5">
-        <v>0.001221719271004607</v>
+        <v>0.001101672330773658</v>
       </c>
       <c r="X5">
-        <v>0.00133941210621206</v>
+        <v>0.001213348255007275</v>
       </c>
       <c r="Y5">
-        <v>0.001363297477239428</v>
+        <v>0.001231110155439227</v>
       </c>
       <c r="Z5">
-        <v>0.001363299068691064</v>
+        <v>0.001231110155439227</v>
       </c>
       <c r="AA5">
-        <v>0.001365286612810129</v>
+        <v>0.001231110155439227</v>
       </c>
       <c r="AB5">
-        <v>0.001368623801674236</v>
+        <v>0.001231110155439227</v>
       </c>
       <c r="AC5">
-        <v>0.001381498336149975</v>
+        <v>0.001237848711673314</v>
       </c>
       <c r="AD5">
-        <v>0.001436500293910251</v>
+        <v>0.001286762545403994</v>
       </c>
       <c r="AE5">
-        <v>0.001437866713854609</v>
+        <v>0.001286762545403994</v>
       </c>
       <c r="AF5">
-        <v>0.001463200720822988</v>
+        <v>0.001305974727340015</v>
       </c>
       <c r="AG5">
-        <v>0.001503243417192417</v>
+        <v>0.001339912306861134</v>
       </c>
       <c r="AH5">
-        <v>0.001512249454325684</v>
+        <v>0.001342777971373085</v>
       </c>
       <c r="AI5">
-        <v>0.00152237237291347</v>
+        <v>0.001346761786049527</v>
       </c>
       <c r="AJ5">
-        <v>0.001550507557767783</v>
+        <v>0.001368778327840615</v>
       </c>
       <c r="AK5">
-        <v>0.001572054671890367</v>
+        <v>0.001384199315248965</v>
       </c>
       <c r="AL5">
-        <v>0.001575353471156037</v>
+        <v>0.001384199315248965</v>
       </c>
       <c r="AM5">
-        <v>0.001575746596700029</v>
+        <v>0.001384199315248965</v>
       </c>
       <c r="AN5">
-        <v>0.001585117676318431</v>
+        <v>0.001387430436912298</v>
       </c>
       <c r="AO5">
-        <v>0.001595145028910109</v>
+        <v>0.001391318577035423</v>
       </c>
       <c r="AP5">
-        <v>0.001608786881354602</v>
+        <v>0.001398825322865198</v>
       </c>
       <c r="AQ5">
-        <v>0.001618624460954008</v>
+        <v>0.001402523474425377</v>
       </c>
       <c r="AR5">
-        <v>0.001688015113128365</v>
+        <v>0.00146584234725918</v>
       </c>
       <c r="AS5">
-        <v>0.001797904648653574</v>
+        <v>0.001569706107732749</v>
       </c>
       <c r="AT5">
-        <v>0.001819591748770458</v>
+        <v>0.001585267240151044</v>
       </c>
       <c r="AU5">
-        <v>0.001820559563731048</v>
+        <v>0.001585267240151044</v>
       </c>
       <c r="AV5">
-        <v>0.001823680374203966</v>
+        <v>0.001585267240151044</v>
       </c>
       <c r="AW5">
-        <v>0.001871915372239798</v>
+        <v>0.001627406427299164</v>
       </c>
       <c r="AX5">
-        <v>0.001929332486901727</v>
+        <v>0.001678738161404074</v>
       </c>
       <c r="AY5">
-        <v>0.00194242398836863</v>
+        <v>0.001685693931090742</v>
       </c>
       <c r="AZ5">
-        <v>0.001942723428486437</v>
+        <v>0.001685693931090742</v>
       </c>
       <c r="BA5">
-        <v>0.001964691855591865</v>
+        <v>0.001701536710068073</v>
       </c>
       <c r="BB5">
-        <v>0.001965944601940852</v>
+        <v>0.001701536710068073</v>
       </c>
       <c r="BC5">
-        <v>0.002039741968935764</v>
+        <v>0.001769267303484689</v>
       </c>
       <c r="BD5">
-        <v>0.002117204765781416</v>
+        <v>0.001840667490459286</v>
       </c>
       <c r="BE5">
-        <v>0.00213865415890798</v>
+        <v>0.001855990645866457</v>
       </c>
       <c r="BF5">
-        <v>0.00214890199049068</v>
+        <v>0.001860099515431441</v>
       </c>
       <c r="BG5">
-        <v>0.002149970017647189</v>
+        <v>0.001860099515431441</v>
       </c>
       <c r="BH5">
-        <v>0.002154843790848725</v>
+        <v>0.001860099515431441</v>
       </c>
       <c r="BI5">
-        <v>0.002161835727564008</v>
+        <v>0.001860948791628808</v>
       </c>
       <c r="BJ5">
-        <v>0.00216851284179211</v>
+        <v>0.001861482887719637</v>
       </c>
       <c r="BK5">
-        <v>0.002212117960016475</v>
+        <v>0.00189898693579206</v>
       </c>
       <c r="BL5">
-        <v>0.002317108205741187</v>
+        <v>0.001997945841167405</v>
       </c>
       <c r="BM5">
-        <v>0.002329586128733076</v>
+        <v>0.002004287335390917</v>
       </c>
       <c r="BN5">
-        <v>0.002334985143313224</v>
+        <v>0.002004287335390917</v>
       </c>
       <c r="BO5">
-        <v>0.002335047967920666</v>
+        <v>0.002004287335390917</v>
       </c>
       <c r="BP5">
-        <v>0.002361345682849802</v>
+        <v>0.002024464320001815</v>
       </c>
       <c r="BQ5">
-        <v>0.002415901970628226</v>
+        <v>0.002072931977496424</v>
       </c>
       <c r="BR5">
-        <v>0.002416763296293152</v>
+        <v>0.002072931977496424</v>
       </c>
       <c r="BS5">
-        <v>0.002430853587719384</v>
+        <v>0.002080887671707575</v>
       </c>
       <c r="BT5">
-        <v>0.002446570523079377</v>
+        <v>0.00209047185762189</v>
       </c>
       <c r="BU5">
-        <v>0.002467562235224578</v>
+        <v>0.002105336812149707</v>
       </c>
       <c r="BV5">
-        <v>0.002499151065938256</v>
+        <v>0.002130810922933559</v>
       </c>
       <c r="BW5">
-        <v>0.002537871222361539</v>
+        <v>0.002163424460182919</v>
       </c>
       <c r="BX5">
-        <v>0.002578295870715415</v>
+        <v>0.002197744425562902</v>
       </c>
       <c r="BY5">
-        <v>0.002586944117363251</v>
+        <v>0.002200251893161011</v>
       </c>
       <c r="BZ5">
-        <v>0.002588241055010439</v>
+        <v>0.002200251893161011</v>
       </c>
       <c r="CA5">
-        <v>0.002600793537499292</v>
+        <v>0.002206668031576578</v>
       </c>
       <c r="CB5">
-        <v>0.00270661836319002</v>
+        <v>0.002306462464950444</v>
       </c>
       <c r="CC5">
-        <v>0.002748588931480945</v>
+        <v>0.002342330106339287</v>
       </c>
       <c r="CD5">
-        <v>0.002762906160897935</v>
+        <v>0.002350512996329067</v>
       </c>
       <c r="CE5">
-        <v>0.002779715707213437</v>
+        <v>0.002361191034339038</v>
       </c>
       <c r="CF5">
-        <v>0.002938233250758475</v>
+        <v>0.002513738041316686</v>
       </c>
       <c r="CG5">
-        <v>0.003065487005576599</v>
+        <v>0.002634985745789013</v>
       </c>
       <c r="CH5">
-        <v>0.003067336945001269</v>
+        <v>0.002634985745789013</v>
       </c>
       <c r="CI5">
-        <v>0.003067675477387483</v>
+        <v>0.002634985745789013</v>
       </c>
       <c r="CJ5">
-        <v>0.00311042988264649</v>
+        <v>0.002671638114537458</v>
       </c>
       <c r="CK5">
-        <v>0.003123304417122228</v>
+        <v>0.002678376670771545</v>
       </c>
       <c r="CL5">
-        <v>0.003131802797776167</v>
+        <v>0.002680734102137026</v>
       </c>
       <c r="CM5">
-        <v>0.004295808850376902</v>
+        <v>0.003839911792473505</v>
       </c>
       <c r="CN5">
-        <v>0.07615224592432487</v>
+        <v>0.07577182284218636</v>
       </c>
       <c r="CO5">
-        <v>0.0767127327015014</v>
+        <v>0.07632679569560129</v>
       </c>
       <c r="CP5">
-        <v>0.1301610165250442</v>
+        <v>0.1298296429430515</v>
       </c>
       <c r="CQ5">
-        <v>0.1690654919408226</v>
+        <v>0.1687721608935541</v>
       </c>
       <c r="CR5">
-        <v>0.1814138184379888</v>
+        <v>0.1811283637419309</v>
       </c>
       <c r="CS5">
-        <v>0.1818839693188439</v>
+        <v>0.1815928980828945</v>
       </c>
       <c r="CT5">
-        <v>0.1865783867276835</v>
+        <v>0.1862864974638438</v>
       </c>
       <c r="CU5">
-        <v>0.222984405245201</v>
+        <v>0.2227277204197365</v>
       </c>
       <c r="CV5">
-        <v>0.2235174378234955</v>
+        <v>0.2232552078879552</v>
       </c>
       <c r="CW5">
-        <v>0.2586688963920998</v>
+        <v>0.2584404457904977</v>
       </c>
       <c r="CX5">
-        <v>0.2946167879282727</v>
+        <v>0.2944230213604255</v>
       </c>
       <c r="CY5">
-        <v>0.3891741840778193</v>
+        <v>0.3890816784061037</v>
       </c>
       <c r="CZ5">
-        <v>0.3933436862080338</v>
+        <v>0.3932497662363302</v>
       </c>
       <c r="DA5">
-        <v>0.3935616223791593</v>
+        <v>0.3934617993668656</v>
       </c>
       <c r="DB5">
-        <v>0.4233327661668543</v>
+        <v>0.423260610775406</v>
       </c>
       <c r="DC5">
-        <v>0.4607959006413253</v>
+        <v>0.4607601505082222</v>
       </c>
       <c r="DD5">
-        <v>0.5588541726483134</v>
+        <v>0.5589236601951707</v>
       </c>
       <c r="DE5">
-        <v>0.5732048000639443</v>
+        <v>0.5732844384550925</v>
       </c>
       <c r="DF5">
-        <v>0.6090614186038339</v>
+        <v>0.609175637348118</v>
       </c>
       <c r="DG5">
-        <v>0.6359880525073597</v>
+        <v>0.6361267076808191</v>
       </c>
       <c r="DH5">
-        <v>0.6698587211281187</v>
+        <v>0.6700297007353829</v>
       </c>
       <c r="DI5">
-        <v>0.6773661278224111</v>
+        <v>0.677539484787956</v>
       </c>
       <c r="DJ5">
-        <v>0.6814549541559108</v>
+        <v>0.6816268051786284</v>
       </c>
       <c r="DK5">
-        <v>0.6965792865400359</v>
+        <v>0.6967621672892247</v>
       </c>
       <c r="DL5">
-        <v>0.7255388753607781</v>
+        <v>0.7257485018533164</v>
       </c>
       <c r="DM5">
-        <v>0.7285818276368666</v>
+        <v>0.7287887601367273</v>
       </c>
       <c r="DN5">
-        <v>0.7368565992999112</v>
+        <v>0.7370667808383757</v>
       </c>
       <c r="DO5">
-        <v>0.7403954165558078</v>
+        <v>0.740603467374305</v>
       </c>
       <c r="DP5">
-        <v>0.740553290349379</v>
+        <v>0.7407553699000478</v>
       </c>
       <c r="DQ5">
-        <v>0.7412133606225004</v>
+        <v>0.7414100393702528</v>
       </c>
       <c r="DR5">
-        <v>0.745926981930558</v>
+        <v>0.7461228644648915</v>
       </c>
       <c r="DS5">
-        <v>0.7482922534342422</v>
+        <v>0.748484672171413</v>
       </c>
       <c r="DT5">
-        <v>0.7484274387387374</v>
+        <v>0.7486138604353244</v>
       </c>
       <c r="DU5">
-        <v>0.7496279873898501</v>
+        <v>0.7498096222343608</v>
       </c>
       <c r="DV5">
-        <v>0.7523861252775366</v>
+        <v>0.752564742597402</v>
       </c>
       <c r="DW5">
-        <v>0.754300763299571</v>
+        <v>0.7544754049298172</v>
       </c>
       <c r="DX5">
-        <v>0.7544445889537142</v>
+        <v>0.7546132433582929</v>
       </c>
       <c r="DY5">
-        <v>0.7560404256887305</v>
+        <v>0.7562047422646555</v>
       </c>
       <c r="DZ5">
-        <v>0.7585574105862368</v>
+        <v>0.7587184357022644</v>
       </c>
       <c r="EA5">
-        <v>0.7626687930188181</v>
+        <v>0.7628283378143864</v>
       </c>
       <c r="EB5">
-        <v>0.7710168536788783</v>
+        <v>0.7711797307649308</v>
       </c>
       <c r="EC5">
-        <v>0.7710742707935402</v>
+        <v>0.7712310624990357</v>
       </c>
       <c r="ED5">
-        <v>0.7723137282430684</v>
+        <v>0.772465777294536</v>
       </c>
       <c r="EE5">
-        <v>0.7724403036379142</v>
+        <v>0.77258634586846</v>
       </c>
       <c r="EF5">
-        <v>0.7750667568309628</v>
+        <v>0.7752096319509927</v>
       </c>
       <c r="EG5">
-        <v>0.7787845596795709</v>
+        <v>0.7789255073964718</v>
       </c>
       <c r="EH5">
-        <v>0.7818308345555242</v>
+        <v>0.7819690920540204</v>
       </c>
       <c r="EI5">
-        <v>0.7819084829423623</v>
+        <v>0.7820406780418065</v>
       </c>
       <c r="EJ5">
-        <v>0.7819176068219907</v>
+        <v>0.7820436616826757</v>
       </c>
       <c r="EK5">
-        <v>0.7856777526688745</v>
+        <v>0.7858019282255229</v>
       </c>
       <c r="EL5">
-        <v>0.7885827932505789</v>
+        <v>0.7887041181551826</v>
       </c>
       <c r="EM5">
-        <v>0.7900710565899756</v>
+        <v>0.7901879214690362</v>
       </c>
       <c r="EN5">
-        <v>0.7984337022494419</v>
+        <v>0.7985539159866664</v>
       </c>
       <c r="EO5">
-        <v>0.7998304955925634</v>
+        <v>0.7999461453998457</v>
       </c>
       <c r="EP5">
-        <v>0.8016626493179566</v>
+        <v>0.8017742297384335</v>
       </c>
       <c r="EQ5">
-        <v>0.8016673910617635</v>
+        <v>0.8017742297384335</v>
       </c>
       <c r="ER5">
-        <v>0.8053582563114685</v>
+        <v>0.8054631369855219</v>
       </c>
       <c r="ES5">
-        <v>0.807025844043563</v>
+        <v>0.8071264683937679</v>
       </c>
       <c r="ET5">
-        <v>0.808257892793393</v>
+        <v>0.8083537660737339</v>
       </c>
       <c r="EU5">
-        <v>0.8151547632125469</v>
+        <v>0.8152523203187827</v>
       </c>
       <c r="EV5">
-        <v>0.8235201618719011</v>
+        <v>0.8236210709635426</v>
       </c>
       <c r="EW5">
-        <v>0.8241015102482282</v>
+        <v>0.8241969291136265</v>
       </c>
       <c r="EX5">
-        <v>0.8269612909317756</v>
+        <v>0.8270538077326146</v>
       </c>
       <c r="EY5">
-        <v>0.8335777773623469</v>
+        <v>0.8336716594897804</v>
       </c>
       <c r="EZ5">
-        <v>0.8546435265045327</v>
+        <v>0.8547551874495352</v>
       </c>
       <c r="FA5">
-        <v>0.8770271165930549</v>
+        <v>0.8771580533434595</v>
       </c>
       <c r="FB5">
-        <v>0.8774324303765502</v>
+        <v>0.8775576769360313</v>
       </c>
       <c r="FC5">
-        <v>0.8781836279459608</v>
+        <v>0.8783035772176381</v>
       </c>
       <c r="FD5">
-        <v>0.8786273938278903</v>
+        <v>0.8787416965879087</v>
       </c>
       <c r="FE5">
-        <v>0.8815911477072039</v>
+        <v>0.8817026665099426</v>
       </c>
       <c r="FF5">
-        <v>0.8822310308811474</v>
+        <v>0.8823371259496425</v>
       </c>
       <c r="FG5">
-        <v>0.8823743874953098</v>
+        <v>0.8824744948053361</v>
       </c>
       <c r="FH5">
-        <v>0.8835541626472684</v>
+        <v>0.8836494595077763</v>
       </c>
       <c r="FI5">
-        <v>0.8928123752702665</v>
+        <v>0.8929120382989952</v>
       </c>
       <c r="FJ5">
-        <v>0.8951021173770263</v>
+        <v>0.8951982308117529</v>
       </c>
       <c r="FK5">
-        <v>0.897175366092602</v>
+        <v>0.897267684009891</v>
       </c>
       <c r="FL5">
-        <v>0.9064364767154821</v>
+        <v>0.906533164092945</v>
       </c>
       <c r="FM5">
-        <v>0.9194733161846115</v>
+        <v>0.9195786620224955</v>
       </c>
       <c r="FN5">
-        <v>0.9304595867372417</v>
+        <v>0.9305712617129318</v>
       </c>
       <c r="FO5">
-        <v>0.9350520385502333</v>
+        <v>0.9351627796712662</v>
       </c>
       <c r="FP5">
-        <v>0.9353239371791614</v>
+        <v>0.9354288365577016</v>
       </c>
       <c r="FQ5">
-        <v>0.9432376568569084</v>
+        <v>0.9433453951407729</v>
       </c>
       <c r="FR5">
-        <v>0.9548177703853569</v>
+        <v>0.954932512376832</v>
       </c>
       <c r="FS5">
-        <v>0.9601602431678071</v>
+        <v>0.9602749032832107</v>
       </c>
       <c r="FT5">
-        <v>0.9609496254356629</v>
+        <v>0.9610590316387772</v>
       </c>
       <c r="FU5">
-        <v>0.9634934174320776</v>
+        <v>0.963599562626542</v>
       </c>
       <c r="FV5">
-        <v>0.966247920019912</v>
+        <v>0.9663510435602499</v>
       </c>
       <c r="FW5">
-        <v>0.9679163688519714</v>
+        <v>0.9680152370466185</v>
       </c>
       <c r="FX5">
-        <v>0.9712953017143785</v>
+        <v>0.9713918575700303</v>
       </c>
       <c r="FY5">
-        <v>0.9757394145334106</v>
+        <v>0.9758348680302547</v>
       </c>
       <c r="FZ5">
-        <v>0.9760253917017654</v>
+        <v>0.9761150194484884</v>
       </c>
       <c r="GA5">
-        <v>0.9767471758723738</v>
+        <v>0.9768314729194459</v>
       </c>
       <c r="GB5">
-        <v>0.9785285238998359</v>
+        <v>0.978608693847894</v>
       </c>
       <c r="GC5">
-        <v>0.9804908824199271</v>
+        <v>0.9805671308859736</v>
       </c>
       <c r="GD5">
-        <v>0.9816582804723897</v>
+        <v>0.9817297044292792</v>
       </c>
       <c r="GE5">
-        <v>0.9817848558672354</v>
+        <v>0.9818502730032032</v>
       </c>
       <c r="GF5">
-        <v>0.9821656986517272</v>
+        <v>0.9822253977991924</v>
       </c>
       <c r="GG5">
-        <v>0.9824153823815599</v>
+        <v>0.9824692145517469</v>
       </c>
       <c r="GH5">
-        <v>0.982422059495788</v>
+        <v>0.9824697486478376</v>
       </c>
       <c r="GI5">
-        <v>0.9831039661680202</v>
+        <v>0.9831462793219859</v>
       </c>
       <c r="GJ5">
-        <v>0.9899583958889023</v>
+        <v>0.9900023446586894</v>
       </c>
       <c r="GK5">
-        <v>0.9947321530945111</v>
+        <v>0.994775373961632</v>
       </c>
       <c r="GL5">
-        <v>0.9950709235607161</v>
+        <v>0.9951083786477183</v>
       </c>
       <c r="GM5">
-        <v>0.9960090916225132</v>
+        <v>0.9960414618089143</v>
       </c>
       <c r="GN5">
-        <v>0.9973590245675428</v>
+        <v>0.9973867775934159</v>
       </c>
       <c r="GO5">
-        <v>0.9975259913307437</v>
+        <v>0.9975477834178534</v>
       </c>
       <c r="GP5">
-        <v>0.9994653444517717</v>
+        <v>0.999483188924124</v>
       </c>
       <c r="GQ5">
-        <v>0.9995150542837475</v>
+        <v>0.9995268046205344</v>
       </c>
       <c r="GR5">
-        <v>0.9998878900485654</v>
+        <v>0.9998939133013582</v>
       </c>
       <c r="GS5">
         <v>1</v>
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>1.175058358773885E-06</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>4.312322288705135E-05</v>
+        <v>3.413021598663459E-05</v>
       </c>
       <c r="D6">
-        <v>0.0002057910571799621</v>
+        <v>0.0001891541059952883</v>
       </c>
       <c r="E6">
-        <v>0.0003486965621662207</v>
+        <v>0.0003243871814517459</v>
       </c>
       <c r="F6">
-        <v>0.0004149069598432744</v>
+        <v>0.0003828146019540417</v>
       </c>
       <c r="G6">
-        <v>0.0005152141303240663</v>
+        <v>0.0004753879420448749</v>
       </c>
       <c r="H6">
-        <v>0.0006723653648105232</v>
+        <v>0.0006248872806692209</v>
       </c>
       <c r="I6">
-        <v>0.000765756511533959</v>
+        <v>0.0007105346283076188</v>
       </c>
       <c r="J6">
-        <v>0.0007736235842579482</v>
+        <v>0.0007105346283076188</v>
       </c>
       <c r="K6">
-        <v>0.0007751952485028074</v>
+        <v>0.0007105346283076188</v>
       </c>
       <c r="L6">
-        <v>0.0007870778280859153</v>
+        <v>0.0007145559230825793</v>
       </c>
       <c r="M6">
-        <v>0.0007946153211214676</v>
+        <v>0.0007145559230825793</v>
       </c>
       <c r="N6">
-        <v>0.0008312638638356786</v>
+        <v>0.0007433788784274404</v>
       </c>
       <c r="O6">
-        <v>0.0008787357091701616</v>
+        <v>0.0007830407370046243</v>
       </c>
       <c r="P6">
-        <v>0.0008853704049373878</v>
+        <v>0.0007830407370046243</v>
       </c>
       <c r="Q6">
-        <v>0.000889542520291012</v>
+        <v>0.0007830407370046243</v>
       </c>
       <c r="R6">
-        <v>0.0009153928563840708</v>
+        <v>0.000801049921289432</v>
       </c>
       <c r="S6">
-        <v>0.0009481868472335162</v>
+        <v>0.0008260127688527817</v>
       </c>
       <c r="T6">
-        <v>0.0009822419000387181</v>
+        <v>0.0008522384960553654</v>
       </c>
       <c r="U6">
-        <v>0.0009914609807152729</v>
+        <v>0.0008535924527801588</v>
       </c>
       <c r="V6">
-        <v>0.001019963890715268</v>
+        <v>0.0008742580343683198</v>
       </c>
       <c r="W6">
-        <v>0.001073283255844595</v>
+        <v>0.0009197758413033267</v>
       </c>
       <c r="X6">
-        <v>0.0011147774183888</v>
+        <v>0.0009534514009114711</v>
       </c>
       <c r="Y6">
-        <v>0.001119833577611409</v>
+        <v>0.0009534514009114711</v>
       </c>
       <c r="Z6">
-        <v>0.001156776159315304</v>
+        <v>0.0009825688190711983</v>
       </c>
       <c r="AA6">
-        <v>0.001302915834188094</v>
+        <v>0.001121040726117872</v>
       </c>
       <c r="AB6">
-        <v>0.001328889548276824</v>
+        <v>0.001139173466234296</v>
       </c>
       <c r="AC6">
-        <v>0.001331023739201947</v>
+        <v>0.001139173466234296</v>
       </c>
       <c r="AD6">
-        <v>0.001331042992708271</v>
+        <v>0.001139173466234296</v>
       </c>
       <c r="AE6">
-        <v>0.001354593238882027</v>
+        <v>0.001154879245270666</v>
       </c>
       <c r="AF6">
-        <v>0.001364101556548434</v>
+        <v>0.001156522855888934</v>
       </c>
       <c r="AG6">
-        <v>0.001397020588393493</v>
+        <v>0.001181610924680875</v>
       </c>
       <c r="AH6">
-        <v>0.001428699972282044</v>
+        <v>0.001205457558698778</v>
       </c>
       <c r="AI6">
-        <v>0.001445821915681332</v>
+        <v>0.001214725769262284</v>
       </c>
       <c r="AJ6">
-        <v>0.001460435606168621</v>
+        <v>0.001221482111540371</v>
       </c>
       <c r="AK6">
-        <v>0.001572219668246754</v>
+        <v>0.00132554888591793</v>
       </c>
       <c r="AL6">
-        <v>0.001785621020759714</v>
+        <v>0.00153137942098818</v>
       </c>
       <c r="AM6">
-        <v>0.001932024515623248</v>
+        <v>0.001670115528293384</v>
       </c>
       <c r="AN6">
-        <v>0.001966206984423979</v>
+        <v>0.001696468855147779</v>
       </c>
       <c r="AO6">
-        <v>0.001984657511776655</v>
+        <v>0.001707067564673757</v>
       </c>
       <c r="AP6">
-        <v>0.002023223260423603</v>
+        <v>0.001737810489394919</v>
       </c>
       <c r="AQ6">
-        <v>0.002096516117852173</v>
+        <v>0.001803330578243171</v>
       </c>
       <c r="AR6">
-        <v>0.002155444358784716</v>
+        <v>0.001854465345565049</v>
       </c>
       <c r="AS6">
-        <v>0.002173173326162708</v>
+        <v>0.001864341455066217</v>
       </c>
       <c r="AT6">
-        <v>0.002176676604039798</v>
+        <v>0.001864341455066217</v>
       </c>
       <c r="AU6">
-        <v>0.002176677485557907</v>
+        <v>0.001864341455066217</v>
       </c>
       <c r="AV6">
-        <v>0.002186268191221423</v>
+        <v>0.00186606757243492</v>
       </c>
       <c r="AW6">
-        <v>0.002226062749825258</v>
+        <v>0.001898041078308704</v>
       </c>
       <c r="AX6">
-        <v>0.002280092375929666</v>
+        <v>0.001944270169982639</v>
       </c>
       <c r="AY6">
-        <v>0.002295466188390286</v>
+        <v>0.001951787729867103</v>
       </c>
       <c r="AZ6">
-        <v>0.002301139607991238</v>
+        <v>0.001951787729867103</v>
       </c>
       <c r="BA6">
-        <v>0.002344050792485729</v>
+        <v>0.001986882353908358</v>
       </c>
       <c r="BB6">
-        <v>0.002456887954526915</v>
+        <v>0.002092003746177881</v>
       </c>
       <c r="BC6">
-        <v>0.002495921708157442</v>
+        <v>0.002123215350460841</v>
       </c>
       <c r="BD6">
-        <v>0.002499162447743743</v>
+        <v>0.002123215350460841</v>
       </c>
       <c r="BE6">
-        <v>0.002532513973573628</v>
+        <v>0.002148736536630588</v>
       </c>
       <c r="BF6">
-        <v>0.002641775519740262</v>
+        <v>0.002250277159164667</v>
       </c>
       <c r="BG6">
-        <v>0.002677115423500385</v>
+        <v>0.002277789589294902</v>
       </c>
       <c r="BH6">
-        <v>0.00267731053995354</v>
+        <v>0.002277789589294902</v>
       </c>
       <c r="BI6">
-        <v>0.002677391987986682</v>
+        <v>0.002277789589294902</v>
       </c>
       <c r="BJ6">
-        <v>0.002680170549489198</v>
+        <v>0.002277789589294902</v>
       </c>
       <c r="BK6">
-        <v>0.002703369258675288</v>
+        <v>0.00229314332464132</v>
       </c>
       <c r="BL6">
-        <v>0.002704679353329324</v>
+        <v>0.00229314332464132</v>
       </c>
       <c r="BM6">
-        <v>0.00275230161465853</v>
+        <v>0.002332955816021503</v>
       </c>
       <c r="BN6">
-        <v>0.002888620849875863</v>
+        <v>0.002461593128318419</v>
       </c>
       <c r="BO6">
-        <v>0.002919621823788215</v>
+        <v>0.002484760374506024</v>
       </c>
       <c r="BP6">
-        <v>0.00295848919442458</v>
+        <v>0.002515805355971854</v>
       </c>
       <c r="BQ6">
-        <v>0.003193662886173673</v>
+        <v>0.0027434396127342</v>
       </c>
       <c r="BR6">
-        <v>0.003318085471808392</v>
+        <v>0.002860163127723695</v>
       </c>
       <c r="BS6">
-        <v>0.00331852247871306</v>
+        <v>0.002860163127723695</v>
       </c>
       <c r="BT6">
-        <v>0.003345733462758381</v>
+        <v>0.002879534921186611</v>
       </c>
       <c r="BU6">
-        <v>0.003560198315234029</v>
+        <v>0.003086430489138928</v>
       </c>
       <c r="BV6">
-        <v>0.003618940653173094</v>
+        <v>0.003137379085508408</v>
       </c>
       <c r="BW6">
-        <v>0.003623622514408834</v>
+        <v>0.003137379085508408</v>
       </c>
       <c r="BX6">
-        <v>0.003638152932899045</v>
+        <v>0.003144052035761901</v>
       </c>
       <c r="BY6">
-        <v>0.003638197651654476</v>
+        <v>0.003144052035761901</v>
       </c>
       <c r="BZ6">
-        <v>0.003639833772097074</v>
+        <v>0.003144052035761901</v>
       </c>
       <c r="CA6">
-        <v>0.003667821442115146</v>
+        <v>0.003164201634705815</v>
       </c>
       <c r="CB6">
-        <v>0.003698701078031755</v>
+        <v>0.00318724736800217</v>
       </c>
       <c r="CC6">
-        <v>0.003698751612369982</v>
+        <v>0.00318724736800217</v>
       </c>
       <c r="CD6">
-        <v>0.003700611941504713</v>
+        <v>0.00318724736800217</v>
       </c>
       <c r="CE6">
-        <v>0.003744641705959959</v>
+        <v>0.003223462184315378</v>
       </c>
       <c r="CF6">
-        <v>0.003819624913329225</v>
+        <v>0.003290675059559683</v>
       </c>
       <c r="CG6">
-        <v>0.003879505853228343</v>
+        <v>0.003342763899059945</v>
       </c>
       <c r="CH6">
-        <v>0.003890495206842789</v>
+        <v>0.003345890680378284</v>
       </c>
       <c r="CI6">
-        <v>0.003929984563457332</v>
+        <v>0.003377558544347345</v>
       </c>
       <c r="CJ6">
-        <v>0.004000218324993229</v>
+        <v>0.003440015127949335</v>
       </c>
       <c r="CK6">
-        <v>0.004064879872724623</v>
+        <v>0.003496891466007447</v>
       </c>
       <c r="CL6">
-        <v>0.004196736838098512</v>
+        <v>0.003621060076584889</v>
       </c>
       <c r="CM6">
-        <v>0.006257034665814377</v>
+        <v>0.005676449186996842</v>
       </c>
       <c r="CN6">
-        <v>0.1146097708643331</v>
+        <v>0.1141774856426935</v>
       </c>
       <c r="CO6">
-        <v>0.1342195421763377</v>
+        <v>0.133807643892254</v>
       </c>
       <c r="CP6">
-        <v>0.2924513166248846</v>
+        <v>0.2922596137997031</v>
       </c>
       <c r="CQ6">
-        <v>0.2944743796539068</v>
+        <v>0.294277714441514</v>
       </c>
       <c r="CR6">
-        <v>0.2999095474632177</v>
+        <v>0.2997128380410703</v>
       </c>
       <c r="CS6">
-        <v>0.3023511561775555</v>
+        <v>0.3021500876562219</v>
       </c>
       <c r="CT6">
-        <v>0.3027273251643579</v>
+        <v>0.3025189204374007</v>
       </c>
       <c r="CU6">
-        <v>0.3323796981240248</v>
+        <v>0.3322061556512418</v>
       </c>
       <c r="CV6">
-        <v>0.3595564111705485</v>
+        <v>0.3594141625577786</v>
       </c>
       <c r="CW6">
-        <v>0.366079111641704</v>
+        <v>0.3659383863790774</v>
       </c>
       <c r="CX6">
-        <v>0.4510898536591605</v>
+        <v>0.4510637837110834</v>
       </c>
       <c r="CY6">
-        <v>0.4659274941385921</v>
+        <v>0.4659149326211688</v>
       </c>
       <c r="CZ6">
-        <v>0.4800561086428994</v>
+        <v>0.480056033572401</v>
       </c>
       <c r="DA6">
-        <v>0.4925499212045625</v>
+        <v>0.4925599761920215</v>
       </c>
       <c r="DB6">
-        <v>0.4960854240805219</v>
+        <v>0.4960926966981016</v>
       </c>
       <c r="DC6">
-        <v>0.5785148011885438</v>
+        <v>0.578633008364271</v>
       </c>
       <c r="DD6">
-        <v>0.6010828233967602</v>
+        <v>0.6012256815065515</v>
       </c>
       <c r="DE6">
-        <v>0.6556872414810018</v>
+        <v>0.6559009275006937</v>
       </c>
       <c r="DF6">
-        <v>0.662898834227988</v>
+        <v>0.6631150365610173</v>
       </c>
       <c r="DG6">
-        <v>0.7178998422983154</v>
+        <v>0.718187444182521</v>
       </c>
       <c r="DH6">
-        <v>0.7230718571168588</v>
+        <v>0.7233590354849314</v>
       </c>
       <c r="DI6">
-        <v>0.7450937863442346</v>
+        <v>0.7454048285128098</v>
       </c>
       <c r="DJ6">
-        <v>0.745313644336521</v>
+        <v>0.7456171249941965</v>
       </c>
       <c r="DK6">
-        <v>0.7622579837420406</v>
+        <v>0.7625780094074488</v>
       </c>
       <c r="DL6">
-        <v>0.7846479439565042</v>
+        <v>0.7849923638990037</v>
       </c>
       <c r="DM6">
-        <v>0.7868674215786353</v>
+        <v>0.7872071622441696</v>
       </c>
       <c r="DN6">
-        <v>0.8022051955405201</v>
+        <v>0.8025591655246579</v>
       </c>
       <c r="DO6">
-        <v>0.8024687174112746</v>
+        <v>0.8028151888212385</v>
       </c>
       <c r="DP6">
-        <v>0.8026154436661268</v>
+        <v>0.8029542481537557</v>
       </c>
       <c r="DQ6">
-        <v>0.8058768935517011</v>
+        <v>0.80621252065191</v>
       </c>
       <c r="DR6">
-        <v>0.8091800000358139</v>
+        <v>0.809512509792053</v>
       </c>
       <c r="DS6">
-        <v>0.809264279428857</v>
+        <v>0.8095890322524104</v>
       </c>
       <c r="DT6">
-        <v>0.8093415890461447</v>
+        <v>0.8096585748908396</v>
       </c>
       <c r="DU6">
-        <v>0.8102812806131763</v>
+        <v>0.8105917425086784</v>
       </c>
       <c r="DV6">
-        <v>0.8119378225550576</v>
+        <v>0.8122427937631161</v>
       </c>
       <c r="DW6">
-        <v>0.812784114725366</v>
+        <v>0.8130824273591728</v>
       </c>
       <c r="DX6">
-        <v>0.8128020483847369</v>
+        <v>0.813092508455708</v>
       </c>
       <c r="DY6">
-        <v>0.8141821644363165</v>
+        <v>0.8144667353820263</v>
       </c>
       <c r="DZ6">
-        <v>0.8144370627873736</v>
+        <v>0.814714122729045</v>
       </c>
       <c r="EA6">
-        <v>0.8253428334047521</v>
+        <v>0.8256277344148587</v>
       </c>
       <c r="EB6">
-        <v>0.8285243599931305</v>
+        <v>0.8288059684150879</v>
       </c>
       <c r="EC6">
-        <v>0.8287708544644824</v>
+        <v>0.829044939769124</v>
       </c>
       <c r="ED6">
-        <v>0.8287837694710293</v>
+        <v>0.8290499949789938</v>
       </c>
       <c r="EE6">
-        <v>0.8309883139936843</v>
+        <v>0.8312498387002469</v>
       </c>
       <c r="EF6">
-        <v>0.8337423198970619</v>
+        <v>0.8339999357909657</v>
       </c>
       <c r="EG6">
-        <v>0.837800056754699</v>
+        <v>0.8380556430221359</v>
       </c>
       <c r="EH6">
-        <v>0.8385319744690202</v>
+        <v>0.8387807373038826</v>
       </c>
       <c r="EI6">
-        <v>0.8385876193790679</v>
+        <v>0.8388285840077557</v>
       </c>
       <c r="EJ6">
-        <v>0.8386123725531994</v>
+        <v>0.8388454944486395</v>
       </c>
       <c r="EK6">
-        <v>0.8434366009839447</v>
+        <v>0.8436687980670483</v>
       </c>
       <c r="EL6">
-        <v>0.8437498373229551</v>
+        <v>0.8439746074898767</v>
       </c>
       <c r="EM6">
-        <v>0.8510088470682777</v>
+        <v>0.851236201894976</v>
       </c>
       <c r="EN6">
-        <v>0.8569036248614635</v>
+        <v>0.8571315979561466</v>
       </c>
       <c r="EO6">
-        <v>0.8569117662066779</v>
+        <v>0.8571318726239708</v>
       </c>
       <c r="EP6">
-        <v>0.8572730430440028</v>
+        <v>0.8574857917902604</v>
       </c>
       <c r="EQ6">
-        <v>0.8588038266902963</v>
+        <v>0.8590109034822225</v>
       </c>
       <c r="ER6">
-        <v>0.8645048334902804</v>
+        <v>0.8647122492504068</v>
       </c>
       <c r="ES6">
-        <v>0.867017734002117</v>
+        <v>0.8672208934224195</v>
       </c>
       <c r="ET6">
-        <v>0.8688090989392682</v>
+        <v>0.8690069620047922</v>
       </c>
       <c r="EU6">
-        <v>0.8754006867080069</v>
+        <v>0.8756001724172117</v>
       </c>
       <c r="EV6">
-        <v>0.8809147595145495</v>
+        <v>0.8811143147469602</v>
       </c>
       <c r="EW6">
-        <v>0.8810030915864504</v>
+        <v>0.8811948957276707</v>
       </c>
       <c r="EX6">
-        <v>0.8840253464804166</v>
+        <v>0.8842136284606853</v>
       </c>
       <c r="EY6">
-        <v>0.8956408850728934</v>
+        <v>0.8958380311748384</v>
       </c>
       <c r="EZ6">
-        <v>0.9121962684920591</v>
+        <v>0.9124093989640405</v>
       </c>
       <c r="FA6">
-        <v>0.9217070321583806</v>
+        <v>0.9219259929481958</v>
       </c>
       <c r="FB6">
-        <v>0.9217665385762929</v>
+        <v>0.9219777067258765</v>
       </c>
       <c r="FC6">
-        <v>0.9217674424019111</v>
+        <v>0.9219777067258765</v>
       </c>
       <c r="FD6">
-        <v>0.9252168642808906</v>
+        <v>0.9254242221585939</v>
       </c>
       <c r="FE6">
-        <v>0.9273626305056079</v>
+        <v>0.9275652028593938</v>
       </c>
       <c r="FF6">
-        <v>0.9277406821823442</v>
+        <v>0.9279359210441991</v>
       </c>
       <c r="FG6">
-        <v>0.9286275689512283</v>
+        <v>0.9288162077515245</v>
       </c>
       <c r="FH6">
-        <v>0.9308185925743577</v>
+        <v>0.9310025110843478</v>
       </c>
       <c r="FI6">
-        <v>0.9360695170901326</v>
+        <v>0.936253125823725</v>
       </c>
       <c r="FJ6">
-        <v>0.9363409666806091</v>
+        <v>0.9365170882669721</v>
       </c>
       <c r="FK6">
-        <v>0.9375620738377674</v>
+        <v>0.9377320771048642</v>
       </c>
       <c r="FL6">
-        <v>0.9464136265272167</v>
+        <v>0.9465885099313135</v>
       </c>
       <c r="FM6">
-        <v>0.953426952281159</v>
+        <v>0.9536040662183143</v>
       </c>
       <c r="FN6">
-        <v>0.9580366261194317</v>
+        <v>0.9582125059871709</v>
       </c>
       <c r="FO6">
-        <v>0.9599691532516303</v>
+        <v>0.9601399402345224</v>
       </c>
       <c r="FP6">
-        <v>0.9625442771612839</v>
+        <v>0.9627108974926037</v>
       </c>
       <c r="FQ6">
-        <v>0.9693478984225835</v>
+        <v>0.9695164470207729</v>
       </c>
       <c r="FR6">
-        <v>0.9738169792657889</v>
+        <v>0.9739840911450706</v>
       </c>
       <c r="FS6">
-        <v>0.9742007071123261</v>
+        <v>0.9743604936812573</v>
       </c>
       <c r="FT6">
-        <v>0.9746173989777067</v>
+        <v>0.9747699077503309</v>
       </c>
       <c r="FU6">
-        <v>0.9756235323424072</v>
+        <v>0.9757696129344544</v>
       </c>
       <c r="FV6">
-        <v>0.975876499593532</v>
+        <v>0.9760150663980706</v>
       </c>
       <c r="FW6">
-        <v>0.9762611776000358</v>
+        <v>0.9763924204637761</v>
       </c>
       <c r="FX6">
-        <v>0.9786860485149609</v>
+        <v>0.9788129081537998</v>
       </c>
       <c r="FY6">
-        <v>0.9809065538370559</v>
+        <v>0.9810287356802473</v>
       </c>
       <c r="FZ6">
-        <v>0.9809147020997701</v>
+        <v>0.9810290172755421</v>
       </c>
       <c r="GA6">
-        <v>0.9825368977428565</v>
+        <v>0.9826456727247356</v>
       </c>
       <c r="GB6">
-        <v>0.9839116167946254</v>
+        <v>0.9840144948720557</v>
       </c>
       <c r="GC6">
-        <v>0.9854357697411515</v>
+        <v>0.9855329663068189</v>
       </c>
       <c r="GD6">
-        <v>0.9854952761590638</v>
+        <v>0.9855846800844996</v>
       </c>
       <c r="GE6">
-        <v>0.9858919300951475</v>
+        <v>0.9859740273417833</v>
       </c>
       <c r="GF6">
-        <v>0.9859353029466258</v>
+        <v>0.986009584298251</v>
       </c>
       <c r="GG6">
-        <v>0.9859353160614504</v>
+        <v>0.986009584298251</v>
       </c>
       <c r="GH6">
-        <v>0.9860197958344864</v>
+        <v>0.9860863074274274</v>
       </c>
       <c r="GI6">
-        <v>0.9880113683646135</v>
+        <v>0.9880728721802183</v>
       </c>
       <c r="GJ6">
-        <v>0.993900564557995</v>
+        <v>0.9939626785963165</v>
       </c>
       <c r="GK6">
-        <v>0.9952933152091313</v>
+        <v>0.9953495583335908</v>
       </c>
       <c r="GL6">
-        <v>0.9953127252764503</v>
+        <v>0.9953611179661556</v>
       </c>
       <c r="GM6">
-        <v>0.9958404036579371</v>
+        <v>0.9958816785263116</v>
       </c>
       <c r="GN6">
-        <v>0.9961227419980315</v>
+        <v>0.9961565454141235</v>
       </c>
       <c r="GO6">
-        <v>0.9974457455516148</v>
+        <v>0.9974735775209993</v>
       </c>
       <c r="GP6">
-        <v>0.9995579624775092</v>
+        <v>0.9995809605653156</v>
       </c>
       <c r="GQ6">
-        <v>0.9995751949149045</v>
+        <v>0.9995903394291403</v>
       </c>
       <c r="GR6">
-        <v>0.9998871885739584</v>
+        <v>0.9998949043808245</v>
       </c>
       <c r="GS6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GT6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GU6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GV6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GW6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GX6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GY6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GZ6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HA6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HB6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HC6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HD6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HE6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HF6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HG6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HH6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HI6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HJ6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HK6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HL6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HM6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HN6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HO6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HP6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HQ6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HR6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HS6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HT6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HU6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HV6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HW6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HX6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HY6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HZ6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IA6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IB6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IC6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="ID6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IE6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IF6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IG6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IH6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="II6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IJ6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IK6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IL6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IM6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IN6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IO6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IP6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IQ6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IR6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IS6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IT6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IU6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IV6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IW6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>106</v>
       </c>
       <c r="E2">
-        <v>0.002304090588778202</v>
+        <v>0.04481647412104392</v>
       </c>
       <c r="F2">
-        <v>0.5470048539676504</v>
+        <v>0.5483774007325271</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>34</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>106</v>
       </c>
       <c r="E3">
-        <v>0.00477131187798357</v>
+        <v>0.0445875186562882</v>
       </c>
       <c r="F3">
-        <v>0.5029013543361214</v>
+        <v>0.5031260037149837</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>34</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>106</v>
       </c>
       <c r="E4">
-        <v>0.007013136003042588</v>
+        <v>0.04611963584523399</v>
       </c>
       <c r="F4">
-        <v>0.578527826526093</v>
+        <v>0.5793332860327445</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>34</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>107</v>
       </c>
       <c r="E5">
-        <v>0.003131802797776167</v>
+        <v>0.07577182284218636</v>
       </c>
       <c r="F5">
-        <v>0.5588541726483134</v>
+        <v>0.5589236601951707</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>34</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>106</v>
       </c>
       <c r="E6">
-        <v>0.004000218324993229</v>
+        <v>0.003621060076584889</v>
       </c>
       <c r="F6">
-        <v>0.5785148011885438</v>
+        <v>0.578633008364271</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>34</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>117</v>
       </c>
       <c r="E2">
-        <v>0.002304090588778202</v>
+        <v>0.04481647412104392</v>
       </c>
       <c r="F2">
-        <v>0.7020806170895488</v>
+        <v>0.7041328497567655</v>
       </c>
       <c r="G2">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H2">
         <v>34</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>115</v>
       </c>
       <c r="E3">
-        <v>0.00477131187798357</v>
+        <v>0.0445875186562882</v>
       </c>
       <c r="F3">
-        <v>0.7097997802582924</v>
+        <v>0.7110615269757319</v>
       </c>
       <c r="G3">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H3">
         <v>34</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>112</v>
       </c>
       <c r="E4">
-        <v>0.007013136003042588</v>
+        <v>0.04611963584523399</v>
       </c>
       <c r="F4">
-        <v>0.7045070538158008</v>
+        <v>0.7060272864574766</v>
       </c>
       <c r="G4">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H4">
         <v>34</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>115</v>
       </c>
       <c r="E5">
-        <v>0.003131802797776167</v>
+        <v>0.07577182284218636</v>
       </c>
       <c r="F5">
-        <v>0.7255388753607781</v>
+        <v>0.7257485018533164</v>
       </c>
       <c r="G5">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H5">
         <v>34</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>110</v>
       </c>
       <c r="E6">
-        <v>0.004000218324993229</v>
+        <v>0.003621060076584889</v>
       </c>
       <c r="F6">
-        <v>0.7178998422983154</v>
+        <v>0.718187444182521</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>34</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>154</v>
       </c>
       <c r="E2">
-        <v>0.002304090588778202</v>
+        <v>0.04481647412104392</v>
       </c>
       <c r="F2">
-        <v>0.8011567770329838</v>
+        <v>0.802044644804553</v>
       </c>
       <c r="G2">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H2">
         <v>34</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E3">
-        <v>0.00477131187798357</v>
+        <v>0.0445875186562882</v>
       </c>
       <c r="F3">
-        <v>0.8116631978113081</v>
+        <v>0.8004813615078031</v>
       </c>
       <c r="G3">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H3">
         <v>34</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>135</v>
       </c>
       <c r="E4">
-        <v>0.007013136003042588</v>
+        <v>0.04611963584523399</v>
       </c>
       <c r="F4">
-        <v>0.8009109087180396</v>
+        <v>0.8021737479844674</v>
       </c>
       <c r="G4">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H4">
         <v>34</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>145</v>
       </c>
       <c r="E5">
-        <v>0.003131802797776167</v>
+        <v>0.07577182284218636</v>
       </c>
       <c r="F5">
-        <v>0.8016626493179566</v>
+        <v>0.8017742297384335</v>
       </c>
       <c r="G5">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H5">
         <v>34</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>117</v>
       </c>
       <c r="E6">
-        <v>0.004000218324993229</v>
+        <v>0.003621060076584889</v>
       </c>
       <c r="F6">
-        <v>0.8022051955405201</v>
+        <v>0.8025591655246579</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6">
         <v>34</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>168</v>
       </c>
       <c r="E2">
-        <v>0.002304090588778202</v>
+        <v>0.04481647412104392</v>
       </c>
       <c r="F2">
-        <v>0.9084691230932962</v>
+        <v>0.9095076509390378</v>
       </c>
       <c r="G2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H2">
         <v>34</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>167</v>
       </c>
       <c r="E3">
-        <v>0.00477131187798357</v>
+        <v>0.0445875186562882</v>
       </c>
       <c r="F3">
-        <v>0.9073152185163019</v>
+        <v>0.9079310935028495</v>
       </c>
       <c r="G3">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H3">
         <v>34</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>156</v>
       </c>
       <c r="E4">
-        <v>0.007013136003042588</v>
+        <v>0.04611963584523399</v>
       </c>
       <c r="F4">
-        <v>0.9025922877798719</v>
+        <v>0.90372630347794</v>
       </c>
       <c r="G4">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H4">
         <v>34</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>167</v>
       </c>
       <c r="E5">
-        <v>0.003131802797776167</v>
+        <v>0.07577182284218636</v>
       </c>
       <c r="F5">
-        <v>0.9064364767154821</v>
+        <v>0.906533164092945</v>
       </c>
       <c r="G5">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H5">
         <v>34</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>155</v>
       </c>
       <c r="E6">
-        <v>0.004000218324993229</v>
+        <v>0.003621060076584889</v>
       </c>
       <c r="F6">
-        <v>0.9121962684920591</v>
+        <v>0.9124093989640405</v>
       </c>
       <c r="G6">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H6">
         <v>34</v>

--- a/on_trucks/Processed_Stand_Alone/34_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/34_11R22.xlsx
@@ -2003,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.70633428895211E-06</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.691397058574865E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.382736812462496E-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -2024,16 +2024,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.195237900526102E-06</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>6.977803189601691E-06</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2.569030182395271E-06</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>2.04202315554866E-06</v>
+        <v>0</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>4.606696099541183E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="CD2">
-        <v>1.061916779303601E-05</v>
+        <v>0</v>
       </c>
       <c r="CE2">
         <v>0</v>
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="CG2">
-        <v>9.394089023508255E-06</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>1.061916779303601E-05</v>
+        <v>0</v>
       </c>
       <c r="CI2">
         <v>0</v>
@@ -2261,337 +2261,337 @@
         <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.02934911858397333</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.01537288464893408</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.03862239987029901</v>
+        <v>0.02487106461997264</v>
       </c>
       <c r="CP2">
-        <v>0.08049608914566379</v>
+        <v>0.1484515678583531</v>
       </c>
       <c r="CQ2">
-        <v>1.563242216786296E-05</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.0001039188653387459</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.001339612738861645</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.01745986772844143</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.006888519341182811</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.03577292427158647</v>
+        <v>0.01646149683293857</v>
       </c>
       <c r="CW2">
-        <v>0.008200848053485857</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.09678416930835822</v>
+        <v>0.1965220669743</v>
       </c>
       <c r="CY2">
-        <v>0.0006255080529477794</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.0001033626493862861</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.06218387964724412</v>
+        <v>0.09440731944404522</v>
       </c>
       <c r="DB2">
-        <v>8.226109135562959E-05</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.1548819334251635</v>
+        <v>0.3679841724354379</v>
       </c>
       <c r="DD2">
-        <v>0.003109034313927281</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.05847277200292802</v>
+        <v>0.08345484407841744</v>
       </c>
       <c r="DF2">
-        <v>0.0009359701125270089</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.04450552178391056</v>
+        <v>0.04223373744098419</v>
       </c>
       <c r="DH2">
-        <v>0.0002186685588132122</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.008770261769476113</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.003772641621829022</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.01698491260835531</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.01379075434315863</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.0009229930848183853</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.004271918824494847</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.002258382085576308</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.0009444748449243432</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.003438878571918789</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.0002937146845400027</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.0006060258931740413</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.001786343421150557</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.001380862909439187</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.002770188390632889</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.0001539355958885525</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>1.723611984576481E-05</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.0007440718980657895</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.002397488913147923</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.005703452947708308</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.0009229930848183853</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.0004663290888673413</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.0004392007672802225</v>
+        <v>0</v>
       </c>
       <c r="EE2">
         <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.0003581874736437191</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.01042568867043356</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.0006312402667848604</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.003050477809546561</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.001947795086900086</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.001230912295964326</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.000379101381016109</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.002172426306135009</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.002395944266588017</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.0001033626493862861</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.0007685251011522069</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>2.187686613487924E-05</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.001079499521951627</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.0005291010827495775</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.004617189380353845</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.01203806502741742</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.005911083172595815</v>
+        <v>0</v>
       </c>
       <c r="EW2">
         <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.002966921284289869</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.02296081818776523</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.03887404274079399</v>
+        <v>0.02561373031555098</v>
       </c>
       <c r="FA2">
-        <v>0.01627634255301246</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>3.676547816166427E-05</v>
+        <v>0</v>
       </c>
       <c r="FC2">
         <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.0005981488108343398</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.0004618973004448828</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.0004249426852631363</v>
+        <v>0</v>
       </c>
       <c r="FG2">
         <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.008549277884493167</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.01058853301888572</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.003985150824334654</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.002420191930238278</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.008802060231821091</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.0164456526762016</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.01583364067761792</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.00615737735900473</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.00402545099391723</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.01145775418187396</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.008822688796043554</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.002288905846448262</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.001722123414394169</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.001492384717142588</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.0008753763647431193</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.001029201098611306</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.004652780787972634</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.003788933720412229</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.0004175521393633671</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.0001150487103463873</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.001231141300556149</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.001432599493716794</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>6.595587366304514E-05</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.001553602857895464</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.0008034194111297488</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.0004516832317917544</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>3.682716520217583E-05</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.0067390384341759</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.009362306705432383</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.001830148439961663</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.0003958592432757454</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.00150894524823281</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.0002125767543224806</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.0006500880303947603</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.0001367694479874227</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.0005065924120043651</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.0007959108638326432</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>9.966533949551432E-05</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,10 +2767,10 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>9.785416693213069E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>9.120867630297976E-06</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -2782,16 +2782,16 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.727505519041904E-06</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.495239720619594E-05</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1.600502641907165E-05</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -2800,22 +2800,22 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.12454346731999E-05</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0001000549002730942</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>3.965316844126186E-05</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.558277991318857E-05</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>3.035850412820184E-05</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -2824,10 +2824,10 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0001430348712648206</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>2.727505519041904E-06</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -2839,31 +2839,31 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>4.285790154965469E-07</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>1.419860103482061E-05</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0001011903222670641</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0001103969858384209</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>1.672437937599609E-05</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.306524508323234E-05</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0001066110511720227</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>8.725409955623932E-06</v>
+        <v>0</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>6.001827773619188E-06</v>
+        <v>0</v>
       </c>
       <c r="AN3">
         <v>0</v>
@@ -2890,19 +2890,19 @@
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.792486211738432E-05</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>4.451628413483529E-05</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.0001554653359464902</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.0001695284001336586</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>4.373885531947481E-05</v>
+        <v>0</v>
       </c>
       <c r="AV3">
         <v>0</v>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="BB3">
-        <v>2.031515092854697E-05</v>
+        <v>0</v>
       </c>
       <c r="BC3">
         <v>0</v>
@@ -2941,25 +2941,25 @@
         <v>0</v>
       </c>
       <c r="BH3">
-        <v>1.295723081919839E-05</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>5.313826276451978E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>7.743733039651071E-06</v>
+        <v>0</v>
       </c>
       <c r="BK3">
         <v>0</v>
       </c>
       <c r="BL3">
-        <v>7.959901561062712E-05</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>8.052754474996966E-05</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>2.150400460498366E-05</v>
+        <v>0</v>
       </c>
       <c r="BO3">
         <v>0</v>
@@ -2986,10 +2986,10 @@
         <v>0</v>
       </c>
       <c r="BW3">
-        <v>6.42503774718113E-05</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>2.433055399735839E-05</v>
+        <v>0</v>
       </c>
       <c r="BY3">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="CA3">
-        <v>6.980247826539649E-05</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.0001262449217217139</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.0001468755534467642</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.0001695284001336586</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>7.886185813343012E-05</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>3.616187769513958E-05</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>2.433055399735839E-05</v>
+        <v>0</v>
       </c>
       <c r="CH3">
         <v>0</v>
@@ -3034,337 +3034,337 @@
         <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.04226951387182039</v>
+        <v>0.03810198227489067</v>
       </c>
       <c r="CN3">
-        <v>0.01796527150224388</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.08055178358325346</v>
+        <v>0.1585812834235085</v>
       </c>
       <c r="CP3">
-        <v>0.06579720733277762</v>
+        <v>0.112146705515751</v>
       </c>
       <c r="CQ3">
-        <v>0.002268836632730375</v>
+        <v>0</v>
       </c>
       <c r="CR3">
-        <v>0.003943108179194692</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.002325627263539604</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.01091247063312803</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.00565680377604974</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.02060740593222329</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.005029459968940777</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.08772019453328396</v>
+        <v>0.1811412086347309</v>
       </c>
       <c r="CY3">
-        <v>0.0008030856676888753</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.001842397280617218</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.02900716884618069</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.001822849961077299</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.122284813965766</v>
+        <v>0.2899205789563838</v>
       </c>
       <c r="DD3">
-        <v>0.005806095962151715</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.0593800021650548</v>
+        <v>0.09195092298346183</v>
       </c>
       <c r="DF3">
-        <v>6.627915146388307E-05</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.0639915863483964</v>
+        <v>0.1064641805250094</v>
       </c>
       <c r="DH3">
-        <v>0.001593957827106527</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.0192017941767232</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.0002043876574458669</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.03705560734840931</v>
+        <v>0.02169313768626422</v>
       </c>
       <c r="DL3">
-        <v>0.02063581262399653</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.006399781322893059</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.01193694232690606</v>
+        <v>0</v>
       </c>
       <c r="DO3">
         <v>0</v>
       </c>
       <c r="DP3">
-        <v>1.909008012956101E-05</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.006148543786080505</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.003914650847479713</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.0001191806800514459</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.0012556614716423</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.002428876668256914</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.004270276130602574</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>3.045098494427392E-05</v>
+        <v>0</v>
       </c>
       <c r="DX3">
         <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.001872390925475306</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.001522852905647657</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.00732722145179858</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.0007416256919532111</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.0003911174188958506</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>7.622511892110073E-05</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.001224961988550507</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.003243840855465219</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.008294821571401264</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.0003079829037692846</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.001171703871212142</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
         <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.005233710586448872</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.0007551019570063084</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.004895679411116949</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.003835163455187191</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.0005409869204688496</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.001021043097897362</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.0009678275664344587</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.00269078040639711</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.001226358261616154</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.005554983867421487</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.01179831523469762</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.005928449712763486</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>1.349546192007818E-05</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.005280969531841974</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.01747845756050226</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.02683887225040585</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.005068954593087298</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.0003777388496667423</v>
+        <v>0</v>
       </c>
       <c r="FC3">
         <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.001895435622621939</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.001056277221657039</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.000310621496423617</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>6.386129559735701E-06</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.009504330907573967</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.007979277349126009</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.00145812297900189</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.001703451247384043</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.01075057584681279</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.01307178191120808</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.008344870546029946</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.0002107813477603239</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.008338695090708956</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.01393111051306391</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.007662932754014078</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.001489549240899718</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.001950470466981901</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.002105793839942605</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.000776742125669356</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.0008027658507844379</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.004010401614461886</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.00239199639402522</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>6.085753157784226E-07</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.001605836668788608</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.001619609424156676</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.00203625664248534</v>
+        <v>0</v>
       </c>
       <c r="GD3">
         <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.0007678906766237418</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.0001407495903630719</v>
+        <v>0</v>
       </c>
       <c r="GG3">
         <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.0005891693652369012</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.007835821844182078</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.005937176897633967</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.001321516349995872</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.00034438394092209</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.001262784789888739</v>
+        <v>0</v>
       </c>
       <c r="GN3">
         <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.001779241823253566</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.0007929591894778921</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.0005542575752773748</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.0003846927002910459</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>8.058747707068347E-06</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3543,22 +3543,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.988700496689222E-07</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2.056350097407112E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.842616744052056E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>8.01568010647882E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>4.743551848376903E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3570,10 +3570,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.100085450962325E-06</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>4.266107609979043E-06</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -3582,25 +3582,25 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>2.84615386674961E-05</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0002110421430417402</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0001818989531077416</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0001582538195264644</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.000104622250797872</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>7.339339311409055E-05</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>4.550474637122695E-05</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -3627,40 +3627,40 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>3.1745499329208E-05</v>
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>3.54379802767154E-05</v>
+        <v>0</v>
       </c>
       <c r="AH4">
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0002026040065170608</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>1.518275473938889E-05</v>
+        <v>0</v>
       </c>
       <c r="AK4">
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>8.313234821145101E-05</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>4.296351999588025E-05</v>
+        <v>0</v>
       </c>
       <c r="AN4">
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>4.268765063011282E-05</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>5.909459854616422E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -3675,46 +3675,46 @@
         <v>0</v>
       </c>
       <c r="AU4">
-        <v>2.011996120822172E-05</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>5.853728124955432E-05</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.0001398702151702092</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.0001343275302968871</v>
+        <v>0</v>
       </c>
       <c r="AY4">
         <v>0</v>
       </c>
       <c r="AZ4">
-        <v>2.97299451219749E-05</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.0001483414400944216</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.0003291034977657974</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.0001185776536933996</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>7.148248008849324E-05</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.0001574183752334153</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.0001219733519553008</v>
+        <v>0</v>
       </c>
       <c r="BG4">
         <v>0</v>
       </c>
       <c r="BH4">
-        <v>2.008663091968829E-05</v>
+        <v>0</v>
       </c>
       <c r="BI4">
         <v>0</v>
@@ -3726,34 +3726,34 @@
         <v>0</v>
       </c>
       <c r="BL4">
-        <v>6.891462677354069E-05</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>4.022412202535368E-05</v>
+        <v>0</v>
       </c>
       <c r="BN4">
         <v>0</v>
       </c>
       <c r="BO4">
-        <v>6.211630617709774E-05</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>9.468594451219184E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.0001478767209308328</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>2.943980329730449E-05</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>2.823113737873528E-06</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>6.211630617709774E-05</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>7.430966864815511E-05</v>
+        <v>0</v>
       </c>
       <c r="BV4">
         <v>0</v>
@@ -3762,10 +3762,10 @@
         <v>0</v>
       </c>
       <c r="BX4">
-        <v>4.49065488256541E-05</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>3.233259719326838E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
         <v>0</v>
@@ -3774,328 +3774,328 @@
         <v>0</v>
       </c>
       <c r="CB4">
-        <v>3.623238910869286E-05</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>7.339339311409055E-05</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.0001010524327704118</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.0001170795746407741</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>8.618964376158971E-05</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>1.071864586440121E-05</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>3.491051611425609E-05</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.0001212157556055937</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>5.11900489992704E-05</v>
+        <v>0</v>
       </c>
       <c r="CK4">
         <v>0</v>
       </c>
       <c r="CL4">
-        <v>1.613459198801691E-05</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.04198913181569872</v>
+        <v>0.03446438426650627</v>
       </c>
       <c r="CN4">
-        <v>0.02146709363993355</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.1082992278467084</v>
+        <v>0.2281511233619434</v>
       </c>
       <c r="CP4">
-        <v>0.06573357292614963</v>
+        <v>0.1038200879315436</v>
       </c>
       <c r="CQ4">
-        <v>0.006981850627238785</v>
+        <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.0002276532049594182</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.005517911586576076</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.02339163307922825</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.006131442375106398</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.03458281918490251</v>
+        <v>0.01283110927457404</v>
       </c>
       <c r="CW4">
-        <v>0.00687437621989704</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.1138845960499183</v>
+        <v>0.2444655583979169</v>
       </c>
       <c r="CY4">
         <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.0006137777944910995</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.0292078813098459</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.006251886467509031</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.1040479278750461</v>
+        <v>0.2157334000028528</v>
       </c>
       <c r="DD4">
-        <v>2.321689631832473E-05</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.05849440055537584</v>
+        <v>0.08267501690662368</v>
       </c>
       <c r="DF4">
-        <v>0.00266830656851119</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.05136681863564933</v>
+        <v>0.0618558930884071</v>
       </c>
       <c r="DH4">
-        <v>4.268765063011282E-05</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.01409857011824749</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.00213102544175184</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.03566888567928714</v>
+        <v>0.0160034267696324</v>
       </c>
       <c r="DL4">
-        <v>0.0122991931186723</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.004251014922609008</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.007157020997356812</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.0001362974440812008</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.0002242759507338086</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.004435092048875437</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.002608990043862121</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>1.116056799755945E-05</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.0007125374450786243</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.002181620255337923</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.003060780845094261</v>
+        <v>0</v>
       </c>
       <c r="DW4">
         <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.0003228184555498025</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.002706322045411013</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.002181813766538359</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.01039340209266152</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.0005929073696350742</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.0006925304732461696</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.0001350590832642021</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.001434964041190143</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.002808749438756385</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.003975903072561628</v>
+        <v>0</v>
       </c>
       <c r="EH4">
         <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.0008786558248608384</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>7.339339311409055E-05</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.003119979952790982</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.0001151645797382926</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.009044046476279485</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.004035219294849446</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.0009605698215149898</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.0003451353060781285</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.002191294202766387</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.002598450637747124</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.0009530298390067508</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.003770580432228996</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.008685137120560375</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.002470677409415059</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.001612192886702808</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.007009191542544556</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.01755408551424177</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.02616070377502584</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.005999144411444972</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.000338143262628374</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.000175321981104214</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.002965561743965131</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.001440597535225753</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.0007070208035876942</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>1.564166856696459E-05</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.008059951313687126</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.00347998899637882</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.0008097232045692697</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.006055812251538071</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.012435604404788</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.01096543228772958</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.007892290992313519</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.0001042131257895752</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.006671832279458169</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.008376725117317544</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.004176830085818939</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.0005615093105954117</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.0006167866416901706</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.0004969883425254498</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.0003532769471603899</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.000879670246856874</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.003026865890689095</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.0005372428448014013</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.0002354513031886555</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.001402344402382895</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.001218245909254751</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.001066078276004804</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>4.300217688177986E-05</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.0007767947541379921</v>
+        <v>0</v>
       </c>
       <c r="GF4">
         <v>0</v>
@@ -4104,34 +4104,34 @@
         <v>0</v>
       </c>
       <c r="GH4">
-        <v>2.493235799212749E-05</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.004189879493462926</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.002437041736018438</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.0002781880502307831</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>1.843104181287458E-05</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.0002952625916309222</v>
+        <v>0</v>
       </c>
       <c r="GN4">
         <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.001996689664047905</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.00106816668516326</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>8.01568010647882E-05</v>
+        <v>0</v>
       </c>
       <c r="GR4">
         <v>0</v>
@@ -4313,43 +4313,43 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>2.530492682602219E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>4.865307827490203E-06</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>7.318779521299207E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>9.702213189255407E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>3.586764138884294E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>5.019540981987888E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0001680900222400357</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>9.218434489047083E-05</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>6.523156839754298E-06</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0001814595714658658</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0001162984089515503</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -4358,31 +4358,31 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7.007940840586882E-05</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>8.677508188593278E-06</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>9.108215833845656E-05</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>5.535094734492059E-05</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>3.258821091384341E-06</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>2.222477004897669E-05</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0001116759242336172</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>1.776190043195211E-05</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -4394,31 +4394,31 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>6.738556234086603E-06</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>4.891383373068057E-05</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.921218193602116E-05</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>3.393757952111868E-05</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>2.865664511951202E-06</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>3.983814676441723E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>2.201654179108835E-05</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>1.542098740834924E-05</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -4427,25 +4427,25 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>3.231121663332999E-06</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>3.888140123125456E-06</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>7.506745829774722E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>3.698151560179559E-06</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>6.331887283380293E-05</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.0001038637604735684</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>1.556113241829557E-05</v>
+        <v>0</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -4454,34 +4454,34 @@
         <v>0</v>
       </c>
       <c r="AW5">
-        <v>4.213918714811941E-05</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>5.133173410491047E-05</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>6.955769686667756E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>1.584277897733126E-05</v>
+        <v>0</v>
       </c>
       <c r="BB5">
         <v>0</v>
       </c>
       <c r="BC5">
-        <v>6.773059341661575E-05</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>7.140018697459705E-05</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>1.532315540717079E-05</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>4.108869564983617E-06</v>
+        <v>0</v>
       </c>
       <c r="BG5">
         <v>0</v>
@@ -4490,19 +4490,19 @@
         <v>0</v>
       </c>
       <c r="BI5">
-        <v>8.492761973668489E-07</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>5.340960908288522E-07</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>3.750404807242394E-05</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>9.895890537534468E-05</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>6.341494223511775E-06</v>
+        <v>0</v>
       </c>
       <c r="BN5">
         <v>0</v>
@@ -4511,58 +4511,58 @@
         <v>0</v>
       </c>
       <c r="BP5">
-        <v>2.017698461089833E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>4.846765749460854E-05</v>
+        <v>0</v>
       </c>
       <c r="BR5">
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>7.955694211150871E-06</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>9.584185914315012E-06</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>1.486495452781682E-05</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>2.547411078385261E-05</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>3.261353724935995E-05</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>3.431996537998328E-05</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>2.507467598108375E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
         <v>0</v>
       </c>
       <c r="CA5">
-        <v>6.41613841556736E-06</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>9.979443337386602E-05</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>3.586764138884294E-05</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>8.18288998978016E-06</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>1.067803800997078E-05</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.0001525470069776485</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.0001212477044723271</v>
+        <v>0</v>
       </c>
       <c r="CH5">
         <v>0</v>
@@ -4571,346 +4571,346 @@
         <v>0</v>
       </c>
       <c r="CJ5">
-        <v>3.665236874844532E-05</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>6.738556234086603E-06</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>2.357431365480709E-06</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.00115917769033648</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.07193191104971286</v>
+        <v>0.1733037578969055</v>
       </c>
       <c r="CO5">
-        <v>0.000554972853414922</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.05350284724745018</v>
+        <v>0.09708603949432854</v>
       </c>
       <c r="CQ5">
-        <v>0.03894251795050262</v>
+        <v>0.03686838057736896</v>
       </c>
       <c r="CR5">
-        <v>0.01235620284837677</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.0004645343409636017</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.004693599380949343</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.03644122295589263</v>
+        <v>0.02652368810755651</v>
       </c>
       <c r="CV5">
-        <v>0.0005274874682187704</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.03518523790254255</v>
+        <v>0.0213292671569747</v>
       </c>
       <c r="CX5">
-        <v>0.03598257556992775</v>
+        <v>0.02462684420465258</v>
       </c>
       <c r="CY5">
-        <v>0.0946586570456782</v>
+        <v>0.2672955496185613</v>
       </c>
       <c r="CZ5">
-        <v>0.004168087830226556</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.0002120331305353415</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.02979881140854043</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.03749953973281621</v>
+        <v>0.03090060551094521</v>
       </c>
       <c r="DD5">
-        <v>0.09816350968694849</v>
+        <v>0.2817906902573424</v>
       </c>
       <c r="DE5">
-        <v>0.01436077825992181</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.03589119889302554</v>
+        <v>0.02424893451247167</v>
       </c>
       <c r="DG5">
-        <v>0.0269510703327012</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.03390299305456376</v>
+        <v>0.0160262426628925</v>
       </c>
       <c r="DI5">
-        <v>0.00750978405257305</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.004087320390672401</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.01513536211059634</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.02898633456409176</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.003040258283410909</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.008278020701648417</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.003536686535929275</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.0001519025257427183</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.0006546694702051025</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.004712825094638627</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.002361807706521535</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.0001291882639114124</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.001195761799036383</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.002755120363041317</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.001910662332415205</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.0001378384284756529</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.001591498906362582</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.002513693437608867</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.004109902112122048</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.008351392950544425</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>5.133173410491047E-05</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.001234714795500313</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.0001205685739239352</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.0026232860825327</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.003715875445479156</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.003043584657548663</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>7.158598778607776E-05</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>2.983640869119776E-06</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.003758266542847159</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.002902189929659712</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.001483803313853614</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.008365994517630183</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.001392229413179328</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.001828084338587851</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
         <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.003688907247088387</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.001663331408246049</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.001227297679965979</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.006898554245048765</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.008368750644759915</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.0005758581500838484</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.002856878618988145</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.006617851757165754</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.02108352795975471</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.02240286589392441</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.0003996235925716833</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.0007459002816068288</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.0004381193702705762</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.002960969922033819</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.0006344594396999982</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.000137368855693623</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.001174964702440152</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.009262578791218995</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.002286192512757586</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.002069453198138163</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.00926548008305407</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.01304549792955044</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.01099259969043629</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.004591517958334343</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.0002660568864354197</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.007916558583071262</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.01158711723605912</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.005342390906378828</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.0007841283555663503</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.002540530987764827</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.002751480933707971</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.00166419348636861</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.003376620523411861</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.004443010460224329</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.0002801514182338123</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.0007164534709575114</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.00177722092844805</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.001958437038079655</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.001162573543305619</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.0001205685739239352</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.0003751247959891922</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.0002438167525544839</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>5.340960908288522E-07</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.0006765306741482969</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.006856065336703437</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.00477302930294254</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.0003330046860863082</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.000933083161196002</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.001345315784501539</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.0001610058244375282</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.001935405506270622</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>4.361569641046839E-05</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.0003671086808238153</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.0001060866986417066</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5089,25 +5089,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.413021598663459E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0001550238900086537</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0001352330754564576</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>5.84274205022958E-05</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>9.257334009083324E-05</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.000149499338624346</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>8.564734763839786E-05</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -5116,16 +5116,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>4.021294774960509E-06</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.882295534486115E-05</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>3.966185857718383E-05</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -5134,37 +5134,37 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>1.800918428480772E-05</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>2.496284756334973E-05</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>2.622572720258364E-05</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>1.353956724793357E-06</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>2.066558158816097E-05</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>4.551780693500691E-05</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>3.36755596081445E-05</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>2.911741815972727E-05</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0001384719070466737</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>1.813274011642377E-05</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -5173,49 +5173,49 @@
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>1.570577903636987E-05</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>1.643610618268143E-06</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>2.508806879194075E-05</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>2.384663401790344E-05</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>9.268210563506306E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>6.756342278087054E-06</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.0001040667743775587</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0002058305350702497</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.000138736107305204</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>2.635332685439507E-05</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>1.059870952597758E-05</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>3.074292472116231E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>6.552008884825231E-05</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>5.113476732187747E-05</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>9.876109501168636E-06</v>
+        <v>0</v>
       </c>
       <c r="AT6">
         <v>0</v>
@@ -5224,40 +5224,40 @@
         <v>0</v>
       </c>
       <c r="AV6">
-        <v>1.726117368703254E-06</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>3.197350587378369E-05</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>4.622909167393483E-05</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>7.517559884464663E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>3.509462404125446E-05</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.0001051213922695238</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>3.121160428295995E-05</v>
+        <v>0</v>
       </c>
       <c r="BD6">
         <v>0</v>
       </c>
       <c r="BE6">
-        <v>2.552118616974679E-05</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.0001015406225340793</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>2.751243013023457E-05</v>
+        <v>0</v>
       </c>
       <c r="BH6">
         <v>0</v>
@@ -5269,46 +5269,46 @@
         <v>0</v>
       </c>
       <c r="BK6">
-        <v>1.535373534641857E-05</v>
+        <v>0</v>
       </c>
       <c r="BL6">
         <v>0</v>
       </c>
       <c r="BM6">
-        <v>3.981249138018242E-05</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.0001286373122969165</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>2.316724618760431E-05</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>3.10449814658307E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.0002276342567623458</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.0001167235149894946</v>
+        <v>0</v>
       </c>
       <c r="BS6">
         <v>0</v>
       </c>
       <c r="BT6">
-        <v>1.93717934629166E-05</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.0002068955679523168</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>5.094859636947979E-05</v>
+        <v>0</v>
       </c>
       <c r="BW6">
         <v>0</v>
       </c>
       <c r="BX6">
-        <v>6.672950253493268E-06</v>
+        <v>0</v>
       </c>
       <c r="BY6">
         <v>0</v>
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="CA6">
-        <v>2.014959894391439E-05</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>2.304573329635443E-05</v>
+        <v>0</v>
       </c>
       <c r="CC6">
         <v>0</v>
@@ -5329,361 +5329,361 @@
         <v>0</v>
       </c>
       <c r="CE6">
-        <v>3.621481631320799E-05</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>6.721287524430503E-05</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>5.208883950026244E-05</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>3.126781318338746E-06</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>3.166786396906095E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>6.245658360199011E-05</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>5.687633805811188E-05</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.0001241686105774418</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.002055389110411953</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.1085010364556967</v>
+        <v>0.2154737621969949</v>
       </c>
       <c r="CO6">
-        <v>0.01963015824956045</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.1584519699074491</v>
+        <v>0.3526434967582824</v>
       </c>
       <c r="CQ6">
-        <v>0.002018100641810928</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.005435123599556274</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.002437249615151576</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.0003688327811788116</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.02968723521384116</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.02720800690653682</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.006524223821298808</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.08512539733200589</v>
+        <v>0.1512821647187576</v>
       </c>
       <c r="CY6">
-        <v>0.01485114891008549</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.01414110095123219</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.01250394261962052</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.003532720506080071</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.08254031166616942</v>
+        <v>0.1441832880792753</v>
       </c>
       <c r="DD6">
-        <v>0.02259267314228052</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.05467524599414218</v>
+        <v>0.06766332343323481</v>
       </c>
       <c r="DF6">
-        <v>0.007214109060323549</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.05507240762150371</v>
+        <v>0.06875396481345507</v>
       </c>
       <c r="DH6">
-        <v>0.005171591302410439</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.0220457930278784</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.0002122964813868172</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.01696088441325222</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.02241435449155496</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.002214798345165936</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.01535200328048821</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.0002560232965806403</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.0001390593325172547</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.003258272498154234</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.003299989140143059</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>7.652246035743297E-05</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>6.954263842923185E-05</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.0009331676178388297</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.001651051254437733</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.0008396335960566621</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>1.008109653520349E-05</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.001374226926318331</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.0002473873470186628</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.01091361168581369</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.003178234000229165</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.0002389713540361091</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>5.055209869773728E-06</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.002199843721253199</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.002750097090718745</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.004055707231170259</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.000725094281746681</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>4.78467038731608E-05</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>1.691044088381621E-05</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.004823303618408811</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.0003058094228284418</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.007261594405099265</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.005895396061170611</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>2.746678243034703E-07</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.0003539191662896013</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.001525111691962081</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.005701345768184228</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.002508644172012648</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.001786068582372785</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.006593210412419464</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.005514142329748567</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>8.058098071047735E-05</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.003018732733014569</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.01162440271415312</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.01657136778920212</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.009516593984155266</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>5.171377768074432E-05</v>
+        <v>0</v>
       </c>
       <c r="FC6">
         <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.003446515432717386</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.002140980700799976</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.0003707181848052703</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.0008802867073254538</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.002186303332823354</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.005250614739377104</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.0002639624432471383</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.001214988837892083</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.008856432826449278</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.007015556287000756</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.004608439768856627</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.001927434247351561</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.0025709572580813</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.006805549528169129</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.004467644124297666</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.0003764025361867491</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.0004094140690735536</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.0009997051841234784</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.0002454534636161618</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.0003773540657055312</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.002420487690023732</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.002215827526447459</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>2.81595294883347E-07</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.001616655449193407</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.001368822147320196</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.001518471434763095</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>5.171377768074432E-05</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.0003893472572836539</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>3.555695646773802E-05</v>
+        <v>0</v>
       </c>
       <c r="GG6">
         <v>0</v>
       </c>
       <c r="GH6">
-        <v>7.672312917634092E-05</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.001986564752790962</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.005889806416098166</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.001386879737274386</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>1.15596325646787E-05</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.0005205605601560121</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.0002748668878118847</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.001317032106875871</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.002107383044316353</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>9.378863824692126E-06</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.0003045649516842132</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.0001050956191747867</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6654,592 +6654,592 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.70633428895211E-06</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.70633428895211E-06</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.862030487470076E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.862030487470076E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>4.244767299932572E-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4.244767299932572E-05</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>4.244767299932572E-05</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>4.764291089985183E-05</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>4.764291089985183E-05</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>5.462071408945352E-05</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>5.718974427184879E-05</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>5.718974427184879E-05</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>5.718974427184879E-05</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>5.718974427184879E-05</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>5.718974427184879E-05</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>5.718974427184879E-05</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>5.718974427184879E-05</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>5.718974427184879E-05</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>5.718974427184879E-05</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>5.718974427184879E-05</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>5.718974427184879E-05</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>5.718974427184879E-05</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>5.923176742739745E-05</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>5.923176742739745E-05</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>5.923176742739745E-05</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>5.923176742739745E-05</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>5.923176742739745E-05</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>5.923176742739745E-05</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>5.923176742739745E-05</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>5.923176742739745E-05</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>5.923176742739745E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>5.923176742739745E-05</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>5.923176742739745E-05</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>5.923176742739745E-05</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>5.923176742739745E-05</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>5.923176742739745E-05</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>5.923176742739745E-05</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>6.383846352693863E-05</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>7.445763131997465E-05</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>7.445763131997465E-05</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>7.445763131997465E-05</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>8.38517203434829E-05</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>9.447088813651891E-05</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>9.447088813651891E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>9.447088813651891E-05</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>9.447088813651891E-05</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>9.447088813651891E-05</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.02944358947210985</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.04481647412104392</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.08343887399134292</v>
+        <v>0.02487106461997264</v>
       </c>
       <c r="CP2">
-        <v>0.1639349631370067</v>
+        <v>0.1733226324783257</v>
       </c>
       <c r="CQ2">
-        <v>0.1639505955591746</v>
+        <v>0.1733226324783257</v>
       </c>
       <c r="CR2">
-        <v>0.1640545144245134</v>
+        <v>0.1733226324783257</v>
       </c>
       <c r="CS2">
-        <v>0.165394127163375</v>
+        <v>0.1733226324783257</v>
       </c>
       <c r="CT2">
-        <v>0.1828539948918164</v>
+        <v>0.1733226324783257</v>
       </c>
       <c r="CU2">
-        <v>0.1897425142329993</v>
+        <v>0.1733226324783257</v>
       </c>
       <c r="CV2">
-        <v>0.2255154385045857</v>
+        <v>0.1897841293112643</v>
       </c>
       <c r="CW2">
-        <v>0.2337162865580716</v>
+        <v>0.1897841293112643</v>
       </c>
       <c r="CX2">
-        <v>0.3305004558664298</v>
+        <v>0.3863061962855643</v>
       </c>
       <c r="CY2">
-        <v>0.3311259639193775</v>
+        <v>0.3863061962855643</v>
       </c>
       <c r="CZ2">
-        <v>0.3312293265687638</v>
+        <v>0.3863061962855643</v>
       </c>
       <c r="DA2">
-        <v>0.3934132062160079</v>
+        <v>0.4807135157296095</v>
       </c>
       <c r="DB2">
-        <v>0.3934954673073636</v>
+        <v>0.4807135157296095</v>
       </c>
       <c r="DC2">
-        <v>0.5483774007325271</v>
+        <v>0.8486976881650474</v>
       </c>
       <c r="DD2">
-        <v>0.5514864350464543</v>
+        <v>0.8486976881650474</v>
       </c>
       <c r="DE2">
-        <v>0.6099592070493823</v>
+        <v>0.9321525322434648</v>
       </c>
       <c r="DF2">
-        <v>0.6108951771619093</v>
+        <v>0.9321525322434648</v>
       </c>
       <c r="DG2">
-        <v>0.6554006989458199</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="DH2">
-        <v>0.6556193675046331</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="DI2">
-        <v>0.6643896292741093</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="DJ2">
-        <v>0.6681622708959383</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="DK2">
-        <v>0.6851471835042936</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="DL2">
-        <v>0.6989379378474523</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="DM2">
-        <v>0.6998609309322706</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="DN2">
-        <v>0.7041328497567655</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="DO2">
-        <v>0.7063912318423418</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="DP2">
-        <v>0.7073357066872661</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="DQ2">
-        <v>0.7107745852591849</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="DR2">
-        <v>0.7110682999437249</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="DS2">
-        <v>0.7116743258368989</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="DT2">
-        <v>0.7134606692580495</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="DU2">
-        <v>0.7148415321674887</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="DV2">
-        <v>0.7176117205581216</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="DW2">
-        <v>0.7177656561540101</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="DX2">
-        <v>0.7177828922738558</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="DY2">
-        <v>0.7185269641719216</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="DZ2">
-        <v>0.7209244530850696</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="EA2">
-        <v>0.7266279060327779</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="EB2">
-        <v>0.7275508991175963</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="EC2">
-        <v>0.7280172282064636</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="ED2">
-        <v>0.7284564289737439</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="EE2">
-        <v>0.7284564289737439</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="EF2">
-        <v>0.7288146164473875</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="EG2">
-        <v>0.7392403051178211</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="EH2">
-        <v>0.739871545384606</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="EI2">
-        <v>0.7429220231941526</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="EJ2">
-        <v>0.7448698182810527</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="EK2">
-        <v>0.746100730577017</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="EL2">
-        <v>0.7464798319580331</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="EM2">
-        <v>0.7486522582641681</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="EN2">
-        <v>0.7510482025307562</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="EO2">
-        <v>0.7511515651801425</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="EP2">
-        <v>0.7519200902812947</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="EQ2">
-        <v>0.7519419671474296</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="ER2">
-        <v>0.7530214666693812</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="ES2">
-        <v>0.7535505677521308</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="ET2">
-        <v>0.7581677571324846</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="EU2">
-        <v>0.7702058221599021</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="EV2">
-        <v>0.7761169053324979</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="EW2">
-        <v>0.7761169053324979</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="EX2">
-        <v>0.7790838266167878</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="EY2">
-        <v>0.802044644804553</v>
+        <v>0.9743862696844491</v>
       </c>
       <c r="EZ2">
-        <v>0.8409186875453469</v>
+        <v>1</v>
       </c>
       <c r="FA2">
-        <v>0.8571950300983594</v>
+        <v>1</v>
       </c>
       <c r="FB2">
-        <v>0.8572317955765211</v>
+        <v>1</v>
       </c>
       <c r="FC2">
-        <v>0.8572317955765211</v>
+        <v>1</v>
       </c>
       <c r="FD2">
-        <v>0.8578299443873554</v>
+        <v>1</v>
       </c>
       <c r="FE2">
-        <v>0.8582918416878003</v>
+        <v>1</v>
       </c>
       <c r="FF2">
-        <v>0.8587167843730634</v>
+        <v>1</v>
       </c>
       <c r="FG2">
-        <v>0.8587167843730634</v>
+        <v>1</v>
       </c>
       <c r="FH2">
-        <v>0.8672660622575565</v>
+        <v>1</v>
       </c>
       <c r="FI2">
-        <v>0.8778545952764423</v>
+        <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0.881839746100777</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>0.8842599380310152</v>
+        <v>1</v>
       </c>
       <c r="FL2">
-        <v>0.8930619982628363</v>
+        <v>1</v>
       </c>
       <c r="FM2">
-        <v>0.9095076509390378</v>
+        <v>1</v>
       </c>
       <c r="FN2">
-        <v>0.9253412916166558</v>
+        <v>1</v>
       </c>
       <c r="FO2">
-        <v>0.9314986689756605</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0.9355241199695777</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0.9469818741514517</v>
+        <v>1</v>
       </c>
       <c r="FR2">
-        <v>0.9558045629474953</v>
+        <v>1</v>
       </c>
       <c r="FS2">
-        <v>0.9580934687939435</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0.9598155922083377</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0.9613079769254803</v>
+        <v>1</v>
       </c>
       <c r="FV2">
-        <v>0.9621833532902234</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>0.9632125543888347</v>
+        <v>1</v>
       </c>
       <c r="FX2">
-        <v>0.9678653351768073</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0.9716542688972195</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
-        <v>0.9720718210365829</v>
+        <v>1</v>
       </c>
       <c r="GA2">
-        <v>0.9721868697469292</v>
+        <v>1</v>
       </c>
       <c r="GB2">
-        <v>0.9734180110474854</v>
+        <v>1</v>
       </c>
       <c r="GC2">
-        <v>0.9748506105412021</v>
+        <v>1</v>
       </c>
       <c r="GD2">
-        <v>0.9749165664148652</v>
+        <v>1</v>
       </c>
       <c r="GE2">
-        <v>0.9764701692727606</v>
+        <v>1</v>
       </c>
       <c r="GF2">
-        <v>0.9772735886838904</v>
+        <v>1</v>
       </c>
       <c r="GG2">
-        <v>0.9777252719156821</v>
+        <v>1</v>
       </c>
       <c r="GH2">
-        <v>0.9777620990808843</v>
+        <v>1</v>
       </c>
       <c r="GI2">
-        <v>0.9845011375150602</v>
+        <v>1</v>
       </c>
       <c r="GJ2">
-        <v>0.9938634442204926</v>
+        <v>1</v>
       </c>
       <c r="GK2">
-        <v>0.9956935926604542</v>
+        <v>1</v>
       </c>
       <c r="GL2">
-        <v>0.99608945190373</v>
+        <v>1</v>
       </c>
       <c r="GM2">
-        <v>0.9975983971519629</v>
+        <v>1</v>
       </c>
       <c r="GN2">
-        <v>0.9978109739062854</v>
+        <v>1</v>
       </c>
       <c r="GO2">
-        <v>0.9984610619366802</v>
+        <v>1</v>
       </c>
       <c r="GP2">
-        <v>0.9985978313846676</v>
+        <v>1</v>
       </c>
       <c r="GQ2">
-        <v>0.999104423796672</v>
+        <v>1</v>
       </c>
       <c r="GR2">
-        <v>0.9999003346605047</v>
+        <v>1</v>
       </c>
       <c r="GS2">
         <v>1</v>
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>9.785416693213069E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0001069750345624287</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0001069750345624287</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0001069750345624287</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0001069750345624287</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0001097025400814706</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0001097025400814706</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0001246549372876665</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0001406599637067381</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0001406599637067381</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0001406599637067381</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.000151905398379938</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0002519602986530322</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.000291613467094294</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.000291613467094294</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0003071962470074826</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0003375547511356845</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0003375547511356845</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0003375547511356845</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0004805896224005051</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.000483317127919547</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.000483317127919547</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.000483317127919547</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.000483317127919547</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0004837457069350435</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0004979443079698641</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0004979443079698641</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0005991346302369282</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0007095316160753491</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0007262559954513451</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0007493212405345774</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0008559322917066001</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.000864657701662224</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.000864657701662224</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.000864657701662224</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.000864657701662224</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.000864657701662224</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.0008706595294358432</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.0008706595294358432</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.0008706595294358432</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.0008706595294358432</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.0008885843915532275</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.0009331006756880629</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.001088566011634553</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.001258094411768212</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.001301833267087686</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.001301833267087686</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.001301833267087686</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.001301833267087686</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.001301833267087686</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.001301833267087686</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.001301833267087686</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.001322148418016233</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.001322148418016233</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.001322148418016233</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.001322148418016233</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.001322148418016233</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.001322148418016233</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.001335105648835432</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.001388243911599952</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.001395987644639603</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.001395987644639603</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.00147558666025023</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.0015561142050002</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.001577618209605183</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.001577618209605183</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.001577618209605183</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.001577618209605183</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.001577618209605183</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.001577618209605183</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.001577618209605183</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.001577618209605183</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.001577618209605183</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.001641868587076995</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.001666199141074353</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.001666199141074353</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.001666199141074353</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.001736001619339749</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.001862246541061463</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.002009122094508228</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.002178650494641886</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.002257512352775316</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.002293674230470456</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.002318004784467814</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.002318004784467814</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.002318004784467814</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.002318004784467814</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.002318004784467814</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.002318004784467814</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.0445875186562882</v>
+        <v>0.03810198227489067</v>
       </c>
       <c r="CN3">
-        <v>0.06255279015853207</v>
+        <v>0.03810198227489067</v>
       </c>
       <c r="CO3">
-        <v>0.1431045737417855</v>
+        <v>0.1966832656983991</v>
       </c>
       <c r="CP3">
-        <v>0.2089017810745631</v>
+        <v>0.3088299712141501</v>
       </c>
       <c r="CQ3">
-        <v>0.2111706177072935</v>
+        <v>0.3088299712141501</v>
       </c>
       <c r="CR3">
-        <v>0.2151137258864882</v>
+        <v>0.3088299712141501</v>
       </c>
       <c r="CS3">
-        <v>0.2174393531500278</v>
+        <v>0.3088299712141501</v>
       </c>
       <c r="CT3">
-        <v>0.2283518237831558</v>
+        <v>0.3088299712141501</v>
       </c>
       <c r="CU3">
-        <v>0.2340086275592056</v>
+        <v>0.3088299712141501</v>
       </c>
       <c r="CV3">
-        <v>0.2546160334914289</v>
+        <v>0.3088299712141501</v>
       </c>
       <c r="CW3">
-        <v>0.2596454934603696</v>
+        <v>0.3088299712141501</v>
       </c>
       <c r="CX3">
-        <v>0.3473656879936536</v>
+        <v>0.489971179848881</v>
       </c>
       <c r="CY3">
-        <v>0.3481687736613425</v>
+        <v>0.489971179848881</v>
       </c>
       <c r="CZ3">
-        <v>0.3500111709419597</v>
+        <v>0.489971179848881</v>
       </c>
       <c r="DA3">
-        <v>0.3790183397881404</v>
+        <v>0.489971179848881</v>
       </c>
       <c r="DB3">
-        <v>0.3808411897492177</v>
+        <v>0.489971179848881</v>
       </c>
       <c r="DC3">
-        <v>0.5031260037149837</v>
+        <v>0.7798917588052647</v>
       </c>
       <c r="DD3">
-        <v>0.5089320996771355</v>
+        <v>0.7798917588052647</v>
       </c>
       <c r="DE3">
-        <v>0.5683121018421903</v>
+        <v>0.8718426817887266</v>
       </c>
       <c r="DF3">
-        <v>0.5683783809936541</v>
+        <v>0.8718426817887266</v>
       </c>
       <c r="DG3">
-        <v>0.6323699673420505</v>
+        <v>0.978306862313736</v>
       </c>
       <c r="DH3">
-        <v>0.633963925169157</v>
+        <v>0.978306862313736</v>
       </c>
       <c r="DI3">
-        <v>0.6531657193458802</v>
+        <v>0.978306862313736</v>
       </c>
       <c r="DJ3">
-        <v>0.6533701070033261</v>
+        <v>0.978306862313736</v>
       </c>
       <c r="DK3">
-        <v>0.6904257143517354</v>
+        <v>1</v>
       </c>
       <c r="DL3">
-        <v>0.7110615269757319</v>
+        <v>1</v>
       </c>
       <c r="DM3">
-        <v>0.717461308298625</v>
+        <v>1</v>
       </c>
       <c r="DN3">
-        <v>0.729398250625531</v>
+        <v>1</v>
       </c>
       <c r="DO3">
-        <v>0.729398250625531</v>
+        <v>1</v>
       </c>
       <c r="DP3">
-        <v>0.7294173407056606</v>
+        <v>1</v>
       </c>
       <c r="DQ3">
-        <v>0.7355658844917411</v>
+        <v>1</v>
       </c>
       <c r="DR3">
-        <v>0.7394805353392208</v>
+        <v>1</v>
       </c>
       <c r="DS3">
-        <v>0.7395997160192722</v>
+        <v>1</v>
       </c>
       <c r="DT3">
-        <v>0.7408553774909145</v>
+        <v>1</v>
       </c>
       <c r="DU3">
-        <v>0.7432842541591713</v>
+        <v>1</v>
       </c>
       <c r="DV3">
-        <v>0.7475545302897739</v>
+        <v>1</v>
       </c>
       <c r="DW3">
-        <v>0.7475849812747182</v>
+        <v>1</v>
       </c>
       <c r="DX3">
-        <v>0.7475849812747182</v>
+        <v>1</v>
       </c>
       <c r="DY3">
-        <v>0.7494573722001935</v>
+        <v>1</v>
       </c>
       <c r="DZ3">
-        <v>0.7509802251058412</v>
+        <v>1</v>
       </c>
       <c r="EA3">
-        <v>0.7583074465576397</v>
+        <v>1</v>
       </c>
       <c r="EB3">
-        <v>0.7590490722495929</v>
+        <v>1</v>
       </c>
       <c r="EC3">
-        <v>0.7594401896684888</v>
+        <v>1</v>
       </c>
       <c r="ED3">
-        <v>0.7595164147874099</v>
+        <v>1</v>
       </c>
       <c r="EE3">
-        <v>0.7607413767759604</v>
+        <v>1</v>
       </c>
       <c r="EF3">
-        <v>0.7639852176314257</v>
+        <v>1</v>
       </c>
       <c r="EG3">
-        <v>0.772280039202827</v>
+        <v>1</v>
       </c>
       <c r="EH3">
-        <v>0.7725880221065963</v>
+        <v>1</v>
       </c>
       <c r="EI3">
-        <v>0.7737597259778084</v>
+        <v>1</v>
       </c>
       <c r="EJ3">
-        <v>0.7737597259778084</v>
+        <v>1</v>
       </c>
       <c r="EK3">
-        <v>0.7789934365642572</v>
+        <v>1</v>
       </c>
       <c r="EL3">
-        <v>0.7797485385212636</v>
+        <v>1</v>
       </c>
       <c r="EM3">
-        <v>0.7846442179323805</v>
+        <v>1</v>
       </c>
       <c r="EN3">
-        <v>0.7884793813875677</v>
+        <v>1</v>
       </c>
       <c r="EO3">
-        <v>0.7890203683080366</v>
+        <v>1</v>
       </c>
       <c r="EP3">
-        <v>0.790041411405934</v>
+        <v>1</v>
       </c>
       <c r="EQ3">
-        <v>0.7910092389723684</v>
+        <v>1</v>
       </c>
       <c r="ER3">
-        <v>0.7937000193787656</v>
+        <v>1</v>
       </c>
       <c r="ES3">
-        <v>0.7949263776403817</v>
+        <v>1</v>
       </c>
       <c r="ET3">
-        <v>0.8004813615078031</v>
+        <v>1</v>
       </c>
       <c r="EU3">
-        <v>0.8122796767425008</v>
+        <v>1</v>
       </c>
       <c r="EV3">
-        <v>0.8182081264552643</v>
+        <v>1</v>
       </c>
       <c r="EW3">
-        <v>0.8182216219171844</v>
+        <v>1</v>
       </c>
       <c r="EX3">
-        <v>0.8235025914490264</v>
+        <v>1</v>
       </c>
       <c r="EY3">
-        <v>0.8409810490095286</v>
+        <v>1</v>
       </c>
       <c r="EZ3">
-        <v>0.8678199212599345</v>
+        <v>1</v>
       </c>
       <c r="FA3">
-        <v>0.8728888758530218</v>
+        <v>1</v>
       </c>
       <c r="FB3">
-        <v>0.8732666147026885</v>
+        <v>1</v>
       </c>
       <c r="FC3">
-        <v>0.8732666147026885</v>
+        <v>1</v>
       </c>
       <c r="FD3">
-        <v>0.8751620503253105</v>
+        <v>1</v>
       </c>
       <c r="FE3">
-        <v>0.8762183275469675</v>
+        <v>1</v>
       </c>
       <c r="FF3">
-        <v>0.8765289490433911</v>
+        <v>1</v>
       </c>
       <c r="FG3">
-        <v>0.8765353351729508</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>0.8860396660805248</v>
+        <v>1</v>
       </c>
       <c r="FI3">
-        <v>0.8940189434296507</v>
+        <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.8954770664086527</v>
+        <v>1</v>
       </c>
       <c r="FK3">
-        <v>0.8971805176560367</v>
+        <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.9079310935028495</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.9210028754140576</v>
+        <v>1</v>
       </c>
       <c r="FN3">
-        <v>0.9293477459600875</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.9295585273078478</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.9378972223985568</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.9518283329116207</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.9594912656656348</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.9609808149065345</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.9629312853735165</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.965037079213459</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.9658138213391284</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.9666165871899128</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.9706269888043747</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.9730189851983999</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.9730195937737157</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.9746254304425044</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.976245039866661</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.9782812965091463</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.9782812965091463</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.9790491871857701</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.9791899367761331</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.9791899367761331</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.97977910614137</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.9876149279855521</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.993552104883186</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.9948736212331819</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.995218005174104</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.9964807899639927</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.9964807899639927</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.9982600317872463</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.9990529909767242</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.9996072485520016</v>
+        <v>1</v>
       </c>
       <c r="GR3">
-        <v>0.9999919412522926</v>
+        <v>1</v>
       </c>
       <c r="GS3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GT3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GU3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GV3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GW3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GX3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GY3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GZ3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HA3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HB3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HC3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HD3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HE3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HF3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HG3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HH3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HI3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HJ3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HK3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HL3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HM3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HN3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HO3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HP3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HQ3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HR3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HS3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HT3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HU3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HV3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HW3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HX3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HY3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HZ3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IA3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IB3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IC3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="ID3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IE3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IF3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IG3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IH3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="II3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IJ3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IK3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IL3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IM3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IN3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IO3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IP3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IQ3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IR3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IS3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IT3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IU3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IV3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IW3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8194,592 +8194,592 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.988700496689222E-07</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2.076237102374004E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>2.076237102374004E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>4.91885384642606E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0001293453395290488</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0001767808580128178</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0001767808580128178</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0001767808580128178</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0001767808580128178</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0001818809434637802</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0001861470510737592</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0001861470510737592</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0001861470510737592</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0002146085897412553</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0004256507327829955</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0006075496858907371</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0007658035054172015</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0008704257562150735</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0009438191493291641</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0009893238957003911</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0009893238957003911</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0009893238957003911</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.0009893238957003911</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0009893238957003911</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0009893238957003911</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0009893238957003911</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0009893238957003911</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.0009893238957003911</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.001021069395029599</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.001021069395029599</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.001056507375306315</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.001056507375306315</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.001259111381823375</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.001274294136562764</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.001274294136562764</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.001357426484774215</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.001400390004770095</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.001400390004770095</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.001443077655400208</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.001502172253946372</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.001502172253946372</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.001502172253946372</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.001502172253946372</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.001502172253946372</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.001522292215154594</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.001580829496404148</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.001720699711574358</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.001855027241871245</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.001855027241871245</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.00188475718699322</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.002033098627087641</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.002362202124853438</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.002480779778546838</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.002552262258635331</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.002709680633868746</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.002831653985824047</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.002831653985824047</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.002851740616743736</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.002851740616743736</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.002851740616743736</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.002851740616743736</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.002920655243517277</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.00296087936554263</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.00296087936554263</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.003022995671719728</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.003117681616231919</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.003265558337162752</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.003294998140460057</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.00329782125419793</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.003359937560375028</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.003434247229023183</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.003434247229023183</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.003434247229023183</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.003479153777848837</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.003482387037568164</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.003482387037568164</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.003482387037568164</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.003518619426676857</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.003592012819790947</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.003693065252561359</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.003810144827202133</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.003896334470963723</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.003907053116828124</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.003941963632942381</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.004063179388547974</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.004114369437547245</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.004114369437547245</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.004130504029535262</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.04611963584523399</v>
+        <v>0.03446438426650627</v>
       </c>
       <c r="CN4">
-        <v>0.06758672948516753</v>
+        <v>0.03446438426650627</v>
       </c>
       <c r="CO4">
-        <v>0.175885957331876</v>
+        <v>0.2626155076284497</v>
       </c>
       <c r="CP4">
-        <v>0.2416195302580256</v>
+        <v>0.3664355955599932</v>
       </c>
       <c r="CQ4">
-        <v>0.2486013808852643</v>
+        <v>0.3664355955599932</v>
       </c>
       <c r="CR4">
-        <v>0.2488290340902237</v>
+        <v>0.3664355955599932</v>
       </c>
       <c r="CS4">
-        <v>0.2543469456767998</v>
+        <v>0.3664355955599932</v>
       </c>
       <c r="CT4">
-        <v>0.2777385787560281</v>
+        <v>0.3664355955599932</v>
       </c>
       <c r="CU4">
-        <v>0.2838700211311345</v>
+        <v>0.3664355955599932</v>
       </c>
       <c r="CV4">
-        <v>0.318452840316037</v>
+        <v>0.3792667048345673</v>
       </c>
       <c r="CW4">
-        <v>0.325327216535934</v>
+        <v>0.3792667048345673</v>
       </c>
       <c r="CX4">
-        <v>0.4392118125858524</v>
+        <v>0.6237322632324842</v>
       </c>
       <c r="CY4">
-        <v>0.4392118125858524</v>
+        <v>0.6237322632324842</v>
       </c>
       <c r="CZ4">
-        <v>0.4398255903803435</v>
+        <v>0.6237322632324842</v>
       </c>
       <c r="DA4">
-        <v>0.4690334716901894</v>
+        <v>0.6237322632324842</v>
       </c>
       <c r="DB4">
-        <v>0.4752853581576985</v>
+        <v>0.6237322632324842</v>
       </c>
       <c r="DC4">
-        <v>0.5793332860327445</v>
+        <v>0.839465663235337</v>
       </c>
       <c r="DD4">
-        <v>0.5793565029290628</v>
+        <v>0.839465663235337</v>
       </c>
       <c r="DE4">
-        <v>0.6378509034844386</v>
+        <v>0.9221406801419607</v>
       </c>
       <c r="DF4">
-        <v>0.6405192100529498</v>
+        <v>0.9221406801419607</v>
       </c>
       <c r="DG4">
-        <v>0.6918860286885991</v>
+        <v>0.9839965732303678</v>
       </c>
       <c r="DH4">
-        <v>0.6919287163392291</v>
+        <v>0.9839965732303678</v>
       </c>
       <c r="DI4">
-        <v>0.7060272864574766</v>
+        <v>0.9839965732303678</v>
       </c>
       <c r="DJ4">
-        <v>0.7081583118992284</v>
+        <v>0.9839965732303678</v>
       </c>
       <c r="DK4">
-        <v>0.7438271975785156</v>
+        <v>1</v>
       </c>
       <c r="DL4">
-        <v>0.7561263906971879</v>
+        <v>1</v>
       </c>
       <c r="DM4">
-        <v>0.7603774056197969</v>
+        <v>1</v>
       </c>
       <c r="DN4">
-        <v>0.7675344266171538</v>
+        <v>1</v>
       </c>
       <c r="DO4">
-        <v>0.7676707240612349</v>
+        <v>1</v>
       </c>
       <c r="DP4">
-        <v>0.7678950000119688</v>
+        <v>1</v>
       </c>
       <c r="DQ4">
-        <v>0.7723300920608442</v>
+        <v>1</v>
       </c>
       <c r="DR4">
-        <v>0.7749390821047064</v>
+        <v>1</v>
       </c>
       <c r="DS4">
-        <v>0.774950242672704</v>
+        <v>1</v>
       </c>
       <c r="DT4">
-        <v>0.7756627801177826</v>
+        <v>1</v>
       </c>
       <c r="DU4">
-        <v>0.7778444003731205</v>
+        <v>1</v>
       </c>
       <c r="DV4">
-        <v>0.7809051812182148</v>
+        <v>1</v>
       </c>
       <c r="DW4">
-        <v>0.7809051812182148</v>
+        <v>1</v>
       </c>
       <c r="DX4">
-        <v>0.7812279996737647</v>
+        <v>1</v>
       </c>
       <c r="DY4">
-        <v>0.7839343217191757</v>
+        <v>1</v>
       </c>
       <c r="DZ4">
-        <v>0.786116135485714</v>
+        <v>1</v>
       </c>
       <c r="EA4">
-        <v>0.7965095375783755</v>
+        <v>1</v>
       </c>
       <c r="EB4">
-        <v>0.7971024449480105</v>
+        <v>1</v>
       </c>
       <c r="EC4">
-        <v>0.7977949754212567</v>
+        <v>1</v>
       </c>
       <c r="ED4">
-        <v>0.7979300345045208</v>
+        <v>1</v>
       </c>
       <c r="EE4">
-        <v>0.799364998545711</v>
+        <v>1</v>
       </c>
       <c r="EF4">
-        <v>0.8021737479844674</v>
+        <v>1</v>
       </c>
       <c r="EG4">
-        <v>0.8061496510570291</v>
+        <v>1</v>
       </c>
       <c r="EH4">
-        <v>0.8061496510570291</v>
+        <v>1</v>
       </c>
       <c r="EI4">
-        <v>0.8070283068818899</v>
+        <v>1</v>
       </c>
       <c r="EJ4">
-        <v>0.8071017002750039</v>
+        <v>1</v>
       </c>
       <c r="EK4">
-        <v>0.8102216802277949</v>
+        <v>1</v>
       </c>
       <c r="EL4">
-        <v>0.8103368448075332</v>
+        <v>1</v>
       </c>
       <c r="EM4">
-        <v>0.8193808912838126</v>
+        <v>1</v>
       </c>
       <c r="EN4">
-        <v>0.823416110578662</v>
+        <v>1</v>
       </c>
       <c r="EO4">
-        <v>0.8243766804001771</v>
+        <v>1</v>
       </c>
       <c r="EP4">
-        <v>0.8247218157062552</v>
+        <v>1</v>
       </c>
       <c r="EQ4">
-        <v>0.8269131099090217</v>
+        <v>1</v>
       </c>
       <c r="ER4">
-        <v>0.8295115605467688</v>
+        <v>1</v>
       </c>
       <c r="ES4">
-        <v>0.8304645903857756</v>
+        <v>1</v>
       </c>
       <c r="ET4">
-        <v>0.8342351708180046</v>
+        <v>1</v>
       </c>
       <c r="EU4">
-        <v>0.842920307938565</v>
+        <v>1</v>
       </c>
       <c r="EV4">
-        <v>0.8453909853479801</v>
+        <v>1</v>
       </c>
       <c r="EW4">
-        <v>0.8470031782346829</v>
+        <v>1</v>
       </c>
       <c r="EX4">
-        <v>0.8540123697772274</v>
+        <v>1</v>
       </c>
       <c r="EY4">
-        <v>0.8715664552914691</v>
+        <v>1</v>
       </c>
       <c r="EZ4">
-        <v>0.897727159066495</v>
+        <v>1</v>
       </c>
       <c r="FA4">
-        <v>0.90372630347794</v>
+        <v>1</v>
       </c>
       <c r="FB4">
-        <v>0.9040644467405684</v>
+        <v>1</v>
       </c>
       <c r="FC4">
-        <v>0.9042397687216727</v>
+        <v>1</v>
       </c>
       <c r="FD4">
-        <v>0.9072053304656378</v>
+        <v>1</v>
       </c>
       <c r="FE4">
-        <v>0.9086459280008635</v>
+        <v>1</v>
       </c>
       <c r="FF4">
-        <v>0.9093529488044512</v>
+        <v>1</v>
       </c>
       <c r="FG4">
-        <v>0.9093685904730181</v>
+        <v>1</v>
       </c>
       <c r="FH4">
-        <v>0.9174285417867052</v>
+        <v>1</v>
       </c>
       <c r="FI4">
-        <v>0.920908530783084</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.9217182539876533</v>
+        <v>1</v>
       </c>
       <c r="FK4">
-        <v>0.9277740662391913</v>
+        <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.9402096706439793</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.9511751029317089</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.9590673939240224</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.959171607049812</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.9658434393292702</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.9742201644465878</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.9783969945324067</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.9789585038430021</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.9795752904846923</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.9800722788272177</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.9804255557743781</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.9813052260212349</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.9843320919119241</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.9848693347567254</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.9851047860599141</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.986507130462297</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.9877253763715518</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.9887914546475566</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.9888344568244384</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.9896112515785763</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.9896112515785763</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.9896112515785763</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.9896361839365685</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.9938260634300314</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.9962631051660499</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.9965412932162807</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.9965597242580936</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.9968549868497245</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.9968549868497245</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.9988516765137724</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.9999198431989357</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
         <v>1</v>
@@ -8964,601 +8964,601 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>2.530492682602219E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>3.017023465351239E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0001033580298665045</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0002003801617590585</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0002362478031479015</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0002864432129677803</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.000454533235207816</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0005467175800982868</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0005467175800982868</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0005532407369380412</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0007347003084039069</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0007347003084039069</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0008509987173554572</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0008509987173554572</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0008509987173554572</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.000921078125761326</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0009297556339499194</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0009297556339499194</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.001020837792288376</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.001076188739633297</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.001079447560724681</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.001101672330773658</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.001213348255007275</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.001231110155439227</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.001231110155439227</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.001231110155439227</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.001231110155439227</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.001237848711673314</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.001286762545403994</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.001286762545403994</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.001305974727340015</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.001339912306861134</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.001342777971373085</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.001346761786049527</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.001368778327840615</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.001384199315248965</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.001384199315248965</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.001384199315248965</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.001387430436912298</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.001391318577035423</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.001398825322865198</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.001402523474425377</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.00146584234725918</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.001569706107732749</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.001585267240151044</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.001585267240151044</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.001585267240151044</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.001627406427299164</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.001678738161404074</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.001685693931090742</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.001685693931090742</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.001701536710068073</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.001701536710068073</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.001769267303484689</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.001840667490459286</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.001855990645866457</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.001860099515431441</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.001860099515431441</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.001860099515431441</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.001860948791628808</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.001861482887719637</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.00189898693579206</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.001997945841167405</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.002004287335390917</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.002004287335390917</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.002004287335390917</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.002024464320001815</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.002072931977496424</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.002072931977496424</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.002080887671707575</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.00209047185762189</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.002105336812149707</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.002130810922933559</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.002163424460182919</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.002197744425562902</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.002200251893161011</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.002200251893161011</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.002206668031576578</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.002306462464950444</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.002342330106339287</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.002350512996329067</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.002361191034339038</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.002513738041316686</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.002634985745789013</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.002634985745789013</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.002634985745789013</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.002671638114537458</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.002678376670771545</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.002680734102137026</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.003839911792473505</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.07577182284218636</v>
+        <v>0.1733037578969055</v>
       </c>
       <c r="CO5">
-        <v>0.07632679569560129</v>
+        <v>0.1733037578969055</v>
       </c>
       <c r="CP5">
-        <v>0.1298296429430515</v>
+        <v>0.270389797391234</v>
       </c>
       <c r="CQ5">
-        <v>0.1687721608935541</v>
+        <v>0.307258177968603</v>
       </c>
       <c r="CR5">
-        <v>0.1811283637419309</v>
+        <v>0.307258177968603</v>
       </c>
       <c r="CS5">
-        <v>0.1815928980828945</v>
+        <v>0.307258177968603</v>
       </c>
       <c r="CT5">
-        <v>0.1862864974638438</v>
+        <v>0.307258177968603</v>
       </c>
       <c r="CU5">
-        <v>0.2227277204197365</v>
+        <v>0.3337818660761595</v>
       </c>
       <c r="CV5">
-        <v>0.2232552078879552</v>
+        <v>0.3337818660761595</v>
       </c>
       <c r="CW5">
-        <v>0.2584404457904977</v>
+        <v>0.3551111332331342</v>
       </c>
       <c r="CX5">
-        <v>0.2944230213604255</v>
+        <v>0.3797379774377868</v>
       </c>
       <c r="CY5">
-        <v>0.3890816784061037</v>
+        <v>0.6470335270563481</v>
       </c>
       <c r="CZ5">
-        <v>0.3932497662363302</v>
+        <v>0.6470335270563481</v>
       </c>
       <c r="DA5">
-        <v>0.3934617993668656</v>
+        <v>0.6470335270563481</v>
       </c>
       <c r="DB5">
-        <v>0.423260610775406</v>
+        <v>0.6470335270563481</v>
       </c>
       <c r="DC5">
-        <v>0.4607601505082222</v>
+        <v>0.6779341325672933</v>
       </c>
       <c r="DD5">
-        <v>0.5589236601951707</v>
+        <v>0.9597248228246358</v>
       </c>
       <c r="DE5">
-        <v>0.5732844384550925</v>
+        <v>0.9597248228246358</v>
       </c>
       <c r="DF5">
-        <v>0.609175637348118</v>
+        <v>0.9839737573371075</v>
       </c>
       <c r="DG5">
-        <v>0.6361267076808191</v>
+        <v>0.9839737573371075</v>
       </c>
       <c r="DH5">
-        <v>0.6700297007353829</v>
+        <v>1</v>
       </c>
       <c r="DI5">
-        <v>0.677539484787956</v>
+        <v>1</v>
       </c>
       <c r="DJ5">
-        <v>0.6816268051786284</v>
+        <v>1</v>
       </c>
       <c r="DK5">
-        <v>0.6967621672892247</v>
+        <v>1</v>
       </c>
       <c r="DL5">
-        <v>0.7257485018533164</v>
+        <v>1</v>
       </c>
       <c r="DM5">
-        <v>0.7287887601367273</v>
+        <v>1</v>
       </c>
       <c r="DN5">
-        <v>0.7370667808383757</v>
+        <v>1</v>
       </c>
       <c r="DO5">
-        <v>0.740603467374305</v>
+        <v>1</v>
       </c>
       <c r="DP5">
-        <v>0.7407553699000478</v>
+        <v>1</v>
       </c>
       <c r="DQ5">
-        <v>0.7414100393702528</v>
+        <v>1</v>
       </c>
       <c r="DR5">
-        <v>0.7461228644648915</v>
+        <v>1</v>
       </c>
       <c r="DS5">
-        <v>0.748484672171413</v>
+        <v>1</v>
       </c>
       <c r="DT5">
-        <v>0.7486138604353244</v>
+        <v>1</v>
       </c>
       <c r="DU5">
-        <v>0.7498096222343608</v>
+        <v>1</v>
       </c>
       <c r="DV5">
-        <v>0.752564742597402</v>
+        <v>1</v>
       </c>
       <c r="DW5">
-        <v>0.7544754049298172</v>
+        <v>1</v>
       </c>
       <c r="DX5">
-        <v>0.7546132433582929</v>
+        <v>1</v>
       </c>
       <c r="DY5">
-        <v>0.7562047422646555</v>
+        <v>1</v>
       </c>
       <c r="DZ5">
-        <v>0.7587184357022644</v>
+        <v>1</v>
       </c>
       <c r="EA5">
-        <v>0.7628283378143864</v>
+        <v>1</v>
       </c>
       <c r="EB5">
-        <v>0.7711797307649308</v>
+        <v>1</v>
       </c>
       <c r="EC5">
-        <v>0.7712310624990357</v>
+        <v>1</v>
       </c>
       <c r="ED5">
-        <v>0.772465777294536</v>
+        <v>1</v>
       </c>
       <c r="EE5">
-        <v>0.77258634586846</v>
+        <v>1</v>
       </c>
       <c r="EF5">
-        <v>0.7752096319509927</v>
+        <v>1</v>
       </c>
       <c r="EG5">
-        <v>0.7789255073964718</v>
+        <v>1</v>
       </c>
       <c r="EH5">
-        <v>0.7819690920540204</v>
+        <v>1</v>
       </c>
       <c r="EI5">
-        <v>0.7820406780418065</v>
+        <v>1</v>
       </c>
       <c r="EJ5">
-        <v>0.7820436616826757</v>
+        <v>1</v>
       </c>
       <c r="EK5">
-        <v>0.7858019282255229</v>
+        <v>1</v>
       </c>
       <c r="EL5">
-        <v>0.7887041181551826</v>
+        <v>1</v>
       </c>
       <c r="EM5">
-        <v>0.7901879214690362</v>
+        <v>1</v>
       </c>
       <c r="EN5">
-        <v>0.7985539159866664</v>
+        <v>1</v>
       </c>
       <c r="EO5">
-        <v>0.7999461453998457</v>
+        <v>1</v>
       </c>
       <c r="EP5">
-        <v>0.8017742297384335</v>
+        <v>1</v>
       </c>
       <c r="EQ5">
-        <v>0.8017742297384335</v>
+        <v>1</v>
       </c>
       <c r="ER5">
-        <v>0.8054631369855219</v>
+        <v>1</v>
       </c>
       <c r="ES5">
-        <v>0.8071264683937679</v>
+        <v>1</v>
       </c>
       <c r="ET5">
-        <v>0.8083537660737339</v>
+        <v>1</v>
       </c>
       <c r="EU5">
-        <v>0.8152523203187827</v>
+        <v>1</v>
       </c>
       <c r="EV5">
-        <v>0.8236210709635426</v>
+        <v>1</v>
       </c>
       <c r="EW5">
-        <v>0.8241969291136265</v>
+        <v>1</v>
       </c>
       <c r="EX5">
-        <v>0.8270538077326146</v>
+        <v>1</v>
       </c>
       <c r="EY5">
-        <v>0.8336716594897804</v>
+        <v>1</v>
       </c>
       <c r="EZ5">
-        <v>0.8547551874495352</v>
+        <v>1</v>
       </c>
       <c r="FA5">
-        <v>0.8771580533434595</v>
+        <v>1</v>
       </c>
       <c r="FB5">
-        <v>0.8775576769360313</v>
+        <v>1</v>
       </c>
       <c r="FC5">
-        <v>0.8783035772176381</v>
+        <v>1</v>
       </c>
       <c r="FD5">
-        <v>0.8787416965879087</v>
+        <v>1</v>
       </c>
       <c r="FE5">
-        <v>0.8817026665099426</v>
+        <v>1</v>
       </c>
       <c r="FF5">
-        <v>0.8823371259496425</v>
+        <v>1</v>
       </c>
       <c r="FG5">
-        <v>0.8824744948053361</v>
+        <v>1</v>
       </c>
       <c r="FH5">
-        <v>0.8836494595077763</v>
+        <v>1</v>
       </c>
       <c r="FI5">
-        <v>0.8929120382989952</v>
+        <v>1</v>
       </c>
       <c r="FJ5">
-        <v>0.8951982308117529</v>
+        <v>1</v>
       </c>
       <c r="FK5">
-        <v>0.897267684009891</v>
+        <v>1</v>
       </c>
       <c r="FL5">
-        <v>0.906533164092945</v>
+        <v>1</v>
       </c>
       <c r="FM5">
-        <v>0.9195786620224955</v>
+        <v>1</v>
       </c>
       <c r="FN5">
-        <v>0.9305712617129318</v>
+        <v>1</v>
       </c>
       <c r="FO5">
-        <v>0.9351627796712662</v>
+        <v>1</v>
       </c>
       <c r="FP5">
-        <v>0.9354288365577016</v>
+        <v>1</v>
       </c>
       <c r="FQ5">
-        <v>0.9433453951407729</v>
+        <v>1</v>
       </c>
       <c r="FR5">
-        <v>0.954932512376832</v>
+        <v>1</v>
       </c>
       <c r="FS5">
-        <v>0.9602749032832107</v>
+        <v>1</v>
       </c>
       <c r="FT5">
-        <v>0.9610590316387772</v>
+        <v>1</v>
       </c>
       <c r="FU5">
-        <v>0.963599562626542</v>
+        <v>1</v>
       </c>
       <c r="FV5">
-        <v>0.9663510435602499</v>
+        <v>1</v>
       </c>
       <c r="FW5">
-        <v>0.9680152370466185</v>
+        <v>1</v>
       </c>
       <c r="FX5">
-        <v>0.9713918575700303</v>
+        <v>1</v>
       </c>
       <c r="FY5">
-        <v>0.9758348680302547</v>
+        <v>1</v>
       </c>
       <c r="FZ5">
-        <v>0.9761150194484884</v>
+        <v>1</v>
       </c>
       <c r="GA5">
-        <v>0.9768314729194459</v>
+        <v>1</v>
       </c>
       <c r="GB5">
-        <v>0.978608693847894</v>
+        <v>1</v>
       </c>
       <c r="GC5">
-        <v>0.9805671308859736</v>
+        <v>1</v>
       </c>
       <c r="GD5">
-        <v>0.9817297044292792</v>
+        <v>1</v>
       </c>
       <c r="GE5">
-        <v>0.9818502730032032</v>
+        <v>1</v>
       </c>
       <c r="GF5">
-        <v>0.9822253977991924</v>
+        <v>1</v>
       </c>
       <c r="GG5">
-        <v>0.9824692145517469</v>
+        <v>1</v>
       </c>
       <c r="GH5">
-        <v>0.9824697486478376</v>
+        <v>1</v>
       </c>
       <c r="GI5">
-        <v>0.9831462793219859</v>
+        <v>1</v>
       </c>
       <c r="GJ5">
-        <v>0.9900023446586894</v>
+        <v>1</v>
       </c>
       <c r="GK5">
-        <v>0.994775373961632</v>
+        <v>1</v>
       </c>
       <c r="GL5">
-        <v>0.9951083786477183</v>
+        <v>1</v>
       </c>
       <c r="GM5">
-        <v>0.9960414618089143</v>
+        <v>1</v>
       </c>
       <c r="GN5">
-        <v>0.9973867775934159</v>
+        <v>1</v>
       </c>
       <c r="GO5">
-        <v>0.9975477834178534</v>
+        <v>1</v>
       </c>
       <c r="GP5">
-        <v>0.999483188924124</v>
+        <v>1</v>
       </c>
       <c r="GQ5">
-        <v>0.9995268046205344</v>
+        <v>1</v>
       </c>
       <c r="GR5">
-        <v>0.9998939133013582</v>
+        <v>1</v>
       </c>
       <c r="GS5">
         <v>1</v>
@@ -9740,769 +9740,769 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.413021598663459E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0001891541059952883</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0003243871814517459</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0003828146019540417</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0004753879420448749</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0006248872806692209</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0007105346283076188</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0007105346283076188</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0007105346283076188</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0007145559230825793</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0007145559230825793</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0007433788784274404</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0007830407370046243</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0007830407370046243</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0007830407370046243</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.000801049921289432</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0008260127688527817</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0008522384960553654</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0008535924527801588</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0008742580343683198</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0009197758413033267</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0009534514009114711</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0009534514009114711</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0009825688190711983</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.001121040726117872</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.001139173466234296</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.001139173466234296</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.001139173466234296</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.001154879245270666</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.001156522855888934</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.001181610924680875</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.001205457558698778</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.001214725769262284</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.001221482111540371</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.00132554888591793</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.00153137942098818</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.001670115528293384</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.001696468855147779</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.001707067564673757</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.001737810489394919</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.001803330578243171</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.001854465345565049</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.001864341455066217</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.001864341455066217</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.001864341455066217</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.00186606757243492</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.001898041078308704</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.001944270169982639</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.001951787729867103</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.001951787729867103</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.001986882353908358</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.002092003746177881</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.002123215350460841</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.002123215350460841</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.002148736536630588</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.002250277159164667</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.002277789589294902</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.002277789589294902</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.002277789589294902</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.002277789589294902</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.00229314332464132</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.00229314332464132</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.002332955816021503</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.002461593128318419</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.002484760374506024</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.002515805355971854</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.0027434396127342</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.002860163127723695</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.002860163127723695</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.002879534921186611</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.003086430489138928</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.003137379085508408</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.003137379085508408</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.003144052035761901</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.003144052035761901</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.003144052035761901</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.003164201634705815</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.00318724736800217</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.00318724736800217</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.00318724736800217</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.003223462184315378</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.003290675059559683</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.003342763899059945</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.003345890680378284</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.003377558544347345</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.003440015127949335</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.003496891466007447</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.003621060076584889</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.005676449186996842</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.1141774856426935</v>
+        <v>0.2154737621969949</v>
       </c>
       <c r="CO6">
-        <v>0.133807643892254</v>
+        <v>0.2154737621969949</v>
       </c>
       <c r="CP6">
-        <v>0.2922596137997031</v>
+        <v>0.5681172589552773</v>
       </c>
       <c r="CQ6">
-        <v>0.294277714441514</v>
+        <v>0.5681172589552773</v>
       </c>
       <c r="CR6">
-        <v>0.2997128380410703</v>
+        <v>0.5681172589552773</v>
       </c>
       <c r="CS6">
-        <v>0.3021500876562219</v>
+        <v>0.5681172589552773</v>
       </c>
       <c r="CT6">
-        <v>0.3025189204374007</v>
+        <v>0.5681172589552773</v>
       </c>
       <c r="CU6">
-        <v>0.3322061556512418</v>
+        <v>0.5681172589552773</v>
       </c>
       <c r="CV6">
-        <v>0.3594141625577786</v>
+        <v>0.5681172589552773</v>
       </c>
       <c r="CW6">
-        <v>0.3659383863790774</v>
+        <v>0.5681172589552773</v>
       </c>
       <c r="CX6">
-        <v>0.4510637837110834</v>
+        <v>0.7193994236740349</v>
       </c>
       <c r="CY6">
-        <v>0.4659149326211688</v>
+        <v>0.7193994236740349</v>
       </c>
       <c r="CZ6">
-        <v>0.480056033572401</v>
+        <v>0.7193994236740349</v>
       </c>
       <c r="DA6">
-        <v>0.4925599761920215</v>
+        <v>0.7193994236740349</v>
       </c>
       <c r="DB6">
-        <v>0.4960926966981016</v>
+        <v>0.7193994236740349</v>
       </c>
       <c r="DC6">
-        <v>0.578633008364271</v>
+        <v>0.8635827117533101</v>
       </c>
       <c r="DD6">
-        <v>0.6012256815065515</v>
+        <v>0.8635827117533101</v>
       </c>
       <c r="DE6">
-        <v>0.6559009275006937</v>
+        <v>0.9312460351865449</v>
       </c>
       <c r="DF6">
-        <v>0.6631150365610173</v>
+        <v>0.9312460351865449</v>
       </c>
       <c r="DG6">
-        <v>0.718187444182521</v>
+        <v>1</v>
       </c>
       <c r="DH6">
-        <v>0.7233590354849314</v>
+        <v>1</v>
       </c>
       <c r="DI6">
-        <v>0.7454048285128098</v>
+        <v>1</v>
       </c>
       <c r="DJ6">
-        <v>0.7456171249941965</v>
+        <v>1</v>
       </c>
       <c r="DK6">
-        <v>0.7625780094074488</v>
+        <v>1</v>
       </c>
       <c r="DL6">
-        <v>0.7849923638990037</v>
+        <v>1</v>
       </c>
       <c r="DM6">
-        <v>0.7872071622441696</v>
+        <v>1</v>
       </c>
       <c r="DN6">
-        <v>0.8025591655246579</v>
+        <v>1</v>
       </c>
       <c r="DO6">
-        <v>0.8028151888212385</v>
+        <v>1</v>
       </c>
       <c r="DP6">
-        <v>0.8029542481537557</v>
+        <v>1</v>
       </c>
       <c r="DQ6">
-        <v>0.80621252065191</v>
+        <v>1</v>
       </c>
       <c r="DR6">
-        <v>0.809512509792053</v>
+        <v>1</v>
       </c>
       <c r="DS6">
-        <v>0.8095890322524104</v>
+        <v>1</v>
       </c>
       <c r="DT6">
-        <v>0.8096585748908396</v>
+        <v>1</v>
       </c>
       <c r="DU6">
-        <v>0.8105917425086784</v>
+        <v>1</v>
       </c>
       <c r="DV6">
-        <v>0.8122427937631161</v>
+        <v>1</v>
       </c>
       <c r="DW6">
-        <v>0.8130824273591728</v>
+        <v>1</v>
       </c>
       <c r="DX6">
-        <v>0.813092508455708</v>
+        <v>1</v>
       </c>
       <c r="DY6">
-        <v>0.8144667353820263</v>
+        <v>1</v>
       </c>
       <c r="DZ6">
-        <v>0.814714122729045</v>
+        <v>1</v>
       </c>
       <c r="EA6">
-        <v>0.8256277344148587</v>
+        <v>1</v>
       </c>
       <c r="EB6">
-        <v>0.8288059684150879</v>
+        <v>1</v>
       </c>
       <c r="EC6">
-        <v>0.829044939769124</v>
+        <v>1</v>
       </c>
       <c r="ED6">
-        <v>0.8290499949789938</v>
+        <v>1</v>
       </c>
       <c r="EE6">
-        <v>0.8312498387002469</v>
+        <v>1</v>
       </c>
       <c r="EF6">
-        <v>0.8339999357909657</v>
+        <v>1</v>
       </c>
       <c r="EG6">
-        <v>0.8380556430221359</v>
+        <v>1</v>
       </c>
       <c r="EH6">
-        <v>0.8387807373038826</v>
+        <v>1</v>
       </c>
       <c r="EI6">
-        <v>0.8388285840077557</v>
+        <v>1</v>
       </c>
       <c r="EJ6">
-        <v>0.8388454944486395</v>
+        <v>1</v>
       </c>
       <c r="EK6">
-        <v>0.8436687980670483</v>
+        <v>1</v>
       </c>
       <c r="EL6">
-        <v>0.8439746074898767</v>
+        <v>1</v>
       </c>
       <c r="EM6">
-        <v>0.851236201894976</v>
+        <v>1</v>
       </c>
       <c r="EN6">
-        <v>0.8571315979561466</v>
+        <v>1</v>
       </c>
       <c r="EO6">
-        <v>0.8571318726239708</v>
+        <v>1</v>
       </c>
       <c r="EP6">
-        <v>0.8574857917902604</v>
+        <v>1</v>
       </c>
       <c r="EQ6">
-        <v>0.8590109034822225</v>
+        <v>1</v>
       </c>
       <c r="ER6">
-        <v>0.8647122492504068</v>
+        <v>1</v>
       </c>
       <c r="ES6">
-        <v>0.8672208934224195</v>
+        <v>1</v>
       </c>
       <c r="ET6">
-        <v>0.8690069620047922</v>
+        <v>1</v>
       </c>
       <c r="EU6">
-        <v>0.8756001724172117</v>
+        <v>1</v>
       </c>
       <c r="EV6">
-        <v>0.8811143147469602</v>
+        <v>1</v>
       </c>
       <c r="EW6">
-        <v>0.8811948957276707</v>
+        <v>1</v>
       </c>
       <c r="EX6">
-        <v>0.8842136284606853</v>
+        <v>1</v>
       </c>
       <c r="EY6">
-        <v>0.8958380311748384</v>
+        <v>1</v>
       </c>
       <c r="EZ6">
-        <v>0.9124093989640405</v>
+        <v>1</v>
       </c>
       <c r="FA6">
-        <v>0.9219259929481958</v>
+        <v>1</v>
       </c>
       <c r="FB6">
-        <v>0.9219777067258765</v>
+        <v>1</v>
       </c>
       <c r="FC6">
-        <v>0.9219777067258765</v>
+        <v>1</v>
       </c>
       <c r="FD6">
-        <v>0.9254242221585939</v>
+        <v>1</v>
       </c>
       <c r="FE6">
-        <v>0.9275652028593938</v>
+        <v>1</v>
       </c>
       <c r="FF6">
-        <v>0.9279359210441991</v>
+        <v>1</v>
       </c>
       <c r="FG6">
-        <v>0.9288162077515245</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.9310025110843478</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.936253125823725</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.9365170882669721</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.9377320771048642</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.9465885099313135</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.9536040662183143</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.9582125059871709</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.9601399402345224</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.9627108974926037</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.9695164470207729</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.9739840911450706</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.9743604936812573</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.9747699077503309</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.9757696129344544</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.9760150663980706</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.9763924204637761</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.9788129081537998</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.9810287356802473</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.9810290172755421</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.9826456727247356</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.9840144948720557</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.9855329663068189</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.9855846800844996</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.9859740273417833</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.986009584298251</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.986009584298251</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.9860863074274274</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.9880728721802183</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.9939626785963165</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.9953495583335908</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.9953611179661556</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.9958816785263116</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.9961565454141235</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.9974735775209993</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.9995809605653156</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9995903394291403</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.9998949043808245</v>
+        <v>1</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10573,10 +10573,10 @@
         <v>106</v>
       </c>
       <c r="E2">
-        <v>0.04481647412104392</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5483774007325271</v>
+        <v>0.8486976881650474</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -10614,10 +10614,10 @@
         <v>106</v>
       </c>
       <c r="E3">
-        <v>0.0445875186562882</v>
+        <v>0.03810198227489067</v>
       </c>
       <c r="F3">
-        <v>0.5031260037149837</v>
+        <v>0.7798917588052647</v>
       </c>
       <c r="G3">
         <v>16</v>
@@ -10652,16 +10652,16 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E4">
-        <v>0.04611963584523399</v>
+        <v>0.03446438426650627</v>
       </c>
       <c r="F4">
-        <v>0.5793332860327445</v>
+        <v>0.6237322632324842</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>34</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E5">
-        <v>0.07577182284218636</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5589236601951707</v>
+        <v>0.6470335270563481</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>34</v>
@@ -10734,16 +10734,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.003621060076584889</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.578633008364271</v>
+        <v>0.5681172589552773</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>34</v>
@@ -10829,16 +10829,16 @@
         <v>91</v>
       </c>
       <c r="D2">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E2">
-        <v>0.04481647412104392</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7041328497567655</v>
+        <v>0.8486976881650474</v>
       </c>
       <c r="G2">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>34</v>
@@ -10870,16 +10870,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E3">
-        <v>0.0445875186562882</v>
+        <v>0.03810198227489067</v>
       </c>
       <c r="F3">
-        <v>0.7110615269757319</v>
+        <v>0.7798917588052647</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>34</v>
@@ -10911,16 +10911,16 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E4">
-        <v>0.04611963584523399</v>
+        <v>0.03446438426650627</v>
       </c>
       <c r="F4">
-        <v>0.7060272864574766</v>
+        <v>0.839465663235337</v>
       </c>
       <c r="G4">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>34</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E5">
-        <v>0.07577182284218636</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7257485018533164</v>
+        <v>0.9597248228246358</v>
       </c>
       <c r="G5">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>34</v>
@@ -10993,16 +10993,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E6">
-        <v>0.003621060076584889</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.718187444182521</v>
+        <v>0.7193994236740349</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>34</v>
@@ -11088,16 +11088,16 @@
         <v>91</v>
       </c>
       <c r="D2">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="E2">
-        <v>0.04481647412104392</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.802044644804553</v>
+        <v>0.8486976881650474</v>
       </c>
       <c r="G2">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>34</v>
@@ -11129,16 +11129,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="E3">
-        <v>0.0445875186562882</v>
+        <v>0.03810198227489067</v>
       </c>
       <c r="F3">
-        <v>0.8004813615078031</v>
+        <v>0.8718426817887266</v>
       </c>
       <c r="G3">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>34</v>
@@ -11170,16 +11170,16 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="E4">
-        <v>0.04611963584523399</v>
+        <v>0.03446438426650627</v>
       </c>
       <c r="F4">
-        <v>0.8021737479844674</v>
+        <v>0.839465663235337</v>
       </c>
       <c r="G4">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>34</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="E5">
-        <v>0.07577182284218636</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8017742297384335</v>
+        <v>0.9597248228246358</v>
       </c>
       <c r="G5">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>34</v>
@@ -11252,16 +11252,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E6">
-        <v>0.003621060076584889</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8025591655246579</v>
+        <v>0.8635827117533101</v>
       </c>
       <c r="G6">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>34</v>
@@ -11347,16 +11347,16 @@
         <v>91</v>
       </c>
       <c r="D2">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="E2">
-        <v>0.04481647412104392</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9095076509390378</v>
+        <v>0.9321525322434648</v>
       </c>
       <c r="G2">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>34</v>
@@ -11388,16 +11388,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="E3">
-        <v>0.0445875186562882</v>
+        <v>0.03810198227489067</v>
       </c>
       <c r="F3">
-        <v>0.9079310935028495</v>
+        <v>0.978306862313736</v>
       </c>
       <c r="G3">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>34</v>
@@ -11429,16 +11429,16 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="E4">
-        <v>0.04611963584523399</v>
+        <v>0.03446438426650627</v>
       </c>
       <c r="F4">
-        <v>0.90372630347794</v>
+        <v>0.9221406801419607</v>
       </c>
       <c r="G4">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>34</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="E5">
-        <v>0.07577182284218636</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.906533164092945</v>
+        <v>0.9597248228246358</v>
       </c>
       <c r="G5">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>34</v>
@@ -11511,16 +11511,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="E6">
-        <v>0.003621060076584889</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9124093989640405</v>
+        <v>0.9312460351865449</v>
       </c>
       <c r="G6">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>34</v>

--- a/on_trucks/Processed_Stand_Alone/34_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/34_11R22.xlsx
@@ -674,16 +674,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0196080366815155</v>
+        <v>0.03870502709331878</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.01442294103101579</v>
       </c>
       <c r="F2">
-        <v>0.04227410263991128</v>
+        <v>0.05481627818721881</v>
       </c>
       <c r="G2">
-        <v>0.1446231820791754</v>
+        <v>0.127566958481816</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -695,19 +695,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.01804883216754858</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.03530931856046182</v>
+        <v>0.04986564470169137</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.001962358969917726</v>
       </c>
       <c r="O2">
-        <v>0.1844350553421669</v>
+        <v>0.1558656093300014</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -716,40 +716,40 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.09986386382715652</v>
+        <v>0.09575161758967751</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.3264395640858673</v>
+        <v>0.2568037386478605</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0.09079304972720972</v>
+        <v>0.08930399832224134</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0.05665382705653563</v>
+        <v>0.06503752042495724</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.002951649283817465</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.01722365271253467</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.01167417305638264</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -784,16 +784,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05181097338657904</v>
+        <v>0.06030395935270255</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.01833892476396565</v>
       </c>
       <c r="F3">
-        <v>0.1502123271591191</v>
+        <v>0.1264042207040559</v>
       </c>
       <c r="G3">
-        <v>0.1122869301455406</v>
+        <v>0.1009281621099216</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -805,19 +805,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.006161172916394787</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.02290097862502213</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1686381244589652</v>
+        <v>0.1387815912424963</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -826,46 +826,46 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.01772123120152493</v>
+        <v>0.03740446883307973</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.2574835709391959</v>
+        <v>0.1984627542252333</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.09579204411344422</v>
+        <v>0.08984786457455754</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.1076457333042218</v>
+        <v>0.0978104781306605</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.0204739724653183</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.03840906529140924</v>
+        <v>0.05130134309047839</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>0.02295002717320101</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.007930081792912311</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -894,16 +894,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04575874071720502</v>
+        <v>0.05652261696613039</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.02271715538431906</v>
       </c>
       <c r="F4">
-        <v>0.2065758525627994</v>
+        <v>0.165753648731275</v>
       </c>
       <c r="G4">
-        <v>0.1033444278195853</v>
+        <v>0.0956362656625275</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0006555631716222298</v>
+        <v>0.02588740307222113</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.02779674280133414</v>
+        <v>0.04432237569580003</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.2201216447844603</v>
+        <v>0.1749542918933592</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -936,40 +936,40 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0147612921361462</v>
+        <v>0.03546836936935121</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0.1962654801767864</v>
+        <v>0.1587505841899322</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0.08578778316813074</v>
+        <v>0.08371135053624627</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0685017708203691</v>
+        <v>0.0719702556851963</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.01057916320763586</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.03043070184156126</v>
+        <v>0.04611142699941614</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>0.007615092606589643</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -1007,19 +1007,19 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1437093516255188</v>
+        <v>0.1123365162505709</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.09030587272488416</v>
+        <v>0.08023435786795294</v>
       </c>
       <c r="H5">
-        <v>0.04811315763425856</v>
+        <v>0.0548712682281909</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.008559740557759649</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1028,19 +1028,19 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.04086494058415983</v>
+        <v>0.05051418482231758</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.03722536496513904</v>
+        <v>0.04832634546479715</v>
       </c>
       <c r="O5">
-        <v>0.03953587871416944</v>
+        <v>0.04971525270161967</v>
       </c>
       <c r="P5">
-        <v>0.2095665928450432</v>
+        <v>0.151924940671481</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1049,43 +1049,43 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.02161665490212738</v>
+        <v>0.03894356192885025</v>
       </c>
       <c r="T5">
-        <v>0.04393171588392772</v>
+        <v>0.0523576996723563</v>
       </c>
       <c r="U5">
-        <v>0.219722904966277</v>
+        <v>0.1580301522983452</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.01205157270082377</v>
       </c>
       <c r="W5">
-        <v>0.03927108867983479</v>
+        <v>0.04955608083125958</v>
       </c>
       <c r="X5">
-        <v>0.01336451132664207</v>
+        <v>0.03398299333837992</v>
       </c>
       <c r="Y5">
-        <v>0.03350969408683456</v>
+        <v>0.04609276335575605</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.0001176131962880529</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.01340084435790701</v>
       </c>
       <c r="AC5">
-        <v>0.0192622710611836</v>
+        <v>0.03752828328949263</v>
       </c>
       <c r="AD5">
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.001455828465851617</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2066587911639945</v>
+        <v>0.160701448128282</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.018548893209366</v>
       </c>
       <c r="G6">
-        <v>0.3289900707075689</v>
+        <v>0.2405999813044859</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1138,64 +1138,64 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.01364151430125565</v>
+        <v>0.03463559353624502</v>
       </c>
       <c r="M6">
-        <v>0.007569812530033812</v>
+        <v>0.03066996784170477</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1494111754229995</v>
+        <v>0.1233111703301069</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.01090467497612231</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.009768924621187827</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.007150223823547681</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.1430802259215857</v>
+        <v>0.1191762215200979</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.02328755529402197</v>
       </c>
       <c r="V6">
-        <v>0.07483787482483688</v>
+        <v>0.07460492484545161</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.07581053512772536</v>
+        <v>0.07524020089070731</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.02241279848880293</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.01427928202436894</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.02300232741845698</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.01170581174704414</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1347,103 +1347,103 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0196080366815155</v>
+        <v>0.03870502709331878</v>
       </c>
       <c r="E2">
-        <v>0.0196080366815155</v>
+        <v>0.05312796812433457</v>
       </c>
       <c r="F2">
-        <v>0.06188213932142678</v>
+        <v>0.1079442463115534</v>
       </c>
       <c r="G2">
-        <v>0.2065053214006022</v>
+        <v>0.2355112047933694</v>
       </c>
       <c r="H2">
-        <v>0.2065053214006022</v>
+        <v>0.2355112047933694</v>
       </c>
       <c r="I2">
-        <v>0.2065053214006022</v>
+        <v>0.2355112047933694</v>
       </c>
       <c r="J2">
-        <v>0.2065053214006022</v>
+        <v>0.2355112047933694</v>
       </c>
       <c r="K2">
-        <v>0.2065053214006022</v>
+        <v>0.253560036960918</v>
       </c>
       <c r="L2">
-        <v>0.2065053214006022</v>
+        <v>0.253560036960918</v>
       </c>
       <c r="M2">
-        <v>0.241814639961064</v>
+        <v>0.3034256816626094</v>
       </c>
       <c r="N2">
-        <v>0.241814639961064</v>
+        <v>0.3053880406325271</v>
       </c>
       <c r="O2">
-        <v>0.4262496953032309</v>
+        <v>0.4612536499625285</v>
       </c>
       <c r="P2">
-        <v>0.4262496953032309</v>
+        <v>0.4612536499625285</v>
       </c>
       <c r="Q2">
-        <v>0.4262496953032309</v>
+        <v>0.4612536499625285</v>
       </c>
       <c r="R2">
-        <v>0.5261135591303875</v>
+        <v>0.557005267552206</v>
       </c>
       <c r="S2">
-        <v>0.5261135591303875</v>
+        <v>0.557005267552206</v>
       </c>
       <c r="T2">
-        <v>0.8525531232162548</v>
+        <v>0.8138090062000666</v>
       </c>
       <c r="U2">
-        <v>0.8525531232162548</v>
+        <v>0.8138090062000666</v>
       </c>
       <c r="V2">
-        <v>0.9433461729434645</v>
+        <v>0.9031130045223079</v>
       </c>
       <c r="W2">
-        <v>0.9433461729434645</v>
+        <v>0.9031130045223079</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0.9681505249472652</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0.9681505249472652</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.9711021742310826</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0.9711021742310826</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0.9883258269436173</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -1457,85 +1457,85 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05181097338657904</v>
+        <v>0.06030395935270255</v>
       </c>
       <c r="E3">
-        <v>0.05181097338657904</v>
+        <v>0.0786428841166682</v>
       </c>
       <c r="F3">
-        <v>0.2020233005456982</v>
+        <v>0.2050471048207241</v>
       </c>
       <c r="G3">
-        <v>0.3143102306912388</v>
+        <v>0.3059752669306457</v>
       </c>
       <c r="H3">
-        <v>0.3143102306912388</v>
+        <v>0.3059752669306457</v>
       </c>
       <c r="I3">
-        <v>0.3143102306912388</v>
+        <v>0.3059752669306457</v>
       </c>
       <c r="J3">
-        <v>0.3143102306912388</v>
+        <v>0.3059752669306457</v>
       </c>
       <c r="K3">
-        <v>0.3143102306912388</v>
+        <v>0.3121364398470405</v>
       </c>
       <c r="L3">
-        <v>0.3143102306912388</v>
+        <v>0.3121364398470405</v>
       </c>
       <c r="M3">
-        <v>0.3143102306912388</v>
+        <v>0.3350374184720626</v>
       </c>
       <c r="N3">
-        <v>0.3143102306912388</v>
+        <v>0.3350374184720626</v>
       </c>
       <c r="O3">
-        <v>0.482948355150204</v>
+        <v>0.4738190097145589</v>
       </c>
       <c r="P3">
-        <v>0.482948355150204</v>
+        <v>0.4738190097145589</v>
       </c>
       <c r="Q3">
-        <v>0.482948355150204</v>
+        <v>0.4738190097145589</v>
       </c>
       <c r="R3">
-        <v>0.500669586351729</v>
+        <v>0.5112234785476386</v>
       </c>
       <c r="S3">
-        <v>0.500669586351729</v>
+        <v>0.5112234785476386</v>
       </c>
       <c r="T3">
-        <v>0.7581531572909249</v>
+        <v>0.7096862327728719</v>
       </c>
       <c r="U3">
-        <v>0.7581531572909249</v>
+        <v>0.7096862327728719</v>
       </c>
       <c r="V3">
-        <v>0.8539452014043691</v>
+        <v>0.7995340973474294</v>
       </c>
       <c r="W3">
-        <v>0.8539452014043691</v>
+        <v>0.7995340973474294</v>
       </c>
       <c r="X3">
-        <v>0.9615909347085909</v>
+        <v>0.8973445754780899</v>
       </c>
       <c r="Y3">
-        <v>0.9615909347085909</v>
+        <v>0.8973445754780899</v>
       </c>
       <c r="Z3">
-        <v>0.9615909347085909</v>
+        <v>0.9178185479434082</v>
       </c>
       <c r="AA3">
-        <v>0.9615909347085909</v>
+        <v>0.9178185479434082</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0.9691198910338866</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0.9920699182070877</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0.9920699182070877</v>
       </c>
       <c r="AE3">
         <v>1</v>
@@ -1567,79 +1567,79 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04575874071720502</v>
+        <v>0.05652261696613039</v>
       </c>
       <c r="E4">
-        <v>0.04575874071720502</v>
+        <v>0.07923977235044945</v>
       </c>
       <c r="F4">
-        <v>0.2523345932800044</v>
+        <v>0.2449934210817245</v>
       </c>
       <c r="G4">
-        <v>0.3556790210995897</v>
+        <v>0.340629686744252</v>
       </c>
       <c r="H4">
-        <v>0.3556790210995897</v>
+        <v>0.340629686744252</v>
       </c>
       <c r="I4">
-        <v>0.3556790210995897</v>
+        <v>0.340629686744252</v>
       </c>
       <c r="J4">
-        <v>0.3556790210995897</v>
+        <v>0.340629686744252</v>
       </c>
       <c r="K4">
-        <v>0.356334584271212</v>
+        <v>0.3665170898164731</v>
       </c>
       <c r="L4">
-        <v>0.356334584271212</v>
+        <v>0.3665170898164731</v>
       </c>
       <c r="M4">
-        <v>0.3841313270725461</v>
+        <v>0.4108394655122732</v>
       </c>
       <c r="N4">
-        <v>0.3841313270725461</v>
+        <v>0.4108394655122732</v>
       </c>
       <c r="O4">
-        <v>0.6042529718570064</v>
+        <v>0.5857937574056324</v>
       </c>
       <c r="P4">
-        <v>0.6042529718570064</v>
+        <v>0.5857937574056324</v>
       </c>
       <c r="Q4">
-        <v>0.6042529718570064</v>
+        <v>0.5857937574056324</v>
       </c>
       <c r="R4">
-        <v>0.6190142639931526</v>
+        <v>0.6212621267749836</v>
       </c>
       <c r="S4">
-        <v>0.6190142639931526</v>
+        <v>0.6212621267749836</v>
       </c>
       <c r="T4">
-        <v>0.815279744169939</v>
+        <v>0.7800127109649158</v>
       </c>
       <c r="U4">
-        <v>0.815279744169939</v>
+        <v>0.7800127109649158</v>
       </c>
       <c r="V4">
-        <v>0.9010675273380697</v>
+        <v>0.863724061501162</v>
       </c>
       <c r="W4">
-        <v>0.9010675273380697</v>
+        <v>0.863724061501162</v>
       </c>
       <c r="X4">
-        <v>0.9695692981584388</v>
+        <v>0.9356943171863583</v>
       </c>
       <c r="Y4">
-        <v>0.9695692981584388</v>
+        <v>0.9356943171863583</v>
       </c>
       <c r="Z4">
-        <v>0.9695692981584388</v>
+        <v>0.9462734803939942</v>
       </c>
       <c r="AA4">
-        <v>0.9695692981584388</v>
+        <v>0.9462734803939942</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0.9923849073934103</v>
       </c>
       <c r="AC4">
         <v>1</v>
@@ -1680,82 +1680,82 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1437093516255188</v>
+        <v>0.1123365162505709</v>
       </c>
       <c r="F5">
-        <v>0.1437093516255188</v>
+        <v>0.1123365162505709</v>
       </c>
       <c r="G5">
-        <v>0.234015224350403</v>
+        <v>0.1925708741185238</v>
       </c>
       <c r="H5">
-        <v>0.2821283819846616</v>
+        <v>0.2474421423467147</v>
       </c>
       <c r="I5">
-        <v>0.2821283819846616</v>
+        <v>0.2560018829044744</v>
       </c>
       <c r="J5">
-        <v>0.2821283819846616</v>
+        <v>0.2560018829044744</v>
       </c>
       <c r="K5">
-        <v>0.2821283819846616</v>
+        <v>0.2560018829044744</v>
       </c>
       <c r="L5">
-        <v>0.3229933225688214</v>
+        <v>0.306516067726792</v>
       </c>
       <c r="M5">
-        <v>0.3229933225688214</v>
+        <v>0.306516067726792</v>
       </c>
       <c r="N5">
-        <v>0.3602186875339605</v>
+        <v>0.3548424131915891</v>
       </c>
       <c r="O5">
-        <v>0.3997545662481299</v>
+        <v>0.4045576658932088</v>
       </c>
       <c r="P5">
-        <v>0.6093211590931731</v>
+        <v>0.5564826065646898</v>
       </c>
       <c r="Q5">
-        <v>0.6093211590931731</v>
+        <v>0.5564826065646898</v>
       </c>
       <c r="R5">
-        <v>0.6093211590931731</v>
+        <v>0.5564826065646898</v>
       </c>
       <c r="S5">
-        <v>0.6309378139953005</v>
+        <v>0.5954261684935401</v>
       </c>
       <c r="T5">
-        <v>0.6748695298792282</v>
+        <v>0.6477838681658964</v>
       </c>
       <c r="U5">
-        <v>0.8945924348455052</v>
+        <v>0.8058140204642417</v>
       </c>
       <c r="V5">
-        <v>0.8945924348455052</v>
+        <v>0.8178655931650655</v>
       </c>
       <c r="W5">
-        <v>0.93386352352534</v>
+        <v>0.8674216739963251</v>
       </c>
       <c r="X5">
-        <v>0.947228034851982</v>
+        <v>0.901404667334705</v>
       </c>
       <c r="Y5">
-        <v>0.9807377289388166</v>
+        <v>0.9474974306904611</v>
       </c>
       <c r="Z5">
-        <v>0.9807377289388166</v>
+        <v>0.9476150438867491</v>
       </c>
       <c r="AA5">
-        <v>0.9807377289388166</v>
+        <v>0.9476150438867491</v>
       </c>
       <c r="AB5">
-        <v>0.9807377289388166</v>
+        <v>0.9610158882446561</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.9985441715341488</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0.9985441715341488</v>
       </c>
       <c r="AE5">
         <v>1</v>
@@ -1790,82 +1790,82 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2066587911639945</v>
+        <v>0.160701448128282</v>
       </c>
       <c r="F6">
-        <v>0.2066587911639945</v>
+        <v>0.179250341337648</v>
       </c>
       <c r="G6">
-        <v>0.5356488618715634</v>
+        <v>0.419850322642134</v>
       </c>
       <c r="H6">
-        <v>0.5356488618715634</v>
+        <v>0.419850322642134</v>
       </c>
       <c r="I6">
-        <v>0.5356488618715634</v>
+        <v>0.419850322642134</v>
       </c>
       <c r="J6">
-        <v>0.5356488618715634</v>
+        <v>0.419850322642134</v>
       </c>
       <c r="K6">
-        <v>0.5356488618715634</v>
+        <v>0.419850322642134</v>
       </c>
       <c r="L6">
-        <v>0.549290376172819</v>
+        <v>0.454485916178379</v>
       </c>
       <c r="M6">
-        <v>0.5568601887028528</v>
+        <v>0.4851558840200837</v>
       </c>
       <c r="N6">
-        <v>0.5568601887028528</v>
+        <v>0.4851558840200837</v>
       </c>
       <c r="O6">
-        <v>0.7062713641258522</v>
+        <v>0.6084670543501907</v>
       </c>
       <c r="P6">
-        <v>0.7062713641258522</v>
+        <v>0.619371729326313</v>
       </c>
       <c r="Q6">
-        <v>0.7062713641258522</v>
+        <v>0.6291406539475008</v>
       </c>
       <c r="R6">
-        <v>0.7062713641258522</v>
+        <v>0.6362908777710485</v>
       </c>
       <c r="S6">
-        <v>0.7062713641258522</v>
+        <v>0.6362908777710485</v>
       </c>
       <c r="T6">
-        <v>0.8493515900474379</v>
+        <v>0.7554670992911464</v>
       </c>
       <c r="U6">
-        <v>0.8493515900474379</v>
+        <v>0.7787546545851683</v>
       </c>
       <c r="V6">
-        <v>0.9241894648722747</v>
+        <v>0.8533595794306199</v>
       </c>
       <c r="W6">
-        <v>0.9241894648722747</v>
+        <v>0.8533595794306199</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0.9285997803213272</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>0.9285997803213272</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0.9510125788101301</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0.9510125788101301</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0.965291860834499</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.988294188252956</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.988294188252956</v>
       </c>
       <c r="AE6">
         <v>1</v>
@@ -1948,19 +1948,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>17</v>
       </c>
       <c r="E2">
-        <v>0.0196080366815155</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5261135591303875</v>
+        <v>0.557005267552206</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>34</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.500669586351729</v>
+        <v>0.5112234785476386</v>
       </c>
       <c r="G3">
         <v>16</v>
@@ -2030,19 +2030,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>14</v>
       </c>
       <c r="E4">
-        <v>0.04575874071720502</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6042529718570064</v>
+        <v>0.5857937574056324</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>34</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6093211590931731</v>
+        <v>0.5564826065646898</v>
       </c>
       <c r="G5">
         <v>13</v>
@@ -2115,16 +2115,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5356488618715634</v>
+        <v>0.6084670543501907</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>34</v>
@@ -2207,19 +2207,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>19</v>
       </c>
       <c r="E2">
-        <v>0.0196080366815155</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8525531232162548</v>
+        <v>0.8138090062000666</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>34</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7581531572909249</v>
+        <v>0.7096862327728719</v>
       </c>
       <c r="G3">
         <v>18</v>
@@ -2289,19 +2289,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>19</v>
       </c>
       <c r="E4">
-        <v>0.04575874071720502</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.815279744169939</v>
+        <v>0.7800127109649158</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>34</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8945924348455052</v>
+        <v>0.8058140204642417</v>
       </c>
       <c r="G5">
         <v>18</v>
@@ -2374,16 +2374,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7062713641258522</v>
+        <v>0.7554670992911464</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>34</v>
@@ -2466,19 +2466,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>19</v>
       </c>
       <c r="E2">
-        <v>0.0196080366815155</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8525531232162548</v>
+        <v>0.8138090062000666</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>34</v>
@@ -2510,16 +2510,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8539452014043691</v>
+        <v>0.8973445754780899</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <v>34</v>
@@ -2548,19 +2548,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>0.04575874071720502</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.815279744169939</v>
+        <v>0.863724061501162</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>34</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8945924348455052</v>
+        <v>0.8058140204642417</v>
       </c>
       <c r="G5">
         <v>18</v>
@@ -2633,16 +2633,16 @@
         <v>2</v>
       </c>
       <c r="D6">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.8533595794306199</v>
+      </c>
+      <c r="G6">
         <v>19</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.8493515900474379</v>
-      </c>
-      <c r="G6">
-        <v>17</v>
       </c>
       <c r="H6">
         <v>34</v>
@@ -2725,19 +2725,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>0.0196080366815155</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9433461729434645</v>
+        <v>0.9031130045223079</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>34</v>
@@ -2769,16 +2769,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9615909347085909</v>
+        <v>0.9178185479434082</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3">
         <v>34</v>
@@ -2807,19 +2807,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>0.04575874071720502</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9010675273380697</v>
+        <v>0.9356943171863583</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H4">
         <v>34</v>
@@ -2851,16 +2851,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.93386352352534</v>
+        <v>0.901404667334705</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>34</v>
@@ -2892,16 +2892,16 @@
         <v>2</v>
       </c>
       <c r="D6">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.9285997803213272</v>
+      </c>
+      <c r="G6">
         <v>21</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.9241894648722747</v>
-      </c>
-      <c r="G6">
-        <v>19</v>
       </c>
       <c r="H6">
         <v>34</v>
